--- a/qualitative_analysis.xlsx
+++ b/qualitative_analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="2" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="309">
   <si>
     <t xml:space="preserve">Co-Tags</t>
   </si>
@@ -515,6 +515,9 @@
     <t xml:space="preserve">E_wiki</t>
   </si>
   <si>
+    <t xml:space="preserve">Co_occ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Clustering Coefficient</t>
   </si>
   <si>
@@ -536,6 +539,15 @@
     <t xml:space="preserve">Ex</t>
   </si>
   <si>
+    <t xml:space="preserve">module ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of tags</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bioinformatics</t>
   </si>
   <si>
@@ -557,6 +569,9 @@
     <t xml:space="preserve">Semantic Web</t>
   </si>
   <si>
+    <t xml:space="preserve">Relational Algebra</t>
+  </si>
+  <si>
     <t xml:space="preserve">Time</t>
   </si>
   <si>
@@ -569,6 +584,9 @@
     <t xml:space="preserve">Speech</t>
   </si>
   <si>
+    <t xml:space="preserve">ERP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Encryption</t>
   </si>
   <si>
@@ -584,6 +602,9 @@
     <t xml:space="preserve">Mobile</t>
   </si>
   <si>
+    <t xml:space="preserve">Combinations</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linux</t>
   </si>
   <si>
@@ -593,6 +614,9 @@
     <t xml:space="preserve">XML</t>
   </si>
   <si>
+    <t xml:space="preserve">Brackets</t>
+  </si>
+  <si>
     <t xml:space="preserve">Text Editors</t>
   </si>
   <si>
@@ -611,39 +635,63 @@
     <t xml:space="preserve">Design</t>
   </si>
   <si>
+    <t xml:space="preserve">Chat Apps</t>
+  </si>
+  <si>
     <t xml:space="preserve">Memory Management</t>
   </si>
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
   <si>
+    <t xml:space="preserve">Cloud Platforms</t>
+  </si>
+  <si>
     <t xml:space="preserve">Web Development</t>
   </si>
   <si>
     <t xml:space="preserve">Build Tools and CVS</t>
   </si>
   <si>
+    <t xml:space="preserve">Datatables</t>
+  </si>
+  <si>
     <t xml:space="preserve">Math</t>
   </si>
   <si>
     <t xml:space="preserve">Web</t>
   </si>
   <si>
+    <t xml:space="preserve">SAP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Machine Learning</t>
   </si>
   <si>
+    <t xml:space="preserve">Windows Mobile</t>
+  </si>
+  <si>
     <t xml:space="preserve">Build Tools and Version Control Systems</t>
   </si>
   <si>
     <t xml:space="preserve">Graphics</t>
   </si>
   <si>
+    <t xml:space="preserve">Web Ranking</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mobile Development</t>
   </si>
   <si>
+    <t xml:space="preserve">Path Finding Graphs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Image Processing</t>
   </si>
   <si>
+    <t xml:space="preserve">Archiving Files</t>
+  </si>
+  <si>
     <t xml:space="preserve">SQL and DB</t>
   </si>
   <si>
@@ -653,10 +701,34 @@
     <t xml:space="preserve">Web development</t>
   </si>
   <si>
+    <t xml:space="preserve">Caching</t>
+  </si>
+  <si>
     <t xml:space="preserve">Information retrieval</t>
   </si>
   <si>
     <t xml:space="preserve">Web and HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVC Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability Density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unix Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differential Equations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exception Handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perl</t>
   </si>
   <si>
     <t xml:space="preserve">assemblies</t>
@@ -888,11 +960,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -914,15 +987,29 @@
       <color rgb="FF000000"/>
       <name val="Monospace"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Monospace"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -933,19 +1020,33 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -990,6 +1091,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF99CC66"/>
+        <bgColor rgb="FFB3B3B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF66"/>
+        <bgColor rgb="FFCCFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFD320"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FF83CAFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -997,13 +1122,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFF99"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFF99"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFF66"/>
       </patternFill>
     </fill>
     <fill>
@@ -1140,7 +1265,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1165,14 +1290,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1189,7 +1306,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1198,6 +1315,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1217,11 +1342,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1233,59 +1354,107 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1297,19 +1466,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1317,11 +1486,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1329,15 +1498,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1357,7 +1526,7 @@
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFCCFF99"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF7E0021"/>
@@ -1368,7 +1537,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF83CAFF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -1378,7 +1547,7 @@
       <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF66"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1388,13 +1557,13 @@
       <rgbColor rgb="FFCFE7F5"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99FF99"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF9999"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFCCFF99"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF99FF99"/>
+      <rgbColor rgb="FF99CC66"/>
       <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1413,7 +1582,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1428,7 +1597,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>modularity_and_cc!$A$3</c:f>
+              <c:f>label 0</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1456,7 +1625,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>modularity_and_cc!$B$2:$F$2</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1479,7 +1648,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>modularity_and_cc!$B$3:$F$3</c:f>
+              <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1507,7 +1676,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>modularity_and_cc!$A$4</c:f>
+              <c:f>label 1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1535,7 +1704,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>modularity_and_cc!$B$2:$F$2</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1558,7 +1727,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>modularity_and_cc!$B$4:$F$4</c:f>
+              <c:f>1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1586,7 +1755,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>modularity_and_cc!$A$5</c:f>
+              <c:f>label 2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1614,7 +1783,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>modularity_and_cc!$B$2:$F$2</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1637,7 +1806,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>modularity_and_cc!$B$5:$F$5</c:f>
+              <c:f>2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1665,7 +1834,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>modularity_and_cc!$A$6</c:f>
+              <c:f>label 3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1693,7 +1862,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>modularity_and_cc!$B$2:$F$2</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1716,7 +1885,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>modularity_and_cc!$B$6:$F$6</c:f>
+              <c:f>3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1744,7 +1913,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>modularity_and_cc!$A$7</c:f>
+              <c:f>label 4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1772,7 +1941,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>modularity_and_cc!$B$2:$F$2</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1795,7 +1964,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>modularity_and_cc!$B$7:$F$7</c:f>
+              <c:f>4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1813,6 +1982,85 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.137707590221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Co_occ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.038881629021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0492661222723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0492661222723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0535437035709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0535437035709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1820,11 +2068,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="35329342"/>
-        <c:axId val="81432753"/>
+        <c:axId val="29646715"/>
+        <c:axId val="60179672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="35329342"/>
+        <c:axId val="29646715"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,7 +2116,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1897,14 +2145,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81432753"/>
+        <c:crossAx val="60179672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81432753"/>
+        <c:axId val="60179672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +2205,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1986,7 +2234,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35329342"/>
+        <c:crossAx val="29646715"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2023,7 +2271,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2038,7 +2286,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>modularity_and_cc!$A$12</c:f>
+              <c:f>label 0</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2066,7 +2314,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>modularity_and_cc!$B$11:$F$11</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2089,7 +2337,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>modularity_and_cc!$B$12:$F$12</c:f>
+              <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2117,7 +2365,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>modularity_and_cc!$A$13</c:f>
+              <c:f>label 1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2145,7 +2393,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>modularity_and_cc!$B$11:$F$11</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2168,7 +2416,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>modularity_and_cc!$B$13:$F$13</c:f>
+              <c:f>1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2196,7 +2444,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>modularity_and_cc!$A$14</c:f>
+              <c:f>label 2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2224,7 +2472,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>modularity_and_cc!$B$11:$F$11</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2247,7 +2495,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>modularity_and_cc!$B$14:$F$14</c:f>
+              <c:f>2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2275,7 +2523,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>modularity_and_cc!$A$15</c:f>
+              <c:f>label 3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2303,7 +2551,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>modularity_and_cc!$B$11:$F$11</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2326,7 +2574,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>modularity_and_cc!$B$15:$F$15</c:f>
+              <c:f>3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2354,7 +2602,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>modularity_and_cc!$A$16</c:f>
+              <c:f>label 4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2382,7 +2630,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>modularity_and_cc!$B$11:$F$11</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2405,7 +2653,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>modularity_and_cc!$B$16:$F$16</c:f>
+              <c:f>4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2423,6 +2671,85 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0299850698611</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Co_occ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00302691295799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00316390471066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00316390471066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00337946343978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00337946343978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2430,11 +2757,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="20805799"/>
-        <c:axId val="35027234"/>
+        <c:axId val="80420662"/>
+        <c:axId val="22427772"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="20805799"/>
+        <c:axId val="80420662"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2478,7 +2805,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2507,14 +2834,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35027234"/>
+        <c:crossAx val="22427772"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35027234"/>
+        <c:axId val="22427772"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,7 +2894,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2596,7 +2923,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20805799"/>
+        <c:crossAx val="80420662"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2633,7 +2960,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2644,10 +2971,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.126078132927448"/>
-          <c:y val="0.076512726718488"/>
-          <c:w val="0.657229832572298"/>
-          <c:h val="0.429812528577961"/>
+          <c:x val="0.126065773447016"/>
+          <c:y val="0.0765360573258119"/>
+          <c:w val="0.657125456760049"/>
+          <c:h val="0.429638664430553"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2678,6 +3005,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2811,6 +3139,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2922,11 +3251,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="96171403"/>
-        <c:axId val="40056329"/>
+        <c:axId val="68917167"/>
+        <c:axId val="2228097"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96171403"/>
+        <c:axId val="68917167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2961,14 +3290,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40056329"/>
+        <c:crossAx val="2228097"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40056329"/>
+        <c:axId val="2228097"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,7 +3312,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3012,7 +3341,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96171403"/>
+        <c:crossAx val="68917167"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3026,6 +3355,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -3034,6 +3364,7 @@
           <c:y val="0.303612254229538"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3060,15 +3391,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:colOff>312840</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1213200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>464400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3076,7 +3407,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="2810880"/>
+        <a:off x="312840" y="3073320"/>
         <a:ext cx="3751920" cy="1924920"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3090,15 +3421,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:colOff>312480</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:colOff>483840</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3106,7 +3437,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="4917960"/>
+        <a:off x="312480" y="5256720"/>
         <a:ext cx="3771720" cy="1936080"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3131,9 +3462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>358200</xdr:colOff>
+      <xdr:colOff>357480</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3141,8 +3472,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6828480" y="2773440"/>
-        <a:ext cx="7095600" cy="2361960"/>
+        <a:off x="5618880" y="2773440"/>
+        <a:ext cx="6337800" cy="2360880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3168,19 +3499,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5051020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6377551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.21938775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.4744897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.0561224489796"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.6377551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.9132653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,9 +3751,6 @@
         <v>0.0274005372331</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="6"/>
-    </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>7</v>
@@ -3431,7 +3758,6 @@
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -3452,7 +3778,7 @@
       <c r="G15" s="5" t="n">
         <v>0.120685410145</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="0" t="n">
         <v>0.0274005372331</v>
       </c>
@@ -3482,7 +3808,6 @@
       <c r="E16" s="5" t="n">
         <v>0.203236120044</v>
       </c>
-      <c r="H16" s="6"/>
       <c r="I16" s="0" t="n">
         <v>0.0274005372331</v>
       </c>
@@ -3515,7 +3840,6 @@
       <c r="G17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="6"/>
       <c r="I17" s="0" t="n">
         <v>0.0274005372331</v>
       </c>
@@ -3548,22 +3872,17 @@
       <c r="G18" s="5" t="n">
         <v>0.137707590221</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="6"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -3581,7 +3900,6 @@
       <c r="E22" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="H22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -3599,7 +3917,6 @@
       <c r="E23" s="5" t="n">
         <v>0.177221812968</v>
       </c>
-      <c r="H23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -3617,7 +3934,6 @@
       <c r="E24" s="4" t="n">
         <v>0.177221812968</v>
       </c>
-      <c r="H24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -3635,16 +3951,11 @@
       <c r="E25" s="4" t="n">
         <v>0.177221812968</v>
       </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -3662,7 +3973,6 @@
       <c r="E28" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="H28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -3674,7 +3984,6 @@
       <c r="E29" s="5" t="n">
         <v>0.182041970514</v>
       </c>
-      <c r="H29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -3686,7 +3995,6 @@
       <c r="E30" s="4" t="n">
         <v>0.182041970514</v>
       </c>
-      <c r="H30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -3696,10 +4004,6 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
@@ -3708,7 +4012,6 @@
       <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -3729,7 +4032,7 @@
       <c r="G34" s="4" t="n">
         <v>0.137707590221</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -3741,7 +4044,6 @@
       <c r="E35" s="5" t="n">
         <v>0.186527452279</v>
       </c>
-      <c r="H35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -3754,7 +4056,6 @@
       <c r="G36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -3767,7 +4068,7 @@
       <c r="G37" s="4" t="n">
         <v>0.137707590221</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
@@ -3943,7 +4244,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5589,7 +5890,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5602,36 +5903,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="17.3622448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.64285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.33163265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.77551020408163"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="7.49489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
       <c r="H1" s="0" t="s">
         <v>156</v>
       </c>
@@ -5640,40 +5941,40 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8"/>
-      <c r="B2" s="10" t="n">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="F2" s="8" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="10" t="n">
         <v>0.186208322514</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="10" t="n">
         <v>0.190558148427</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="10" t="n">
         <v>0.203236120044</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="E3" s="10" t="n">
         <v>0.120685410145</v>
       </c>
-      <c r="F3" s="12" t="n">
+      <c r="F3" s="10" t="n">
         <v>0.137707590221</v>
       </c>
       <c r="G3" s="0" t="n">
@@ -5698,22 +5999,22 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="10" t="n">
         <v>0.177221812968</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="10" t="n">
         <v>0.182041970514</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="10" t="n">
         <v>0.186527452279</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="10" t="n">
         <v>0.137707590221</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="10" t="n">
         <v>0.137707590221</v>
       </c>
       <c r="G4" s="0" t="n">
@@ -5738,22 +6039,22 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="11" t="n">
         <v>0.210663426439</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="12" t="n">
         <v>0.215715150469</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="12" t="n">
         <v>0.215715150469</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="10" t="n">
         <v>0.137707590221</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="10" t="n">
         <v>0.137707590221</v>
       </c>
       <c r="G5" s="0" t="n">
@@ -5778,22 +6079,22 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="11" t="n">
         <v>0.167194650093</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="11" t="n">
         <v>0.17047585863</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="11" t="n">
         <v>0.17047585863</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="10" t="n">
         <v>0.137707590221</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="10" t="n">
         <v>0.137707590221</v>
       </c>
       <c r="G6" s="0" t="n">
@@ -5818,22 +6119,22 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="10" t="n">
         <v>0.12973989224</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="10" t="n">
         <v>0.176660504193</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="10" t="n">
         <v>0.205994204071</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="10" t="n">
         <v>0.137707590221</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="10" t="n">
         <v>0.137707590221</v>
       </c>
       <c r="G7" s="0" t="n">
@@ -5857,52 +6158,89 @@
         <v>0.14</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="13" t="n">
+        <v>0.038881629021</v>
+      </c>
+      <c r="C8" s="14" t="n">
+        <v>0.0492661222723</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>0.0492661222723</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>0.0535437035709</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <v>0.0535437035709</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">ROUND(B8,2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">ROUND(C8,2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">ROUND(D8,2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">ROUND(E8,2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">ROUND(F8,2)</f>
+        <v>0.05</v>
+      </c>
+    </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="H10" s="16"/>
       <c r="I10" s="17"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="n">
+      <c r="C11" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="H11" s="6"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
-      <c r="N11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>158</v>
       </c>
       <c r="B12" s="19" t="n">
@@ -5911,40 +6249,39 @@
       <c r="C12" s="19" t="n">
         <v>0.0331180270387</v>
       </c>
-      <c r="D12" s="20" t="n">
+      <c r="D12" s="14" t="n">
         <v>0.0329708345285</v>
       </c>
-      <c r="E12" s="20" t="n">
+      <c r="E12" s="14" t="n">
         <v>0.0329708345285</v>
       </c>
-      <c r="F12" s="20" t="n">
+      <c r="F12" s="14" t="n">
         <v>0.0329708345285</v>
       </c>
-      <c r="G12" s="21" t="n">
+      <c r="G12" s="20" t="n">
         <f aca="false">ROUND(B12,3)</f>
         <v>0.033</v>
       </c>
-      <c r="H12" s="21" t="n">
+      <c r="H12" s="20" t="n">
         <f aca="false">ROUND(C12,3)</f>
         <v>0.033</v>
       </c>
-      <c r="I12" s="21" t="n">
+      <c r="I12" s="20" t="n">
         <f aca="false">ROUND(D12,3)</f>
         <v>0.033</v>
       </c>
-      <c r="J12" s="21" t="n">
+      <c r="J12" s="20" t="n">
         <f aca="false">ROUND(E12,3)</f>
         <v>0.033</v>
       </c>
-      <c r="K12" s="21" t="n">
+      <c r="K12" s="20" t="n">
         <f aca="false">ROUND(F12,3)</f>
         <v>0.033</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="6"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>159</v>
       </c>
       <c r="B13" s="19" t="n">
@@ -5962,31 +6299,30 @@
       <c r="F13" s="19" t="n">
         <v>0.0331180270387</v>
       </c>
-      <c r="G13" s="21" t="n">
+      <c r="G13" s="20" t="n">
         <f aca="false">ROUND(B13,3)</f>
         <v>0.033</v>
       </c>
-      <c r="H13" s="21" t="n">
+      <c r="H13" s="20" t="n">
         <f aca="false">ROUND(C13,3)</f>
         <v>0.033</v>
       </c>
-      <c r="I13" s="21" t="n">
+      <c r="I13" s="20" t="n">
         <f aca="false">ROUND(D13,3)</f>
         <v>0.033</v>
       </c>
-      <c r="J13" s="21" t="n">
+      <c r="J13" s="20" t="n">
         <f aca="false">ROUND(E13,3)</f>
         <v>0.033</v>
       </c>
-      <c r="K13" s="21" t="n">
+      <c r="K13" s="20" t="n">
         <f aca="false">ROUND(F13,3)</f>
         <v>0.033</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="6"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>160</v>
       </c>
       <c r="B14" s="19" t="n">
@@ -6004,147 +6340,148 @@
       <c r="F14" s="19" t="n">
         <v>0.0331180270387</v>
       </c>
-      <c r="G14" s="21" t="n">
+      <c r="G14" s="20" t="n">
         <f aca="false">ROUND(B14,3)</f>
         <v>0.033</v>
       </c>
-      <c r="H14" s="21" t="n">
+      <c r="H14" s="20" t="n">
         <f aca="false">ROUND(C14,3)</f>
         <v>0.033</v>
       </c>
-      <c r="I14" s="21" t="n">
+      <c r="I14" s="20" t="n">
         <f aca="false">ROUND(D14,3)</f>
         <v>0.033</v>
       </c>
-      <c r="J14" s="21" t="n">
+      <c r="J14" s="20" t="n">
         <f aca="false">ROUND(E14,3)</f>
         <v>0.033</v>
       </c>
-      <c r="K14" s="21" t="n">
+      <c r="K14" s="20" t="n">
         <f aca="false">ROUND(F14,3)</f>
         <v>0.033</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="6"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="20" t="n">
+      <c r="B15" s="14" t="n">
         <v>0.0321183433461</v>
       </c>
-      <c r="C15" s="20" t="n">
+      <c r="C15" s="14" t="n">
         <v>0.0301608516803</v>
       </c>
-      <c r="D15" s="20" t="n">
+      <c r="D15" s="14" t="n">
         <v>0.0301608516803</v>
       </c>
-      <c r="E15" s="20" t="n">
+      <c r="E15" s="14" t="n">
         <v>0.0324356667591</v>
       </c>
-      <c r="F15" s="20" t="n">
+      <c r="F15" s="14" t="n">
         <v>0.0324356667591</v>
       </c>
-      <c r="G15" s="21" t="n">
+      <c r="G15" s="20" t="n">
         <f aca="false">ROUND(B15,3)</f>
         <v>0.032</v>
       </c>
-      <c r="H15" s="21" t="n">
+      <c r="H15" s="20" t="n">
         <f aca="false">ROUND(C15,3)</f>
         <v>0.03</v>
       </c>
-      <c r="I15" s="21" t="n">
+      <c r="I15" s="20" t="n">
         <f aca="false">ROUND(D15,3)</f>
         <v>0.03</v>
       </c>
-      <c r="J15" s="21" t="n">
+      <c r="J15" s="20" t="n">
         <f aca="false">ROUND(E15,3)</f>
         <v>0.032</v>
       </c>
-      <c r="K15" s="21" t="n">
+      <c r="K15" s="20" t="n">
         <f aca="false">ROUND(F15,3)</f>
         <v>0.032</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="6"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="20" t="n">
+      <c r="B16" s="14" t="n">
         <v>0.0278937964129</v>
       </c>
-      <c r="C16" s="20" t="n">
+      <c r="C16" s="14" t="n">
         <v>0.0288452105661</v>
       </c>
-      <c r="D16" s="20" t="n">
+      <c r="D16" s="14" t="n">
         <v>0.0299850698611</v>
       </c>
-      <c r="E16" s="20" t="n">
+      <c r="E16" s="14" t="n">
         <v>0.0299850698611</v>
       </c>
-      <c r="F16" s="20" t="n">
+      <c r="F16" s="14" t="n">
         <v>0.0299850698611</v>
       </c>
-      <c r="G16" s="21" t="n">
+      <c r="G16" s="20" t="n">
         <f aca="false">ROUND(B16,3)</f>
         <v>0.028</v>
       </c>
-      <c r="H16" s="21" t="n">
+      <c r="H16" s="20" t="n">
         <f aca="false">ROUND(C16,3)</f>
         <v>0.029</v>
       </c>
-      <c r="I16" s="21" t="n">
+      <c r="I16" s="20" t="n">
         <f aca="false">ROUND(D16,3)</f>
         <v>0.03</v>
       </c>
-      <c r="J16" s="21" t="n">
+      <c r="J16" s="20" t="n">
         <f aca="false">ROUND(E16,3)</f>
         <v>0.03</v>
       </c>
-      <c r="K16" s="21" t="n">
+      <c r="K16" s="20" t="n">
         <f aca="false">ROUND(F16,3)</f>
         <v>0.03</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="0" t="n">
-        <v>0.5380681</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <f aca="false">ROUND(E26,2)</f>
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="0" t="n">
-        <v>0.5005968</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <f aca="false">ROUND(E27,2)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="0" t="n">
-        <v>0.5214005</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <f aca="false">ROUND(E28,2)</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="0" t="n">
-        <v>0.5555521</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <f aca="false">ROUND(E29,2)</f>
-        <v>0.56</v>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="14" t="n">
+        <v>0.00302691295799</v>
+      </c>
+      <c r="C17" s="14" t="n">
+        <v>0.00316390471066</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>0.00316390471066</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>0.00337946343978</v>
+      </c>
+      <c r="F17" s="14" t="n">
+        <v>0.00337946343978</v>
+      </c>
+      <c r="G17" s="20" t="n">
+        <f aca="false">ROUND(B17,3)</f>
+        <v>0.003</v>
+      </c>
+      <c r="H17" s="20" t="n">
+        <f aca="false">ROUND(C17,3)</f>
+        <v>0.003</v>
+      </c>
+      <c r="I17" s="20" t="n">
+        <f aca="false">ROUND(D17,3)</f>
+        <v>0.003</v>
+      </c>
+      <c r="J17" s="20" t="n">
+        <f aca="false">ROUND(E17,3)</f>
+        <v>0.003</v>
+      </c>
+      <c r="K17" s="20" t="n">
+        <f aca="false">ROUND(F17,3)</f>
+        <v>0.003</v>
       </c>
     </row>
   </sheetData>
@@ -6156,7 +6493,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6170,1669 +6507,3648 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:W215"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y5" activeCellId="0" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="7.08163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="5.96428571428571"/>
-    <col collapsed="false" hidden="true" max="4" min="4" style="23" width="0"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="23" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="23" width="5.83163265306122"/>
-    <col collapsed="false" hidden="true" max="8" min="8" style="23" width="0"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="23" width="8.33163265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="23" width="19.3112244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="23" width="6.38775510204082"/>
-    <col collapsed="false" hidden="true" max="12" min="12" style="23" width="0"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="23" width="5.69897959183674"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="23" width="18.1989795918367"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="23" width="6.11224489795918"/>
-    <col collapsed="false" hidden="true" max="16" min="16" style="23" width="0"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="23" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="23" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="23" width="8.75"/>
-    <col collapsed="false" hidden="true" max="20" min="20" style="23" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="23" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="7.56122448979592"/>
+    <col collapsed="false" hidden="true" max="4" min="4" style="22" width="0"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="7.96428571428571"/>
+    <col collapsed="false" hidden="true" max="8" min="8" style="22" width="0"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="22" width="7.83163265306122"/>
+    <col collapsed="false" hidden="true" max="12" min="12" style="22" width="0"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="22" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="7.69387755102041"/>
+    <col collapsed="false" hidden="true" max="16" min="16" style="22" width="0"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="22" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="22" width="7.69387755102041"/>
+    <col collapsed="false" hidden="true" max="20" min="20" style="22" width="0"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="22" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="22" width="16.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="22" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
+      <c r="A1" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
+      <c r="A2" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
+      <c r="A3" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="E5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
       <c r="I5" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="J5" s="26"/>
-      <c r="M5" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="Q5" s="28" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="26"/>
-    </row>
-    <row r="6" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="23" t="n">
-        <v>0.270458</v>
-      </c>
-      <c r="E6" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="R5" s="24"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="23" t="n">
-        <v>20</v>
-      </c>
-      <c r="H6" s="23" t="n">
-        <v>1.25369</v>
-      </c>
-      <c r="I6" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="K6" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" s="23" t="n">
-        <v>1.27746</v>
-      </c>
-      <c r="M6" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="30" t="s">
+      <c r="C6" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="O6" s="23" t="n">
-        <v>65</v>
-      </c>
-      <c r="P6" s="23" t="n">
-        <v>1.59044</v>
-      </c>
-      <c r="Q6" s="31" t="n">
-        <v>0</v>
+      <c r="D6" s="0"/>
+      <c r="E6" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="0"/>
+      <c r="I6" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="L6" s="0"/>
+      <c r="M6" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="R6" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="S6" s="23" t="n">
+      <c r="S6" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="T6" s="0"/>
+      <c r="U6" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="V6" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="W6" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="T6" s="23" t="n">
+      <c r="D7" s="22" t="n">
+        <v>0.270458</v>
+      </c>
+      <c r="E7" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H7" s="22" t="n">
+        <v>1.25369</v>
+      </c>
+      <c r="I7" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" s="22" t="n">
+        <v>1.27746</v>
+      </c>
+      <c r="M7" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="O7" s="22" t="n">
+        <v>65</v>
+      </c>
+      <c r="P7" s="22" t="n">
+        <v>1.59044</v>
+      </c>
+      <c r="Q7" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="S7" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" s="22" t="n">
         <v>0.276905</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="n">
+      <c r="U7" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="W7" s="42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B8" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <v>1.24687</v>
+      </c>
+      <c r="E8" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" s="22" t="n">
+        <v>1.36542</v>
+      </c>
+      <c r="I8" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" s="22" t="n">
+        <v>191</v>
+      </c>
+      <c r="L8" s="22" t="n">
+        <v>1.40286</v>
+      </c>
+      <c r="M8" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="O8" s="22" t="n">
+        <v>136</v>
+      </c>
+      <c r="P8" s="22" t="n">
+        <v>1.88742</v>
+      </c>
+      <c r="Q8" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="S8" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="T8" s="22" t="n">
+        <v>1.56669</v>
+      </c>
+      <c r="U8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="W8" s="42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" s="22" t="n">
+        <v>1.86816</v>
+      </c>
+      <c r="E9" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="22" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" s="22" t="n">
+        <v>1.70502</v>
+      </c>
+      <c r="I9" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="K9" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="L9" s="22" t="n">
+        <v>1.10789</v>
+      </c>
+      <c r="M9" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="O9" s="22" t="n">
+        <v>102</v>
+      </c>
+      <c r="P9" s="22" t="n">
+        <v>0.971468</v>
+      </c>
+      <c r="Q9" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="S9" s="22" t="n">
+        <v>60</v>
+      </c>
+      <c r="T9" s="22" t="n">
+        <v>1.48818</v>
+      </c>
+      <c r="U9" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="W9" s="42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="D10" s="22" t="n">
+        <v>1.45079</v>
+      </c>
+      <c r="E10" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="22" t="n">
+        <v>38</v>
+      </c>
+      <c r="H10" s="22" t="n">
+        <v>1.57299</v>
+      </c>
+      <c r="I10" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="22" t="n">
+        <v>126</v>
+      </c>
+      <c r="L10" s="22" t="n">
+        <v>1.70972</v>
+      </c>
+      <c r="M10" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="O10" s="22" t="n">
+        <v>83</v>
+      </c>
+      <c r="P10" s="22" t="n">
+        <v>1.77459</v>
+      </c>
+      <c r="Q10" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="S10" s="22" t="n">
+        <v>63</v>
+      </c>
+      <c r="T10" s="22" t="n">
+        <v>1.04619</v>
+      </c>
+      <c r="U10" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="W10" s="42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="22" t="n">
+        <v>67</v>
+      </c>
+      <c r="D11" s="22" t="n">
+        <v>1.06273</v>
+      </c>
+      <c r="E11" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="22" t="n">
+        <v>67</v>
+      </c>
+      <c r="H11" s="22" t="n">
+        <v>1.50809</v>
+      </c>
+      <c r="I11" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="22" t="n">
+        <v>102</v>
+      </c>
+      <c r="L11" s="22" t="n">
+        <v>1.24742</v>
+      </c>
+      <c r="M11" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="O11" s="22" t="n">
+        <v>99</v>
+      </c>
+      <c r="P11" s="22" t="n">
+        <v>1.86308</v>
+      </c>
+      <c r="Q11" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="S11" s="22" t="n">
+        <v>36</v>
+      </c>
+      <c r="T11" s="22" t="n">
+        <v>0.906463</v>
+      </c>
+      <c r="U11" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="W11" s="42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="22" t="n">
+        <v>85</v>
+      </c>
+      <c r="D12" s="22" t="n">
+        <v>1.4831</v>
+      </c>
+      <c r="E12" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="22" t="n">
+        <v>78</v>
+      </c>
+      <c r="H12" s="22" t="n">
+        <v>1.83322</v>
+      </c>
+      <c r="I12" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="K12" s="22" t="n">
+        <v>35</v>
+      </c>
+      <c r="L12" s="22" t="n">
+        <v>1.13217</v>
+      </c>
+      <c r="M12" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="O12" s="22" t="n">
+        <v>46</v>
+      </c>
+      <c r="P12" s="22" t="n">
+        <v>1.79666</v>
+      </c>
+      <c r="Q12" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="S12" s="22" t="n">
+        <v>84</v>
+      </c>
+      <c r="T12" s="22" t="n">
+        <v>1.42726</v>
+      </c>
+      <c r="U12" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="W12" s="42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="22" t="n">
+        <v>45</v>
+      </c>
+      <c r="D13" s="22" t="n">
+        <v>1.57943</v>
+      </c>
+      <c r="E13" s="40" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="22" t="n">
+        <v>73</v>
+      </c>
+      <c r="H13" s="22" t="n">
+        <v>0.937777</v>
+      </c>
+      <c r="I13" s="40" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13" s="22" t="n">
+        <v>97</v>
+      </c>
+      <c r="L13" s="22" t="n">
+        <v>1.60012</v>
+      </c>
+      <c r="M13" s="40" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="O13" s="22" t="n">
+        <v>95</v>
+      </c>
+      <c r="P13" s="22" t="n">
+        <v>1.69931</v>
+      </c>
+      <c r="Q13" s="40" t="n">
+        <v>6</v>
+      </c>
+      <c r="R13" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="S13" s="22" t="n">
+        <v>116</v>
+      </c>
+      <c r="T13" s="22" t="n">
+        <v>1.22552</v>
+      </c>
+      <c r="U13" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="V13" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="W13" s="42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="22" t="n">
+        <v>94</v>
+      </c>
+      <c r="D14" s="22" t="n">
+        <v>1.63655</v>
+      </c>
+      <c r="E14" s="40" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="22" t="n">
+        <v>137</v>
+      </c>
+      <c r="H14" s="22" t="n">
+        <v>1.56581</v>
+      </c>
+      <c r="I14" s="40" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="22" t="n">
+        <v>117</v>
+      </c>
+      <c r="L14" s="22" t="n">
+        <v>1.47297</v>
+      </c>
+      <c r="M14" s="40" t="n">
+        <v>7</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="O14" s="22" t="n">
+        <v>100</v>
+      </c>
+      <c r="P14" s="22" t="n">
+        <v>1.79939</v>
+      </c>
+      <c r="Q14" s="40" t="n">
+        <v>7</v>
+      </c>
+      <c r="R14" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="S14" s="22" t="n">
+        <v>57</v>
+      </c>
+      <c r="T14" s="22" t="n">
+        <v>1.55605</v>
+      </c>
+      <c r="U14" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="V14" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="W14" s="42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="38" t="n">
+        <v>8</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="22" t="n">
+        <v>128</v>
+      </c>
+      <c r="D15" s="22" t="n">
+        <v>1.43766</v>
+      </c>
+      <c r="E15" s="40" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="22" t="n">
+        <v>29</v>
+      </c>
+      <c r="H15" s="22" t="n">
+        <v>1.3891</v>
+      </c>
+      <c r="I15" s="40" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="K15" s="22" t="n">
+        <v>127</v>
+      </c>
+      <c r="L15" s="22" t="n">
+        <v>1.70048</v>
+      </c>
+      <c r="M15" s="40" t="n">
+        <v>8</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="O15" s="22" t="n">
+        <v>102</v>
+      </c>
+      <c r="P15" s="22" t="n">
+        <v>1.69505</v>
+      </c>
+      <c r="Q15" s="40" t="n">
+        <v>8</v>
+      </c>
+      <c r="R15" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="S15" s="22" t="n">
+        <v>105</v>
+      </c>
+      <c r="T15" s="22" t="n">
+        <v>1.41907</v>
+      </c>
+      <c r="U15" s="38" t="n">
+        <v>8</v>
+      </c>
+      <c r="V15" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="W15" s="42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="38" t="n">
+        <v>9</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="22" t="n">
+        <v>126</v>
+      </c>
+      <c r="D16" s="22" t="n">
+        <v>0.966884</v>
+      </c>
+      <c r="E16" s="40" t="n">
+        <v>9</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="22" t="n">
+        <v>205</v>
+      </c>
+      <c r="H16" s="22" t="n">
+        <v>0.934245</v>
+      </c>
+      <c r="I16" s="40" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="22" t="n">
+        <v>74</v>
+      </c>
+      <c r="L16" s="22" t="n">
+        <v>1.57927</v>
+      </c>
+      <c r="M16" s="40" t="n">
+        <v>9</v>
+      </c>
+      <c r="N16" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="O16" s="22" t="n">
+        <v>68</v>
+      </c>
+      <c r="P16" s="22" t="n">
+        <v>1.5694</v>
+      </c>
+      <c r="Q16" s="40" t="n">
+        <v>9</v>
+      </c>
+      <c r="R16" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="S16" s="22" t="n">
+        <v>198</v>
+      </c>
+      <c r="T16" s="22" t="n">
+        <v>1.30043</v>
+      </c>
+      <c r="U16" s="38" t="n">
+        <v>9</v>
+      </c>
+      <c r="V16" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="W16" s="42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="22" t="n">
+        <v>78</v>
+      </c>
+      <c r="D17" s="22" t="n">
+        <v>1.16115</v>
+      </c>
+      <c r="E17" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="22" t="n">
+        <v>78</v>
+      </c>
+      <c r="H17" s="22" t="n">
+        <v>1.53052</v>
+      </c>
+      <c r="I17" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="K17" s="22" t="n">
+        <v>48</v>
+      </c>
+      <c r="L17" s="22" t="n">
+        <v>1.22485</v>
+      </c>
+      <c r="M17" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="O17" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="P17" s="22" t="n">
+        <v>1.08456</v>
+      </c>
+      <c r="Q17" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="R17" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="S17" s="22" t="n">
+        <v>91</v>
+      </c>
+      <c r="T17" s="22" t="n">
+        <v>1.13135</v>
+      </c>
+      <c r="U17" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="V17" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="W17" s="42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="38" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="22" t="n">
+        <v>54</v>
+      </c>
+      <c r="D18" s="22" t="n">
+        <v>1.5521</v>
+      </c>
+      <c r="E18" s="40" t="n">
+        <v>11</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="22" t="n">
+        <v>70</v>
+      </c>
+      <c r="H18" s="22" t="n">
+        <v>1.28946</v>
+      </c>
+      <c r="I18" s="40" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" s="22" t="n">
+        <v>149</v>
+      </c>
+      <c r="L18" s="22" t="n">
+        <v>1.28555</v>
+      </c>
+      <c r="M18" s="40" t="n">
+        <v>11</v>
+      </c>
+      <c r="N18" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="O18" s="22" t="n">
+        <v>91</v>
+      </c>
+      <c r="P18" s="22" t="n">
+        <v>1.76459</v>
+      </c>
+      <c r="Q18" s="40" t="n">
+        <v>11</v>
+      </c>
+      <c r="R18" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="S18" s="22" t="n">
+        <v>91</v>
+      </c>
+      <c r="T18" s="22" t="n">
+        <v>1.48655</v>
+      </c>
+      <c r="U18" s="38" t="n">
+        <v>11</v>
+      </c>
+      <c r="V18" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="W18" s="42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="38" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="22" t="n">
+        <v>66</v>
+      </c>
+      <c r="D19" s="22" t="n">
+        <v>1.23285</v>
+      </c>
+      <c r="E19" s="40" t="n">
+        <v>12</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="22" t="n">
+        <v>173</v>
+      </c>
+      <c r="H19" s="22" t="n">
+        <v>1.74939</v>
+      </c>
+      <c r="I19" s="40" t="n">
+        <v>12</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="K19" s="22" t="n">
+        <v>133</v>
+      </c>
+      <c r="L19" s="22" t="n">
+        <v>0.940498</v>
+      </c>
+      <c r="M19" s="40" t="n">
+        <v>12</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="O19" s="22" t="n">
+        <v>188</v>
+      </c>
+      <c r="P19" s="22" t="n">
+        <v>1.39419</v>
+      </c>
+      <c r="Q19" s="40" t="n">
+        <v>12</v>
+      </c>
+      <c r="R19" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="S19" s="22" t="n">
+        <v>113</v>
+      </c>
+      <c r="T19" s="22" t="n">
+        <v>1.60293</v>
+      </c>
+      <c r="U19" s="38" t="n">
+        <v>12</v>
+      </c>
+      <c r="V19" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="W19" s="42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="22" t="n">
+        <v>44</v>
+      </c>
+      <c r="D20" s="22" t="n">
+        <v>1.45982</v>
+      </c>
+      <c r="E20" s="40" t="n">
+        <v>13</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="22" t="n">
+        <v>117</v>
+      </c>
+      <c r="H20" s="22" t="n">
+        <v>1.33728</v>
+      </c>
+      <c r="I20" s="40" t="n">
+        <v>13</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" s="22" t="n">
+        <v>143</v>
+      </c>
+      <c r="L20" s="22" t="n">
+        <v>1.04713</v>
+      </c>
+      <c r="M20" s="40" t="n">
+        <v>13</v>
+      </c>
+      <c r="N20" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="O20" s="22" t="n">
+        <v>86</v>
+      </c>
+      <c r="P20" s="22" t="n">
+        <v>1.0348</v>
+      </c>
+      <c r="Q20" s="40" t="n">
+        <v>13</v>
+      </c>
+      <c r="R20" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="S20" s="22" t="n">
+        <v>101</v>
+      </c>
+      <c r="T20" s="22" t="n">
+        <v>1.8397</v>
+      </c>
+      <c r="U20" s="38" t="n">
+        <v>13</v>
+      </c>
+      <c r="V20" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="W20" s="42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="38" t="n">
+        <v>14</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="22" t="n">
+        <v>82</v>
+      </c>
+      <c r="D21" s="22" t="n">
+        <v>1.23735</v>
+      </c>
+      <c r="E21" s="40" t="n">
+        <v>14</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" s="22" t="n">
+        <v>202</v>
+      </c>
+      <c r="H21" s="22" t="n">
+        <v>1.57886</v>
+      </c>
+      <c r="I21" s="40" t="n">
+        <v>14</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="22" t="n">
+        <v>148</v>
+      </c>
+      <c r="L21" s="22" t="n">
+        <v>1.0174</v>
+      </c>
+      <c r="M21" s="40" t="n">
+        <v>14</v>
+      </c>
+      <c r="N21" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="O21" s="22" t="n">
+        <v>219</v>
+      </c>
+      <c r="P21" s="22" t="n">
+        <v>1.31624</v>
+      </c>
+      <c r="Q21" s="40" t="n">
+        <v>14</v>
+      </c>
+      <c r="R21" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="S21" s="22" t="n">
+        <v>126</v>
+      </c>
+      <c r="T21" s="22" t="n">
+        <v>1.32411</v>
+      </c>
+      <c r="U21" s="38" t="n">
+        <v>14</v>
+      </c>
+      <c r="V21" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="W21" s="42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="38" t="n">
+        <v>15</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="22" t="n">
+        <v>1.14293</v>
+      </c>
+      <c r="E22" s="40" t="n">
+        <v>15</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="22" t="n">
+        <v>58</v>
+      </c>
+      <c r="H22" s="22" t="n">
+        <v>1.2809</v>
+      </c>
+      <c r="I22" s="40" t="n">
+        <v>15</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" s="22" t="n">
+        <v>86</v>
+      </c>
+      <c r="L22" s="22" t="n">
+        <v>1.58783</v>
+      </c>
+      <c r="M22" s="40" t="n">
+        <v>15</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" s="22" t="n">
+        <v>140</v>
+      </c>
+      <c r="P22" s="22" t="n">
+        <v>1.53488</v>
+      </c>
+      <c r="Q22" s="40" t="n">
+        <v>15</v>
+      </c>
+      <c r="R22" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="S22" s="22" t="n">
+        <v>55</v>
+      </c>
+      <c r="T22" s="22" t="n">
+        <v>1.16806</v>
+      </c>
+      <c r="U22" s="38" t="n">
+        <v>15</v>
+      </c>
+      <c r="V22" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="W22" s="42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="38" t="n">
+        <v>16</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="22" t="n">
+        <v>145</v>
+      </c>
+      <c r="D23" s="22" t="n">
+        <v>1.31587</v>
+      </c>
+      <c r="E23" s="40" t="n">
+        <v>16</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" s="22" t="n">
+        <v>100</v>
+      </c>
+      <c r="H23" s="22" t="n">
+        <v>1.45259</v>
+      </c>
+      <c r="I23" s="40" t="n">
+        <v>16</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" s="22" t="n">
+        <v>100</v>
+      </c>
+      <c r="L23" s="22" t="n">
+        <v>1.20542</v>
+      </c>
+      <c r="M23" s="40" t="n">
+        <v>16</v>
+      </c>
+      <c r="N23" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" s="22" t="n">
+        <v>213</v>
+      </c>
+      <c r="P23" s="22" t="n">
+        <v>1.26557</v>
+      </c>
+      <c r="Q23" s="40" t="n">
+        <v>16</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="S23" s="22" t="n">
+        <v>72</v>
+      </c>
+      <c r="T23" s="22" t="n">
+        <v>1.22772</v>
+      </c>
+      <c r="U23" s="38" t="n">
+        <v>16</v>
+      </c>
+      <c r="V23" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="W23" s="42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="38" t="n">
+        <v>17</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="22" t="n">
+        <v>62</v>
+      </c>
+      <c r="D24" s="22" t="n">
+        <v>1.77744</v>
+      </c>
+      <c r="E24" s="40" t="n">
+        <v>17</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" s="22" t="n">
+        <v>55</v>
+      </c>
+      <c r="H24" s="22" t="n">
+        <v>1.87872</v>
+      </c>
+      <c r="I24" s="40" t="n">
+        <v>17</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" s="22" t="n">
+        <v>61</v>
+      </c>
+      <c r="L24" s="22" t="n">
+        <v>1.16004</v>
+      </c>
+      <c r="M24" s="40" t="n">
+        <v>17</v>
+      </c>
+      <c r="N24" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="O24" s="22" t="n">
+        <v>272</v>
+      </c>
+      <c r="P24" s="22" t="n">
+        <v>1.15868</v>
+      </c>
+      <c r="Q24" s="40" t="n">
+        <v>17</v>
+      </c>
+      <c r="R24" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="S24" s="22" t="n">
+        <v>69</v>
+      </c>
+      <c r="T24" s="22" t="n">
+        <v>1.51959</v>
+      </c>
+      <c r="U24" s="38" t="n">
+        <v>17</v>
+      </c>
+      <c r="V24" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="W24" s="42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="38" t="n">
+        <v>18</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="22" t="n">
+        <v>123</v>
+      </c>
+      <c r="D25" s="22" t="n">
+        <v>0.994241</v>
+      </c>
+      <c r="E25" s="40" t="n">
+        <v>18</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="22" t="n">
+        <v>97</v>
+      </c>
+      <c r="H25" s="22" t="n">
+        <v>1.29475</v>
+      </c>
+      <c r="I25" s="40" t="n">
+        <v>18</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="22" t="n">
+        <v>195</v>
+      </c>
+      <c r="L25" s="22" t="n">
+        <v>1.26977</v>
+      </c>
+      <c r="M25" s="40" t="n">
+        <v>18</v>
+      </c>
+      <c r="N25" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="O25" s="22" t="n">
+        <v>134</v>
+      </c>
+      <c r="P25" s="22" t="n">
+        <v>1.59562</v>
+      </c>
+      <c r="Q25" s="40" t="n">
+        <v>18</v>
+      </c>
+      <c r="R25" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="S25" s="22" t="n">
+        <v>31</v>
+      </c>
+      <c r="T25" s="22" t="n">
+        <v>1.12051</v>
+      </c>
+      <c r="U25" s="38" t="n">
+        <v>18</v>
+      </c>
+      <c r="V25" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="W25" s="42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="38" t="n">
+        <v>19</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="22" t="n">
+        <v>65</v>
+      </c>
+      <c r="D26" s="22" t="n">
+        <v>1.04352</v>
+      </c>
+      <c r="E26" s="40" t="n">
+        <v>19</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" s="22" t="n">
+        <v>164</v>
+      </c>
+      <c r="H26" s="22" t="n">
+        <v>1.51605</v>
+      </c>
+      <c r="I26" s="40" t="n">
+        <v>19</v>
+      </c>
+      <c r="J26" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" s="22" t="n">
+        <v>194</v>
+      </c>
+      <c r="L26" s="22" t="n">
+        <v>1.64114</v>
+      </c>
+      <c r="N26" s="0"/>
+      <c r="O26" s="43" t="n">
+        <f aca="false">AVERAGE(O7:O25)</f>
+        <v>119.421052631579</v>
+      </c>
+      <c r="Q26" s="40" t="n">
+        <v>19</v>
+      </c>
+      <c r="R26" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="S26" s="22" t="n">
+        <v>153</v>
+      </c>
+      <c r="T26" s="22" t="n">
+        <v>1.67195</v>
+      </c>
+      <c r="U26" s="38" t="n">
+        <v>19</v>
+      </c>
+      <c r="V26" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="W26" s="42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="38" t="n">
+        <v>20</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="22" t="n">
+        <v>57</v>
+      </c>
+      <c r="D27" s="22" t="n">
+        <v>1.00622</v>
+      </c>
+      <c r="E27" s="40" t="n">
+        <v>20</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="22" t="n">
+        <v>187</v>
+      </c>
+      <c r="H27" s="22" t="n">
+        <v>0.938106</v>
+      </c>
+      <c r="I27" s="40" t="n">
+        <v>20</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" s="22" t="n">
+        <v>165</v>
+      </c>
+      <c r="L27" s="22" t="n">
+        <v>1.13932</v>
+      </c>
+      <c r="N27" s="0"/>
+      <c r="Q27" s="40" t="n">
+        <v>20</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S27" s="22" t="n">
+        <v>54</v>
+      </c>
+      <c r="T27" s="22" t="n">
+        <v>1.05845</v>
+      </c>
+      <c r="U27" s="38" t="n">
+        <v>20</v>
+      </c>
+      <c r="V27" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="W27" s="42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="38" t="n">
+        <v>21</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="22" t="n">
+        <v>180</v>
+      </c>
+      <c r="D28" s="22" t="n">
+        <v>1.89097</v>
+      </c>
+      <c r="E28" s="40" t="n">
+        <v>21</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="22" t="n">
+        <v>167</v>
+      </c>
+      <c r="H28" s="22" t="n">
+        <v>1.45215</v>
+      </c>
+      <c r="J28" s="0"/>
+      <c r="K28" s="43" t="n">
+        <f aca="false">AVERAGE(K7:K27)</f>
+        <v>110.142857142857</v>
+      </c>
+      <c r="N28" s="0"/>
+      <c r="Q28" s="40" t="n">
+        <v>21</v>
+      </c>
+      <c r="R28" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="S28" s="22" t="n">
+        <v>75</v>
+      </c>
+      <c r="T28" s="22" t="n">
+        <v>1.46931</v>
+      </c>
+      <c r="U28" s="38" t="n">
+        <v>21</v>
+      </c>
+      <c r="V28" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="W28" s="42" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="38" t="n">
+        <v>22</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="22" t="n">
+        <v>48</v>
+      </c>
+      <c r="D29" s="22" t="n">
+        <v>1.35927</v>
+      </c>
+      <c r="E29" s="40" t="n">
+        <v>22</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="22" t="n">
+        <v>133</v>
+      </c>
+      <c r="H29" s="22" t="n">
+        <v>0.985925</v>
+      </c>
+      <c r="J29" s="0"/>
+      <c r="N29" s="0"/>
+      <c r="Q29" s="40" t="n">
+        <v>22</v>
+      </c>
+      <c r="R29" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="S29" s="22" t="n">
+        <v>119</v>
+      </c>
+      <c r="T29" s="22" t="n">
+        <v>1.17197</v>
+      </c>
+      <c r="U29" s="38" t="n">
+        <v>22</v>
+      </c>
+      <c r="V29" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="W29" s="42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="38" t="n">
+        <v>23</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="22" t="n">
+        <v>36</v>
+      </c>
+      <c r="D30" s="22" t="n">
+        <v>1.08812</v>
+      </c>
+      <c r="F30" s="0"/>
+      <c r="G30" s="43" t="n">
+        <f aca="false">AVERAGE(G7:G29)</f>
+        <v>102.260869565217</v>
+      </c>
+      <c r="J30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="Q30" s="40" t="n">
+        <v>23</v>
+      </c>
+      <c r="R30" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="S30" s="22" t="n">
+        <v>308</v>
+      </c>
+      <c r="T30" s="22" t="n">
+        <v>0.943035</v>
+      </c>
+      <c r="U30" s="38" t="n">
+        <v>23</v>
+      </c>
+      <c r="V30" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="W30" s="42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="38" t="n">
+        <v>24</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="22" t="n">
+        <v>194</v>
+      </c>
+      <c r="D31" s="22" t="n">
+        <v>1.63572</v>
+      </c>
+      <c r="F31" s="22" t="n">
+        <f aca="false">COUNTIF(F7:F29,"?")/COUNTA(F7:F29)</f>
+        <v>0.0869565217391304</v>
+      </c>
+      <c r="J31" s="22" t="n">
+        <f aca="false">COUNTIF(J7:J27,"?")/COUNTA(J7:J27)</f>
+        <v>0.19047619047619</v>
+      </c>
+      <c r="N31" s="22" t="n">
+        <f aca="false">COUNTIF(N7:N25,"?")/COUNTA(N7:N25)</f>
+        <v>0.263157894736842</v>
+      </c>
+      <c r="Q31" s="40" t="n">
+        <v>24</v>
+      </c>
+      <c r="R31" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="S31" s="22" t="n">
+        <v>77</v>
+      </c>
+      <c r="T31" s="22" t="n">
+        <v>1.40944</v>
+      </c>
+      <c r="U31" s="38" t="n">
+        <v>24</v>
+      </c>
+      <c r="V31" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="W31" s="42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="38" t="n">
+        <v>25</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="22" t="n">
+        <v>178</v>
+      </c>
+      <c r="D32" s="22" t="n">
+        <v>1.13628</v>
+      </c>
+      <c r="F32" s="44" t="n">
+        <f aca="false">(COUNTIF(F7:F29,"&lt;&gt;?")/COUNTA(F7:F29))*100</f>
+        <v>91.304347826087</v>
+      </c>
+      <c r="J32" s="44" t="n">
+        <f aca="false">(COUNTIF(J7:J27,"&lt;&gt;?")/COUNTA(J7:J27))*100</f>
+        <v>80.952380952381</v>
+      </c>
+      <c r="N32" s="44" t="n">
+        <f aca="false">(COUNTIF(N7:N25,"&lt;&gt;?")/COUNTA(N7:N25))*100</f>
+        <v>73.6842105263158</v>
+      </c>
+      <c r="R32" s="0"/>
+      <c r="S32" s="43" t="n">
+        <f aca="false">AVERAGE(S7:S31)</f>
+        <v>90.92</v>
+      </c>
+      <c r="U32" s="38" t="n">
+        <v>25</v>
+      </c>
+      <c r="V32" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="W32" s="42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="38" t="n">
+        <v>26</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="22" t="n">
+        <v>110</v>
+      </c>
+      <c r="D33" s="22" t="n">
+        <v>1.56778</v>
+      </c>
+      <c r="R33" s="22" t="n">
+        <f aca="false">COUNTIF(R7:R31,"?")/COUNTA(R7:R31)</f>
+        <v>0.2</v>
+      </c>
+      <c r="U33" s="38" t="n">
+        <v>26</v>
+      </c>
+      <c r="V33" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="W33" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="38" t="n">
+        <v>27</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="22" t="n">
+        <v>99</v>
+      </c>
+      <c r="D34" s="22" t="n">
+        <v>1.45323</v>
+      </c>
+      <c r="R34" s="44" t="n">
+        <f aca="false">(COUNTIF(R7:R31,"&lt;&gt;?")/COUNTA(R7:R31))*100</f>
+        <v>80</v>
+      </c>
+      <c r="U34" s="38" t="n">
+        <v>27</v>
+      </c>
+      <c r="V34" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="W34" s="22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0"/>
+      <c r="C35" s="43" t="n">
+        <f aca="false">AVERAGE(C7:C34)</f>
+        <v>79.6428571428571</v>
+      </c>
+      <c r="D35" s="0"/>
+      <c r="U35" s="38" t="n">
+        <v>28</v>
+      </c>
+      <c r="V35" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="W35" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="22" t="n">
+        <f aca="false">COUNTIF(B7:B34,"?")/COUNTA(B7:B34)</f>
+        <v>0.214285714285714</v>
+      </c>
+      <c r="D36" s="0"/>
+      <c r="U36" s="38" t="n">
+        <v>29</v>
+      </c>
+      <c r="V36" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="W36" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="44" t="n">
+        <f aca="false">(COUNTIF(B7:B34,"&lt;&gt;?")/COUNTA(B7:B34))*100</f>
+        <v>78.5714285714286</v>
+      </c>
+      <c r="D37" s="22" t="n">
+        <f aca="false">COUNT(A7:A34,E7:E29,I7:I27,M7:M25,Q7:Q31)</f>
+        <v>116</v>
+      </c>
+      <c r="U37" s="38" t="n">
+        <v>30</v>
+      </c>
+      <c r="V37" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="W37" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U38" s="38" t="n">
+        <v>31</v>
+      </c>
+      <c r="V38" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="W38" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U39" s="38" t="n">
+        <v>32</v>
+      </c>
+      <c r="V39" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="W39" s="22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U40" s="38" t="n">
+        <v>33</v>
+      </c>
+      <c r="V40" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="W40" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U41" s="38" t="n">
+        <v>34</v>
+      </c>
+      <c r="V41" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="W41" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U42" s="38" t="n">
+        <v>35</v>
+      </c>
+      <c r="V42" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="W42" s="22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U43" s="38" t="n">
+        <v>36</v>
+      </c>
+      <c r="V43" s="41"/>
+      <c r="W43" s="22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U44" s="38" t="n">
+        <v>37</v>
+      </c>
+      <c r="V44" s="41"/>
+      <c r="W44" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U45" s="38" t="n">
+        <v>38</v>
+      </c>
+      <c r="V45" s="41"/>
+      <c r="W45" s="22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U46" s="38" t="n">
+        <v>39</v>
+      </c>
+      <c r="V46" s="41"/>
+      <c r="W46" s="22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U47" s="38" t="n">
+        <v>40</v>
+      </c>
+      <c r="V47" s="41"/>
+      <c r="W47" s="22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U48" s="38" t="n">
+        <v>41</v>
+      </c>
+      <c r="V48" s="41"/>
+      <c r="W48" s="22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U49" s="38" t="n">
+        <v>42</v>
+      </c>
+      <c r="V49" s="41"/>
+      <c r="W49" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U50" s="38" t="n">
+        <v>43</v>
+      </c>
+      <c r="V50" s="41"/>
+      <c r="W50" s="22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U51" s="38" t="n">
+        <v>44</v>
+      </c>
+      <c r="V51" s="41"/>
+      <c r="W51" s="22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U52" s="38" t="n">
+        <v>45</v>
+      </c>
+      <c r="V52" s="41"/>
+      <c r="W52" s="22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U53" s="38" t="n">
+        <v>46</v>
+      </c>
+      <c r="V53" s="41"/>
+      <c r="W53" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U54" s="38" t="n">
+        <v>47</v>
+      </c>
+      <c r="V54" s="41"/>
+      <c r="W54" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U55" s="38" t="n">
+        <v>48</v>
+      </c>
+      <c r="V55" s="41"/>
+      <c r="W55" s="22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U56" s="38" t="n">
+        <v>49</v>
+      </c>
+      <c r="V56" s="41"/>
+      <c r="W56" s="22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U57" s="38" t="n">
+        <v>50</v>
+      </c>
+      <c r="V57" s="41"/>
+      <c r="W57" s="22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U58" s="38" t="n">
+        <v>51</v>
+      </c>
+      <c r="V58" s="41"/>
+      <c r="W58" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U59" s="38" t="n">
+        <v>52</v>
+      </c>
+      <c r="V59" s="41"/>
+      <c r="W59" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U60" s="38" t="n">
+        <v>53</v>
+      </c>
+      <c r="V60" s="41"/>
+      <c r="W60" s="22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U61" s="38" t="n">
+        <v>54</v>
+      </c>
+      <c r="V61" s="41"/>
+      <c r="W61" s="22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U62" s="38" t="n">
+        <v>55</v>
+      </c>
+      <c r="V62" s="41"/>
+      <c r="W62" s="22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U63" s="38" t="n">
+        <v>56</v>
+      </c>
+      <c r="V63" s="41"/>
+      <c r="W63" s="22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U64" s="38" t="n">
+        <v>57</v>
+      </c>
+      <c r="V64" s="41"/>
+      <c r="W64" s="22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U65" s="38" t="n">
+        <v>58</v>
+      </c>
+      <c r="V65" s="41"/>
+      <c r="W65" s="22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U66" s="38" t="n">
+        <v>59</v>
+      </c>
+      <c r="V66" s="41"/>
+      <c r="W66" s="22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U67" s="38" t="n">
+        <v>60</v>
+      </c>
+      <c r="V67" s="41"/>
+      <c r="W67" s="22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U68" s="38" t="n">
+        <v>61</v>
+      </c>
+      <c r="V68" s="41"/>
+      <c r="W68" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U69" s="38" t="n">
+        <v>62</v>
+      </c>
+      <c r="V69" s="41"/>
+      <c r="W69" s="22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U70" s="38" t="n">
+        <v>63</v>
+      </c>
+      <c r="V70" s="41"/>
+      <c r="W70" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U71" s="38" t="n">
+        <v>64</v>
+      </c>
+      <c r="V71" s="41"/>
+      <c r="W71" s="22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U72" s="38" t="n">
+        <v>65</v>
+      </c>
+      <c r="V72" s="41"/>
+      <c r="W72" s="22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U73" s="38" t="n">
+        <v>66</v>
+      </c>
+      <c r="V73" s="41"/>
+      <c r="W73" s="22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U74" s="38" t="n">
+        <v>67</v>
+      </c>
+      <c r="V74" s="41"/>
+      <c r="W74" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U75" s="38" t="n">
+        <v>68</v>
+      </c>
+      <c r="V75" s="41"/>
+      <c r="W75" s="22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U76" s="38" t="n">
+        <v>69</v>
+      </c>
+      <c r="V76" s="41"/>
+      <c r="W76" s="22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U77" s="38" t="n">
+        <v>70</v>
+      </c>
+      <c r="V77" s="41"/>
+      <c r="W77" s="22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U78" s="38" t="n">
+        <v>71</v>
+      </c>
+      <c r="V78" s="41"/>
+      <c r="W78" s="22" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U79" s="38" t="n">
+        <v>72</v>
+      </c>
+      <c r="V79" s="41"/>
+      <c r="W79" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U80" s="38" t="n">
+        <v>73</v>
+      </c>
+      <c r="V80" s="41"/>
+      <c r="W80" s="22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U81" s="38" t="n">
+        <v>74</v>
+      </c>
+      <c r="V81" s="41"/>
+      <c r="W81" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U82" s="38" t="n">
+        <v>75</v>
+      </c>
+      <c r="V82" s="41"/>
+      <c r="W82" s="22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U83" s="38" t="n">
+        <v>76</v>
+      </c>
+      <c r="V83" s="41"/>
+      <c r="W83" s="22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U84" s="38" t="n">
+        <v>77</v>
+      </c>
+      <c r="V84" s="41"/>
+      <c r="W84" s="22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U85" s="38" t="n">
+        <v>78</v>
+      </c>
+      <c r="V85" s="41"/>
+      <c r="W85" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U86" s="38" t="n">
+        <v>79</v>
+      </c>
+      <c r="V86" s="41"/>
+      <c r="W86" s="22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U87" s="38" t="n">
+        <v>80</v>
+      </c>
+      <c r="V87" s="41"/>
+      <c r="W87" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U88" s="38" t="n">
+        <v>81</v>
+      </c>
+      <c r="V88" s="41"/>
+      <c r="W88" s="22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U89" s="38" t="n">
+        <v>82</v>
+      </c>
+      <c r="V89" s="41"/>
+      <c r="W89" s="22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U90" s="38" t="n">
+        <v>83</v>
+      </c>
+      <c r="V90" s="41"/>
+      <c r="W90" s="22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U91" s="38" t="n">
+        <v>84</v>
+      </c>
+      <c r="V91" s="41"/>
+      <c r="W91" s="22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U92" s="38" t="n">
+        <v>85</v>
+      </c>
+      <c r="V92" s="41"/>
+      <c r="W92" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U93" s="38" t="n">
+        <v>86</v>
+      </c>
+      <c r="V93" s="41"/>
+      <c r="W93" s="22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U94" s="38" t="n">
+        <v>87</v>
+      </c>
+      <c r="V94" s="41"/>
+      <c r="W94" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U95" s="38" t="n">
+        <v>88</v>
+      </c>
+      <c r="V95" s="41"/>
+      <c r="W95" s="22" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U96" s="38" t="n">
+        <v>89</v>
+      </c>
+      <c r="V96" s="41"/>
+      <c r="W96" s="22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U97" s="38" t="n">
+        <v>90</v>
+      </c>
+      <c r="V97" s="41"/>
+      <c r="W97" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U98" s="38" t="n">
+        <v>91</v>
+      </c>
+      <c r="V98" s="41"/>
+      <c r="W98" s="22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U99" s="38" t="n">
+        <v>92</v>
+      </c>
+      <c r="V99" s="41"/>
+      <c r="W99" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U100" s="38" t="n">
+        <v>93</v>
+      </c>
+      <c r="V100" s="41"/>
+      <c r="W100" s="22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U101" s="38" t="n">
+        <v>94</v>
+      </c>
+      <c r="V101" s="41"/>
+      <c r="W101" s="22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U102" s="38" t="n">
+        <v>95</v>
+      </c>
+      <c r="V102" s="41"/>
+      <c r="W102" s="22" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U103" s="38" t="n">
+        <v>96</v>
+      </c>
+      <c r="V103" s="41"/>
+      <c r="W103" s="22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U104" s="38" t="n">
+        <v>97</v>
+      </c>
+      <c r="V104" s="41"/>
+      <c r="W104" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U105" s="38" t="n">
+        <v>98</v>
+      </c>
+      <c r="V105" s="41"/>
+      <c r="W105" s="22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U106" s="38" t="n">
+        <v>99</v>
+      </c>
+      <c r="V106" s="41"/>
+      <c r="W106" s="22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U107" s="38" t="n">
+        <v>100</v>
+      </c>
+      <c r="V107" s="41"/>
+      <c r="W107" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U108" s="38" t="n">
+        <v>101</v>
+      </c>
+      <c r="V108" s="41"/>
+      <c r="W108" s="22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U109" s="38" t="n">
+        <v>102</v>
+      </c>
+      <c r="V109" s="41"/>
+      <c r="W109" s="22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U110" s="38" t="n">
+        <v>103</v>
+      </c>
+      <c r="V110" s="41"/>
+      <c r="W110" s="22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U111" s="38" t="n">
+        <v>104</v>
+      </c>
+      <c r="V111" s="41"/>
+      <c r="W111" s="22" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U112" s="38" t="n">
+        <v>105</v>
+      </c>
+      <c r="V112" s="41"/>
+      <c r="W112" s="22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U113" s="38" t="n">
+        <v>106</v>
+      </c>
+      <c r="V113" s="41"/>
+      <c r="W113" s="22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U114" s="38" t="n">
+        <v>107</v>
+      </c>
+      <c r="V114" s="41"/>
+      <c r="W114" s="22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U115" s="38" t="n">
+        <v>108</v>
+      </c>
+      <c r="V115" s="41"/>
+      <c r="W115" s="22" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U116" s="38" t="n">
+        <v>109</v>
+      </c>
+      <c r="V116" s="41"/>
+      <c r="W116" s="22" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U117" s="38" t="n">
+        <v>110</v>
+      </c>
+      <c r="V117" s="41"/>
+      <c r="W117" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U118" s="38" t="n">
+        <v>111</v>
+      </c>
+      <c r="V118" s="41"/>
+      <c r="W118" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U119" s="38" t="n">
+        <v>112</v>
+      </c>
+      <c r="V119" s="41"/>
+      <c r="W119" s="22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U120" s="38" t="n">
+        <v>113</v>
+      </c>
+      <c r="V120" s="41"/>
+      <c r="W120" s="22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U121" s="38" t="n">
+        <v>114</v>
+      </c>
+      <c r="V121" s="41"/>
+      <c r="W121" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U122" s="38" t="n">
+        <v>115</v>
+      </c>
+      <c r="V122" s="41"/>
+      <c r="W122" s="22" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U123" s="38" t="n">
+        <v>116</v>
+      </c>
+      <c r="V123" s="41"/>
+      <c r="W123" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U124" s="38" t="n">
+        <v>117</v>
+      </c>
+      <c r="V124" s="41"/>
+      <c r="W124" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U125" s="38" t="n">
+        <v>118</v>
+      </c>
+      <c r="V125" s="41"/>
+      <c r="W125" s="22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U126" s="38" t="n">
+        <v>119</v>
+      </c>
+      <c r="V126" s="41"/>
+      <c r="W126" s="22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U127" s="38" t="n">
+        <v>120</v>
+      </c>
+      <c r="V127" s="41"/>
+      <c r="W127" s="22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U128" s="38" t="n">
+        <v>121</v>
+      </c>
+      <c r="V128" s="41"/>
+      <c r="W128" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U129" s="38" t="n">
+        <v>122</v>
+      </c>
+      <c r="V129" s="41"/>
+      <c r="W129" s="22" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U130" s="38" t="n">
+        <v>123</v>
+      </c>
+      <c r="V130" s="41"/>
+      <c r="W130" s="22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U131" s="38" t="n">
+        <v>124</v>
+      </c>
+      <c r="V131" s="41"/>
+      <c r="W131" s="22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U132" s="38" t="n">
+        <v>125</v>
+      </c>
+      <c r="V132" s="41"/>
+      <c r="W132" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U133" s="38" t="n">
+        <v>126</v>
+      </c>
+      <c r="V133" s="41"/>
+      <c r="W133" s="22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U134" s="38" t="n">
+        <v>127</v>
+      </c>
+      <c r="V134" s="41"/>
+      <c r="W134" s="22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U135" s="38" t="n">
+        <v>128</v>
+      </c>
+      <c r="V135" s="41"/>
+      <c r="W135" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U136" s="38" t="n">
+        <v>129</v>
+      </c>
+      <c r="V136" s="41"/>
+      <c r="W136" s="22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U137" s="38" t="n">
+        <v>130</v>
+      </c>
+      <c r="V137" s="41"/>
+      <c r="W137" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U138" s="38" t="n">
+        <v>131</v>
+      </c>
+      <c r="V138" s="41"/>
+      <c r="W138" s="22" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U139" s="38" t="n">
+        <v>132</v>
+      </c>
+      <c r="V139" s="41"/>
+      <c r="W139" s="22" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U140" s="38" t="n">
+        <v>133</v>
+      </c>
+      <c r="V140" s="41"/>
+      <c r="W140" s="22" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U141" s="38" t="n">
+        <v>134</v>
+      </c>
+      <c r="V141" s="41"/>
+      <c r="W141" s="22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U142" s="38" t="n">
+        <v>135</v>
+      </c>
+      <c r="V142" s="41"/>
+      <c r="W142" s="22" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U143" s="38" t="n">
+        <v>136</v>
+      </c>
+      <c r="V143" s="41"/>
+      <c r="W143" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U144" s="38" t="n">
+        <v>137</v>
+      </c>
+      <c r="V144" s="41"/>
+      <c r="W144" s="22" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U145" s="38" t="n">
+        <v>138</v>
+      </c>
+      <c r="V145" s="41"/>
+      <c r="W145" s="22" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U146" s="38" t="n">
+        <v>139</v>
+      </c>
+      <c r="V146" s="41"/>
+      <c r="W146" s="22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U147" s="38" t="n">
+        <v>140</v>
+      </c>
+      <c r="V147" s="41"/>
+      <c r="W147" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U148" s="38" t="n">
+        <v>141</v>
+      </c>
+      <c r="V148" s="41"/>
+      <c r="W148" s="22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U149" s="38" t="n">
+        <v>142</v>
+      </c>
+      <c r="V149" s="41"/>
+      <c r="W149" s="22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U150" s="38" t="n">
+        <v>143</v>
+      </c>
+      <c r="V150" s="41"/>
+      <c r="W150" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U151" s="38" t="n">
+        <v>144</v>
+      </c>
+      <c r="V151" s="41"/>
+      <c r="W151" s="22" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U152" s="38" t="n">
+        <v>145</v>
+      </c>
+      <c r="V152" s="41"/>
+      <c r="W152" s="22" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U153" s="38" t="n">
+        <v>146</v>
+      </c>
+      <c r="V153" s="41"/>
+      <c r="W153" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U154" s="38" t="n">
+        <v>147</v>
+      </c>
+      <c r="V154" s="41"/>
+      <c r="W154" s="22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U155" s="38" t="n">
+        <v>148</v>
+      </c>
+      <c r="V155" s="41"/>
+      <c r="W155" s="22" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U156" s="38" t="n">
+        <v>149</v>
+      </c>
+      <c r="V156" s="41"/>
+      <c r="W156" s="22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U157" s="38" t="n">
+        <v>150</v>
+      </c>
+      <c r="V157" s="41"/>
+      <c r="W157" s="22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U158" s="38" t="n">
+        <v>151</v>
+      </c>
+      <c r="V158" s="41"/>
+      <c r="W158" s="22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U159" s="38" t="n">
+        <v>152</v>
+      </c>
+      <c r="V159" s="41"/>
+      <c r="W159" s="22" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U160" s="38" t="n">
+        <v>153</v>
+      </c>
+      <c r="V160" s="41"/>
+      <c r="W160" s="22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U161" s="38" t="n">
+        <v>154</v>
+      </c>
+      <c r="V161" s="41"/>
+      <c r="W161" s="22" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U162" s="38" t="n">
+        <v>155</v>
+      </c>
+      <c r="V162" s="41"/>
+      <c r="W162" s="22" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U163" s="38" t="n">
+        <v>156</v>
+      </c>
+      <c r="V163" s="41"/>
+      <c r="W163" s="22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U164" s="38" t="n">
+        <v>157</v>
+      </c>
+      <c r="V164" s="41"/>
+      <c r="W164" s="22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U165" s="38" t="n">
+        <v>158</v>
+      </c>
+      <c r="V165" s="41"/>
+      <c r="W165" s="22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U166" s="38" t="n">
+        <v>159</v>
+      </c>
+      <c r="V166" s="41"/>
+      <c r="W166" s="22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U167" s="38" t="n">
+        <v>160</v>
+      </c>
+      <c r="V167" s="41"/>
+      <c r="W167" s="22" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U168" s="38" t="n">
+        <v>161</v>
+      </c>
+      <c r="V168" s="41"/>
+      <c r="W168" s="22" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U169" s="38" t="n">
+        <v>162</v>
+      </c>
+      <c r="V169" s="41"/>
+      <c r="W169" s="22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U170" s="38" t="n">
+        <v>163</v>
+      </c>
+      <c r="V170" s="41"/>
+      <c r="W170" s="22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U171" s="38" t="n">
+        <v>164</v>
+      </c>
+      <c r="V171" s="41"/>
+      <c r="W171" s="22" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U172" s="38" t="n">
+        <v>165</v>
+      </c>
+      <c r="V172" s="41"/>
+      <c r="W172" s="22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U173" s="38" t="n">
+        <v>166</v>
+      </c>
+      <c r="V173" s="41"/>
+      <c r="W173" s="22" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U174" s="38" t="n">
+        <v>167</v>
+      </c>
+      <c r="V174" s="41"/>
+      <c r="W174" s="22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U175" s="38" t="n">
+        <v>168</v>
+      </c>
+      <c r="V175" s="41"/>
+      <c r="W175" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U176" s="38" t="n">
+        <v>169</v>
+      </c>
+      <c r="V176" s="41"/>
+      <c r="W176" s="22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U177" s="38" t="n">
+        <v>170</v>
+      </c>
+      <c r="V177" s="41"/>
+      <c r="W177" s="22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U178" s="38" t="n">
+        <v>171</v>
+      </c>
+      <c r="V178" s="41"/>
+      <c r="W178" s="22" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U179" s="38" t="n">
         <v>172</v>
       </c>
-      <c r="C7" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="23" t="n">
-        <v>1.24687</v>
-      </c>
-      <c r="E7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" s="23" t="n">
-        <v>1.36542</v>
-      </c>
-      <c r="I7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="30" t="s">
+      <c r="V179" s="41"/>
+      <c r="W179" s="22" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U180" s="38" t="n">
+        <v>173</v>
+      </c>
+      <c r="V180" s="41"/>
+      <c r="W180" s="22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U181" s="38" t="n">
         <v>174</v>
       </c>
-      <c r="K7" s="23" t="n">
+      <c r="V181" s="41"/>
+      <c r="W181" s="22" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U182" s="38" t="n">
+        <v>175</v>
+      </c>
+      <c r="V182" s="41"/>
+      <c r="W182" s="22" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U183" s="38" t="n">
+        <v>176</v>
+      </c>
+      <c r="V183" s="41"/>
+      <c r="W183" s="22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U184" s="38" t="n">
+        <v>177</v>
+      </c>
+      <c r="V184" s="41"/>
+      <c r="W184" s="22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U185" s="38" t="n">
+        <v>178</v>
+      </c>
+      <c r="V185" s="41"/>
+      <c r="W185" s="22" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U186" s="38" t="n">
+        <v>179</v>
+      </c>
+      <c r="V186" s="41"/>
+      <c r="W186" s="22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U187" s="38" t="n">
+        <v>180</v>
+      </c>
+      <c r="V187" s="41"/>
+      <c r="W187" s="22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U188" s="38" t="n">
+        <v>181</v>
+      </c>
+      <c r="V188" s="41"/>
+      <c r="W188" s="22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U189" s="38" t="n">
+        <v>182</v>
+      </c>
+      <c r="V189" s="41"/>
+      <c r="W189" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U190" s="38" t="n">
+        <v>183</v>
+      </c>
+      <c r="V190" s="41"/>
+      <c r="W190" s="22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U191" s="38" t="n">
+        <v>184</v>
+      </c>
+      <c r="V191" s="41"/>
+      <c r="W191" s="22" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U192" s="38" t="n">
+        <v>185</v>
+      </c>
+      <c r="V192" s="41"/>
+      <c r="W192" s="22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U193" s="38" t="n">
+        <v>186</v>
+      </c>
+      <c r="V193" s="41"/>
+      <c r="W193" s="22" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U194" s="38" t="n">
+        <v>187</v>
+      </c>
+      <c r="V194" s="41"/>
+      <c r="W194" s="22" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U195" s="38" t="n">
+        <v>188</v>
+      </c>
+      <c r="V195" s="41"/>
+      <c r="W195" s="22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U196" s="38" t="n">
+        <v>189</v>
+      </c>
+      <c r="V196" s="41"/>
+      <c r="W196" s="22" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U197" s="38" t="n">
+        <v>190</v>
+      </c>
+      <c r="V197" s="41"/>
+      <c r="W197" s="22" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U198" s="38" t="n">
         <v>191</v>
       </c>
-      <c r="L7" s="23" t="n">
-        <v>1.40286</v>
-      </c>
-      <c r="M7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="O7" s="23" t="n">
-        <v>136</v>
-      </c>
-      <c r="P7" s="23" t="n">
-        <v>1.88742</v>
-      </c>
-      <c r="Q7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="S7" s="23" t="n">
+      <c r="V198" s="41"/>
+      <c r="W198" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U199" s="38" t="n">
+        <v>192</v>
+      </c>
+      <c r="V199" s="41"/>
+      <c r="W199" s="22" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U200" s="38" t="n">
+        <v>193</v>
+      </c>
+      <c r="V200" s="41"/>
+      <c r="W200" s="22" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U201" s="38" t="n">
+        <v>194</v>
+      </c>
+      <c r="V201" s="41"/>
+      <c r="W201" s="22" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U202" s="38" t="n">
+        <v>195</v>
+      </c>
+      <c r="V202" s="41"/>
+      <c r="W202" s="22" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U203" s="38" t="n">
+        <v>196</v>
+      </c>
+      <c r="V203" s="41"/>
+      <c r="W203" s="22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U204" s="38" t="n">
+        <v>197</v>
+      </c>
+      <c r="V204" s="41"/>
+      <c r="W204" s="22" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U205" s="38" t="n">
+        <v>198</v>
+      </c>
+      <c r="V205" s="41"/>
+      <c r="W205" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U206" s="38" t="n">
+        <v>199</v>
+      </c>
+      <c r="V206" s="41"/>
+      <c r="W206" s="22" t="n">
         <v>16</v>
       </c>
-      <c r="T7" s="23" t="n">
-        <v>1.56669</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="23" t="n">
-        <v>13</v>
-      </c>
-      <c r="D8" s="23" t="n">
-        <v>1.86816</v>
-      </c>
-      <c r="E8" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="23" t="n">
-        <v>100</v>
-      </c>
-      <c r="H8" s="23" t="n">
-        <v>1.70502</v>
-      </c>
-      <c r="I8" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="K8" s="23" t="n">
-        <v>18</v>
-      </c>
-      <c r="L8" s="23" t="n">
-        <v>1.10789</v>
-      </c>
-      <c r="M8" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="O8" s="23" t="n">
-        <v>102</v>
-      </c>
-      <c r="P8" s="23" t="n">
-        <v>0.971468</v>
-      </c>
-      <c r="Q8" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="S8" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="T8" s="23" t="n">
-        <v>1.48818</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="23" t="n">
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U207" s="38" t="n">
+        <v>200</v>
+      </c>
+      <c r="V207" s="41"/>
+      <c r="W207" s="22" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U208" s="38" t="n">
+        <v>201</v>
+      </c>
+      <c r="V208" s="41"/>
+      <c r="W208" s="22" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U209" s="38" t="n">
+        <v>202</v>
+      </c>
+      <c r="V209" s="41"/>
+      <c r="W209" s="22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U210" s="38" t="n">
+        <v>203</v>
+      </c>
+      <c r="V210" s="41"/>
+      <c r="W210" s="22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U211" s="38" t="n">
+        <v>204</v>
+      </c>
+      <c r="V211" s="41"/>
+      <c r="W211" s="22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U212" s="38" t="n">
+        <v>205</v>
+      </c>
+      <c r="V212" s="41"/>
+      <c r="W212" s="22" t="n">
         <v>14</v>
       </c>
-      <c r="D9" s="23" t="n">
-        <v>1.45079</v>
-      </c>
-      <c r="E9" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="23" t="n">
-        <v>38</v>
-      </c>
-      <c r="H9" s="23" t="n">
-        <v>1.57299</v>
-      </c>
-      <c r="I9" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="K9" s="23" t="n">
-        <v>126</v>
-      </c>
-      <c r="L9" s="23" t="n">
-        <v>1.70972</v>
-      </c>
-      <c r="M9" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="O9" s="23" t="n">
-        <v>83</v>
-      </c>
-      <c r="P9" s="23" t="n">
-        <v>1.77459</v>
-      </c>
-      <c r="Q9" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="S9" s="23" t="n">
-        <v>63</v>
-      </c>
-      <c r="T9" s="23" t="n">
-        <v>1.04619</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="23" t="n">
-        <v>67</v>
-      </c>
-      <c r="D10" s="23" t="n">
-        <v>1.06273</v>
-      </c>
-      <c r="E10" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="23" t="n">
-        <v>67</v>
-      </c>
-      <c r="H10" s="23" t="n">
-        <v>1.50809</v>
-      </c>
-      <c r="I10" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="K10" s="23" t="n">
-        <v>102</v>
-      </c>
-      <c r="L10" s="23" t="n">
-        <v>1.24742</v>
-      </c>
-      <c r="M10" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="O10" s="23" t="n">
-        <v>99</v>
-      </c>
-      <c r="P10" s="23" t="n">
-        <v>1.86308</v>
-      </c>
-      <c r="Q10" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="S10" s="23" t="n">
-        <v>36</v>
-      </c>
-      <c r="T10" s="23" t="n">
-        <v>0.906463</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="23" t="n">
-        <v>85</v>
-      </c>
-      <c r="D11" s="23" t="n">
-        <v>1.4831</v>
-      </c>
-      <c r="E11" s="31" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="23" t="n">
-        <v>78</v>
-      </c>
-      <c r="H11" s="23" t="n">
-        <v>1.83322</v>
-      </c>
-      <c r="I11" s="31" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="K11" s="23" t="n">
-        <v>35</v>
-      </c>
-      <c r="L11" s="23" t="n">
-        <v>1.13217</v>
-      </c>
-      <c r="M11" s="31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="O11" s="23" t="n">
-        <v>46</v>
-      </c>
-      <c r="P11" s="23" t="n">
-        <v>1.79666</v>
-      </c>
-      <c r="Q11" s="31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="S11" s="23" t="n">
-        <v>84</v>
-      </c>
-      <c r="T11" s="23" t="n">
-        <v>1.42726</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="23" t="n">
-        <v>45</v>
-      </c>
-      <c r="D12" s="23" t="n">
-        <v>1.57943</v>
-      </c>
-      <c r="E12" s="31" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="23" t="n">
-        <v>73</v>
-      </c>
-      <c r="H12" s="23" t="n">
-        <v>0.937777</v>
-      </c>
-      <c r="I12" s="31" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="K12" s="23" t="n">
-        <v>97</v>
-      </c>
-      <c r="L12" s="23" t="n">
-        <v>1.60012</v>
-      </c>
-      <c r="M12" s="31" t="n">
-        <v>6</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="O12" s="23" t="n">
-        <v>95</v>
-      </c>
-      <c r="P12" s="23" t="n">
-        <v>1.69931</v>
-      </c>
-      <c r="Q12" s="31" t="n">
-        <v>6</v>
-      </c>
-      <c r="R12" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="S12" s="23" t="n">
-        <v>116</v>
-      </c>
-      <c r="T12" s="23" t="n">
-        <v>1.22552</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29" t="n">
-        <v>7</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="23" t="n">
-        <v>94</v>
-      </c>
-      <c r="D13" s="23" t="n">
-        <v>1.63655</v>
-      </c>
-      <c r="E13" s="31" t="n">
-        <v>7</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="G13" s="23" t="n">
-        <v>137</v>
-      </c>
-      <c r="H13" s="23" t="n">
-        <v>1.56581</v>
-      </c>
-      <c r="I13" s="31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="K13" s="23" t="n">
-        <v>117</v>
-      </c>
-      <c r="L13" s="23" t="n">
-        <v>1.47297</v>
-      </c>
-      <c r="M13" s="31" t="n">
-        <v>7</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="O13" s="23" t="n">
-        <v>100</v>
-      </c>
-      <c r="P13" s="23" t="n">
-        <v>1.79939</v>
-      </c>
-      <c r="Q13" s="31" t="n">
-        <v>7</v>
-      </c>
-      <c r="R13" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="S13" s="23" t="n">
-        <v>57</v>
-      </c>
-      <c r="T13" s="23" t="n">
-        <v>1.55605</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="n">
-        <v>8</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="23" t="n">
-        <v>128</v>
-      </c>
-      <c r="D14" s="23" t="n">
-        <v>1.43766</v>
-      </c>
-      <c r="E14" s="31" t="n">
-        <v>8</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14" s="23" t="n">
-        <v>29</v>
-      </c>
-      <c r="H14" s="23" t="n">
-        <v>1.3891</v>
-      </c>
-      <c r="I14" s="31" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="K14" s="23" t="n">
-        <v>127</v>
-      </c>
-      <c r="L14" s="23" t="n">
-        <v>1.70048</v>
-      </c>
-      <c r="M14" s="31" t="n">
-        <v>8</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="O14" s="23" t="n">
-        <v>102</v>
-      </c>
-      <c r="P14" s="23" t="n">
-        <v>1.69505</v>
-      </c>
-      <c r="Q14" s="31" t="n">
-        <v>8</v>
-      </c>
-      <c r="R14" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="S14" s="23" t="n">
-        <v>105</v>
-      </c>
-      <c r="T14" s="23" t="n">
-        <v>1.41907</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="n">
-        <v>9</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="23" t="n">
-        <v>126</v>
-      </c>
-      <c r="D15" s="23" t="n">
-        <v>0.966884</v>
-      </c>
-      <c r="E15" s="31" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" s="23" t="n">
-        <v>205</v>
-      </c>
-      <c r="H15" s="23" t="n">
-        <v>0.934245</v>
-      </c>
-      <c r="I15" s="31" t="n">
-        <v>9</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="K15" s="23" t="n">
-        <v>74</v>
-      </c>
-      <c r="L15" s="23" t="n">
-        <v>1.57927</v>
-      </c>
-      <c r="M15" s="31" t="n">
-        <v>9</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="O15" s="23" t="n">
-        <v>68</v>
-      </c>
-      <c r="P15" s="23" t="n">
-        <v>1.5694</v>
-      </c>
-      <c r="Q15" s="31" t="n">
-        <v>9</v>
-      </c>
-      <c r="R15" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="S15" s="23" t="n">
-        <v>198</v>
-      </c>
-      <c r="T15" s="23" t="n">
-        <v>1.30043</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="n">
-        <v>10</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="23" t="n">
-        <v>78</v>
-      </c>
-      <c r="D16" s="23" t="n">
-        <v>1.16115</v>
-      </c>
-      <c r="E16" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="G16" s="23" t="n">
-        <v>78</v>
-      </c>
-      <c r="H16" s="23" t="n">
-        <v>1.53052</v>
-      </c>
-      <c r="I16" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="K16" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="L16" s="23" t="n">
-        <v>1.22485</v>
-      </c>
-      <c r="M16" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="O16" s="23" t="n">
-        <v>30</v>
-      </c>
-      <c r="P16" s="23" t="n">
-        <v>1.08456</v>
-      </c>
-      <c r="Q16" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="R16" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="S16" s="23" t="n">
-        <v>91</v>
-      </c>
-      <c r="T16" s="23" t="n">
-        <v>1.13135</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="n">
-        <v>11</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="23" t="n">
-        <v>54</v>
-      </c>
-      <c r="D17" s="23" t="n">
-        <v>1.5521</v>
-      </c>
-      <c r="E17" s="31" t="n">
-        <v>11</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="G17" s="23" t="n">
-        <v>70</v>
-      </c>
-      <c r="H17" s="23" t="n">
-        <v>1.28946</v>
-      </c>
-      <c r="I17" s="31" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="K17" s="23" t="n">
-        <v>149</v>
-      </c>
-      <c r="L17" s="23" t="n">
-        <v>1.28555</v>
-      </c>
-      <c r="M17" s="31" t="n">
-        <v>11</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="O17" s="23" t="n">
-        <v>91</v>
-      </c>
-      <c r="P17" s="23" t="n">
-        <v>1.76459</v>
-      </c>
-      <c r="Q17" s="31" t="n">
-        <v>11</v>
-      </c>
-      <c r="R17" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="S17" s="23" t="n">
-        <v>91</v>
-      </c>
-      <c r="T17" s="23" t="n">
-        <v>1.48655</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29" t="n">
-        <v>12</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="23" t="n">
-        <v>66</v>
-      </c>
-      <c r="D18" s="23" t="n">
-        <v>1.23285</v>
-      </c>
-      <c r="E18" s="31" t="n">
-        <v>12</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="G18" s="23" t="n">
-        <v>173</v>
-      </c>
-      <c r="H18" s="23" t="n">
-        <v>1.74939</v>
-      </c>
-      <c r="I18" s="31" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="K18" s="23" t="n">
-        <v>133</v>
-      </c>
-      <c r="L18" s="23" t="n">
-        <v>0.940498</v>
-      </c>
-      <c r="M18" s="31" t="n">
-        <v>12</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="O18" s="23" t="n">
-        <v>188</v>
-      </c>
-      <c r="P18" s="23" t="n">
-        <v>1.39419</v>
-      </c>
-      <c r="Q18" s="31" t="n">
-        <v>12</v>
-      </c>
-      <c r="R18" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="S18" s="23" t="n">
-        <v>113</v>
-      </c>
-      <c r="T18" s="23" t="n">
-        <v>1.60293</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="n">
-        <v>13</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="23" t="n">
-        <v>44</v>
-      </c>
-      <c r="D19" s="23" t="n">
-        <v>1.45982</v>
-      </c>
-      <c r="E19" s="31" t="n">
-        <v>13</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19" s="23" t="n">
-        <v>117</v>
-      </c>
-      <c r="H19" s="23" t="n">
-        <v>1.33728</v>
-      </c>
-      <c r="I19" s="31" t="n">
-        <v>13</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="K19" s="23" t="n">
-        <v>143</v>
-      </c>
-      <c r="L19" s="23" t="n">
-        <v>1.04713</v>
-      </c>
-      <c r="M19" s="31" t="n">
-        <v>13</v>
-      </c>
-      <c r="N19" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="O19" s="23" t="n">
-        <v>86</v>
-      </c>
-      <c r="P19" s="23" t="n">
-        <v>1.0348</v>
-      </c>
-      <c r="Q19" s="31" t="n">
-        <v>13</v>
-      </c>
-      <c r="R19" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="S19" s="23" t="n">
-        <v>101</v>
-      </c>
-      <c r="T19" s="23" t="n">
-        <v>1.8397</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29" t="n">
-        <v>14</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" s="23" t="n">
-        <v>82</v>
-      </c>
-      <c r="D20" s="23" t="n">
-        <v>1.23735</v>
-      </c>
-      <c r="E20" s="31" t="n">
-        <v>14</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" s="23" t="n">
-        <v>202</v>
-      </c>
-      <c r="H20" s="23" t="n">
-        <v>1.57886</v>
-      </c>
-      <c r="I20" s="31" t="n">
-        <v>14</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="K20" s="23" t="n">
-        <v>148</v>
-      </c>
-      <c r="L20" s="23" t="n">
-        <v>1.0174</v>
-      </c>
-      <c r="M20" s="31" t="n">
-        <v>14</v>
-      </c>
-      <c r="N20" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="O20" s="23" t="n">
-        <v>219</v>
-      </c>
-      <c r="P20" s="23" t="n">
-        <v>1.31624</v>
-      </c>
-      <c r="Q20" s="31" t="n">
-        <v>14</v>
-      </c>
-      <c r="R20" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="S20" s="23" t="n">
-        <v>126</v>
-      </c>
-      <c r="T20" s="23" t="n">
-        <v>1.32411</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="n">
-        <v>15</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" s="23" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="23" t="n">
-        <v>1.14293</v>
-      </c>
-      <c r="E21" s="31" t="n">
-        <v>15</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="G21" s="23" t="n">
-        <v>58</v>
-      </c>
-      <c r="H21" s="23" t="n">
-        <v>1.2809</v>
-      </c>
-      <c r="I21" s="31" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="K21" s="23" t="n">
-        <v>86</v>
-      </c>
-      <c r="L21" s="23" t="n">
-        <v>1.58783</v>
-      </c>
-      <c r="M21" s="31" t="n">
-        <v>15</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="O21" s="23" t="n">
-        <v>140</v>
-      </c>
-      <c r="P21" s="23" t="n">
-        <v>1.53488</v>
-      </c>
-      <c r="Q21" s="31" t="n">
-        <v>15</v>
-      </c>
-      <c r="R21" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="S21" s="23" t="n">
-        <v>55</v>
-      </c>
-      <c r="T21" s="23" t="n">
-        <v>1.16806</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29" t="n">
-        <v>16</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="C22" s="23" t="n">
-        <v>145</v>
-      </c>
-      <c r="D22" s="23" t="n">
-        <v>1.31587</v>
-      </c>
-      <c r="E22" s="31" t="n">
-        <v>16</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="G22" s="23" t="n">
-        <v>100</v>
-      </c>
-      <c r="H22" s="23" t="n">
-        <v>1.45259</v>
-      </c>
-      <c r="I22" s="31" t="n">
-        <v>16</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="K22" s="23" t="n">
-        <v>100</v>
-      </c>
-      <c r="L22" s="23" t="n">
-        <v>1.20542</v>
-      </c>
-      <c r="M22" s="31" t="n">
-        <v>16</v>
-      </c>
-      <c r="N22" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="O22" s="23" t="n">
-        <v>213</v>
-      </c>
-      <c r="P22" s="23" t="n">
-        <v>1.26557</v>
-      </c>
-      <c r="Q22" s="31" t="n">
-        <v>16</v>
-      </c>
-      <c r="R22" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="S22" s="23" t="n">
-        <v>72</v>
-      </c>
-      <c r="T22" s="23" t="n">
-        <v>1.22772</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29" t="n">
-        <v>17</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="23" t="n">
-        <v>62</v>
-      </c>
-      <c r="D23" s="23" t="n">
-        <v>1.77744</v>
-      </c>
-      <c r="E23" s="31" t="n">
-        <v>17</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="G23" s="23" t="n">
-        <v>55</v>
-      </c>
-      <c r="H23" s="23" t="n">
-        <v>1.87872</v>
-      </c>
-      <c r="I23" s="31" t="n">
-        <v>17</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="K23" s="23" t="n">
-        <v>61</v>
-      </c>
-      <c r="L23" s="23" t="n">
-        <v>1.16004</v>
-      </c>
-      <c r="M23" s="31" t="n">
-        <v>17</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="O23" s="23" t="n">
-        <v>272</v>
-      </c>
-      <c r="P23" s="23" t="n">
-        <v>1.15868</v>
-      </c>
-      <c r="Q23" s="31" t="n">
-        <v>17</v>
-      </c>
-      <c r="R23" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="S23" s="23" t="n">
-        <v>69</v>
-      </c>
-      <c r="T23" s="23" t="n">
-        <v>1.51959</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29" t="n">
-        <v>18</v>
-      </c>
-      <c r="B24" s="30" t="s">
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U213" s="38" t="n">
         <v>206</v>
       </c>
-      <c r="C24" s="23" t="n">
-        <v>123</v>
-      </c>
-      <c r="D24" s="23" t="n">
-        <v>0.994241</v>
-      </c>
-      <c r="E24" s="31" t="n">
-        <v>18</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="G24" s="23" t="n">
-        <v>97</v>
-      </c>
-      <c r="H24" s="23" t="n">
-        <v>1.29475</v>
-      </c>
-      <c r="I24" s="31" t="n">
-        <v>18</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="K24" s="23" t="n">
-        <v>195</v>
-      </c>
-      <c r="L24" s="23" t="n">
-        <v>1.26977</v>
-      </c>
-      <c r="M24" s="31" t="n">
-        <v>18</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="O24" s="23" t="n">
-        <v>134</v>
-      </c>
-      <c r="P24" s="23" t="n">
-        <v>1.59562</v>
-      </c>
-      <c r="Q24" s="31" t="n">
-        <v>18</v>
-      </c>
-      <c r="R24" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="S24" s="23" t="n">
-        <v>31</v>
-      </c>
-      <c r="T24" s="23" t="n">
-        <v>1.12051</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29" t="n">
+      <c r="V213" s="41"/>
+      <c r="W213" s="22" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U214" s="38" t="n">
+        <v>207</v>
+      </c>
+      <c r="V214" s="41"/>
+      <c r="W214" s="22" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="23" t="n">
-        <v>65</v>
-      </c>
-      <c r="D25" s="23" t="n">
-        <v>1.04352</v>
-      </c>
-      <c r="E25" s="31" t="n">
-        <v>19</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="G25" s="23" t="n">
-        <v>164</v>
-      </c>
-      <c r="H25" s="23" t="n">
-        <v>1.51605</v>
-      </c>
-      <c r="I25" s="31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="K25" s="23" t="n">
-        <v>194</v>
-      </c>
-      <c r="L25" s="23" t="n">
-        <v>1.64114</v>
-      </c>
-      <c r="O25" s="32" t="n">
-        <f aca="false">AVERAGE(O6:O24)</f>
-        <v>119.421052631579</v>
-      </c>
-      <c r="Q25" s="31" t="n">
-        <v>19</v>
-      </c>
-      <c r="R25" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="S25" s="23" t="n">
-        <v>153</v>
-      </c>
-      <c r="T25" s="23" t="n">
-        <v>1.67195</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29" t="n">
-        <v>20</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="23" t="n">
-        <v>57</v>
-      </c>
-      <c r="D26" s="23" t="n">
-        <v>1.00622</v>
-      </c>
-      <c r="E26" s="31" t="n">
-        <v>20</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="G26" s="23" t="n">
-        <v>187</v>
-      </c>
-      <c r="H26" s="23" t="n">
-        <v>0.938106</v>
-      </c>
-      <c r="I26" s="31" t="n">
-        <v>20</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="K26" s="23" t="n">
-        <v>165</v>
-      </c>
-      <c r="L26" s="23" t="n">
-        <v>1.13932</v>
-      </c>
-      <c r="Q26" s="31" t="n">
-        <v>20</v>
-      </c>
-      <c r="R26" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="S26" s="23" t="n">
-        <v>54</v>
-      </c>
-      <c r="T26" s="23" t="n">
-        <v>1.05845</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29" t="n">
-        <v>21</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="23" t="n">
-        <v>180</v>
-      </c>
-      <c r="D27" s="23" t="n">
-        <v>1.89097</v>
-      </c>
-      <c r="E27" s="31" t="n">
-        <v>21</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" s="23" t="n">
-        <v>167</v>
-      </c>
-      <c r="H27" s="23" t="n">
-        <v>1.45215</v>
-      </c>
-      <c r="K27" s="32" t="n">
-        <f aca="false">AVERAGE(K6:K26)</f>
-        <v>110.142857142857</v>
-      </c>
-      <c r="Q27" s="31" t="n">
-        <v>21</v>
-      </c>
-      <c r="R27" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="S27" s="23" t="n">
-        <v>75</v>
-      </c>
-      <c r="T27" s="23" t="n">
-        <v>1.46931</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29" t="n">
-        <v>22</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="D28" s="23" t="n">
-        <v>1.35927</v>
-      </c>
-      <c r="E28" s="31" t="n">
-        <v>22</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="G28" s="23" t="n">
-        <v>133</v>
-      </c>
-      <c r="H28" s="23" t="n">
-        <v>0.985925</v>
-      </c>
-      <c r="Q28" s="31" t="n">
-        <v>22</v>
-      </c>
-      <c r="R28" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="S28" s="23" t="n">
-        <v>119</v>
-      </c>
-      <c r="T28" s="23" t="n">
-        <v>1.17197</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29" t="n">
-        <v>23</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="23" t="n">
-        <v>36</v>
-      </c>
-      <c r="D29" s="23" t="n">
-        <v>1.08812</v>
-      </c>
-      <c r="G29" s="32" t="n">
-        <f aca="false">AVERAGE(G6:G28)</f>
-        <v>102.260869565217</v>
-      </c>
-      <c r="Q29" s="31" t="n">
-        <v>23</v>
-      </c>
-      <c r="R29" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="S29" s="23" t="n">
-        <v>308</v>
-      </c>
-      <c r="T29" s="23" t="n">
-        <v>0.943035</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29" t="n">
-        <v>24</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="23" t="n">
-        <v>194</v>
-      </c>
-      <c r="D30" s="23" t="n">
-        <v>1.63572</v>
-      </c>
-      <c r="F30" s="23" t="n">
-        <f aca="false">COUNTIF(F6:F28,"?")/COUNTA(F6:F28)</f>
-        <v>0.0869565217391304</v>
-      </c>
-      <c r="J30" s="23" t="n">
-        <f aca="false">COUNTIF(J6:J26,"?")/COUNTA(J6:J26)</f>
-        <v>0.19047619047619</v>
-      </c>
-      <c r="N30" s="23" t="n">
-        <f aca="false">COUNTIF(N6:N24,"?")/COUNTA(N6:N24)</f>
-        <v>0.263157894736842</v>
-      </c>
-      <c r="Q30" s="31" t="n">
-        <v>24</v>
-      </c>
-      <c r="R30" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="S30" s="23" t="n">
-        <v>77</v>
-      </c>
-      <c r="T30" s="23" t="n">
-        <v>1.40944</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29" t="n">
-        <v>25</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="23" t="n">
-        <v>178</v>
-      </c>
-      <c r="D31" s="23" t="n">
-        <v>1.13628</v>
-      </c>
-      <c r="F31" s="33" t="n">
-        <f aca="false">(COUNTIF(F6:F28,"&lt;&gt;?")/COUNTA(F6:F28))*100</f>
-        <v>91.304347826087</v>
-      </c>
-      <c r="J31" s="33" t="n">
-        <f aca="false">(COUNTIF(J6:J26,"&lt;&gt;?")/COUNTA(J6:J26))*100</f>
-        <v>80.952380952381</v>
-      </c>
-      <c r="N31" s="33" t="n">
-        <f aca="false">(COUNTIF(N6:N24,"&lt;&gt;?")/COUNTA(N6:N24))*100</f>
-        <v>73.6842105263158</v>
-      </c>
-      <c r="S31" s="32" t="n">
-        <f aca="false">AVERAGE(S6:S30)</f>
-        <v>90.92</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29" t="n">
-        <v>26</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="23" t="n">
-        <v>110</v>
-      </c>
-      <c r="D32" s="23" t="n">
-        <v>1.56778</v>
-      </c>
-      <c r="R32" s="23" t="n">
-        <f aca="false">COUNTIF(R6:R30,"?")/COUNTA(R6:R30)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="29" t="n">
-        <v>27</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C33" s="23" t="n">
-        <v>99</v>
-      </c>
-      <c r="D33" s="23" t="n">
-        <v>1.45323</v>
-      </c>
-      <c r="R33" s="33" t="n">
-        <f aca="false">(COUNTIF(R6:R30,"&lt;&gt;?")/COUNTA(R6:R30))*100</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="25"/>
-      <c r="C34" s="32" t="n">
-        <f aca="false">AVERAGE(C6:C33)</f>
-        <v>79.6428571428571</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="25" t="n">
-        <f aca="false">COUNTIF(B6:B33,"?")/COUNTA(B6:B33)</f>
-        <v>0.214285714285714</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="33" t="n">
-        <f aca="false">(COUNTIF(B6:B33,"&lt;&gt;?")/COUNTA(B6:B33))*100</f>
-        <v>78.5714285714286</v>
-      </c>
-      <c r="D36" s="23" t="n">
-        <f aca="false">COUNT(A6:A33,E6:E28,I6:I26,M6:M24,Q6:Q30)</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W215" s="43" t="n">
+        <f aca="false">AVERAGE(W7:W214)</f>
+        <v>10.9278846153846</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
@@ -7841,7 +10157,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -7856,665 +10172,667 @@
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.58163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6632653061225"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.80612244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="10.4132653061225"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.3928571428571"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>215</v>
+        <v>235</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="N1" s="46" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="M2" s="40" t="n">
+        <v>241</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="M2" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="41" t="n">
+      <c r="N2" s="52" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="M3" s="40" t="n">
+      <c r="A3" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="M3" s="51" t="n">
         <v>2</v>
       </c>
-      <c r="N3" s="41" t="n">
+      <c r="N3" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="s">
-        <v>229</v>
+      <c r="A4" s="53" t="s">
+        <v>253</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="M4" s="40" t="n">
+        <v>241</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="M4" s="51" t="n">
         <v>4</v>
       </c>
-      <c r="N4" s="41" t="n">
+      <c r="N4" s="52" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="M5" s="40" t="n">
+        <v>259</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="M5" s="51" t="n">
         <v>4</v>
       </c>
-      <c r="N5" s="41" t="n">
+      <c r="N5" s="52" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="M6" s="40" t="n">
+        <v>262</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="M6" s="51" t="n">
         <v>5</v>
       </c>
-      <c r="N6" s="41" t="n">
+      <c r="N6" s="52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="K7" s="43" t="s">
+      <c r="C7" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="H7" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="L7" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="M7" s="40" t="n">
+      <c r="I7" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="M7" s="51" t="n">
         <v>4</v>
       </c>
-      <c r="N7" s="41" t="n">
+      <c r="N7" s="52" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="M8" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="F9" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="G9" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="M8" s="40" t="n">
+      <c r="H9" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="M9" s="51" t="n">
         <v>5</v>
       </c>
-      <c r="N8" s="41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="M9" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" s="41" t="n">
+      <c r="N9" s="52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="K10" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="M10" s="40" t="n">
+        <v>275</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="L10" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="M10" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="41" t="n">
+      <c r="N10" s="52" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="K11" s="43" t="s">
+      <c r="D11" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="M11" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="K12" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="M12" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="L11" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="M11" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="41" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="L12" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="M12" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="41" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="M13" s="40" t="n">
+      <c r="E13" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="M13" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="N13" s="41" t="n">
+      <c r="N13" s="52" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="K14" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="L14" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="M14" s="40" t="n">
+        <v>288</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="M14" s="51" t="n">
         <v>5</v>
       </c>
-      <c r="N14" s="41" t="n">
+      <c r="N14" s="52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="K15" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="L15" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="M15" s="48" t="n">
+        <v>241</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="M15" s="59" t="n">
         <v>4</v>
       </c>
-      <c r="N15" s="49" t="n">
+      <c r="N15" s="60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
-        <v>270</v>
+      <c r="A16" s="48" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37" t="s">
-        <v>271</v>
+      <c r="A17" s="48" t="s">
+        <v>295</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>272</v>
+        <v>241</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42" t="s">
-        <v>275</v>
+      <c r="A20" s="53" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42" t="s">
-        <v>276</v>
+      <c r="A21" s="53" t="s">
+        <v>300</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>223</v>
+        <v>241</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="H23" s="37" t="s">
-        <v>248</v>
+        <v>241</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37" t="s">
-        <v>279</v>
+      <c r="A24" s="48" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37" t="s">
-        <v>280</v>
+      <c r="A25" s="48" t="s">
+        <v>304</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>223</v>
+        <v>241</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H27" s="45" t="s">
-        <v>248</v>
+        <v>241</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="42" t="s">
-        <v>283</v>
+      <c r="A28" s="53" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="42" t="s">
-        <v>284</v>
+      <c r="A29" s="53" t="s">
+        <v>308</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="G29" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>232</v>
+        <v>241</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/qualitative_analysis.xlsx
+++ b/qualitative_analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="2" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="modularity_and_cc" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="communities_count_and_size_analysis" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="same_stem_analysis" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="F-measure" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="313">
   <si>
     <t xml:space="preserve">Co-Tags</t>
   </si>
@@ -951,6 +952,18 @@
   </si>
   <si>
     <t xml:space="preserve">tunneling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy</t>
   </si>
 </sst>
 </file>
@@ -960,7 +973,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1006,16 +1019,17 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Monospace"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1038,12 +1052,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="21">
@@ -1265,7 +1273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1290,7 +1298,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1306,7 +1314,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1315,14 +1323,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1342,7 +1342,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1510,6 +1510,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1582,7 +1586,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1616,6 +1620,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1695,6 +1700,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1774,6 +1780,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1853,6 +1860,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1932,6 +1940,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2011,6 +2020,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2068,11 +2078,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="29646715"/>
-        <c:axId val="60179672"/>
+        <c:axId val="12434222"/>
+        <c:axId val="24288715"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29646715"/>
+        <c:axId val="12434222"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,7 +2126,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="MM/DD/YYYY" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2145,14 +2155,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60179672"/>
+        <c:crossAx val="24288715"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60179672"/>
+        <c:axId val="24288715"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,7 +2244,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29646715"/>
+        <c:crossAx val="12434222"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2271,7 +2281,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2305,6 +2315,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2384,6 +2395,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2463,6 +2475,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2542,6 +2555,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2621,6 +2635,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2700,6 +2715,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2757,11 +2773,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="80420662"/>
-        <c:axId val="22427772"/>
+        <c:axId val="43979323"/>
+        <c:axId val="78940567"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80420662"/>
+        <c:axId val="43979323"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2805,7 +2821,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="MM/DD/YYYY" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2834,14 +2850,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22427772"/>
+        <c:crossAx val="78940567"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22427772"/>
+        <c:axId val="78940567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2923,7 +2939,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80420662"/>
+        <c:crossAx val="43979323"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2960,7 +2976,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2971,10 +2987,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.126065773447016"/>
-          <c:y val="0.0765360573258119"/>
-          <c:w val="0.657125456760049"/>
-          <c:h val="0.429638664430553"/>
+          <c:x val="0.126073672681155"/>
+          <c:y val="0.0765477279658433"/>
+          <c:w val="0.657058857439327"/>
+          <c:h val="0.429551692589204"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3251,11 +3267,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="68917167"/>
-        <c:axId val="2228097"/>
+        <c:axId val="31258735"/>
+        <c:axId val="89898866"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68917167"/>
+        <c:axId val="31258735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3290,14 +3306,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2228097"/>
+        <c:crossAx val="89898866"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2228097"/>
+        <c:axId val="89898866"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3341,7 +3357,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68917167"/>
+        <c:crossAx val="31258735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3386,6 +3402,485 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F-measure'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F-measure'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>E_cotags</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E_tag</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E_ex</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E_llda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E_wiki</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Co_occ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-measure'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.797043774872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.743376685934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.730017961383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.767756091927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.764207711166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.853133769878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F-measure'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F-measure'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>E_cotags</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E_tag</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E_ex</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E_llda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E_wiki</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Co_occ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-measure'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.31879938605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.347324593484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36462012896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.372750210261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.384524810765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0511354079058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F-measure'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F-measure'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>E_cotags</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E_tag</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E_ex</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E_llda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E_wiki</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Co_occ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-measure'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.455435091566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.473444031139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.486332872153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.501849475353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.511619232347</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0964875158697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F-measure'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F-measure'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>E_cotags</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E_tag</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E_ex</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E_llda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E_wiki</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Co_occ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-measure'!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.831097845115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.827932330827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.828715710723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.835436408978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83674563591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.787032418953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="89672265"/>
+        <c:axId val="65551972"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="89672265"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65551972"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65551972"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89672265"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3397,9 +3892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>464400</xdr:colOff>
+      <xdr:colOff>464040</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3408,7 +3903,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="312840" y="3073320"/>
-        <a:ext cx="3751920" cy="1924920"/>
+        <a:ext cx="3703680" cy="1924560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3427,9 +3922,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>483840</xdr:colOff>
+      <xdr:colOff>483480</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3438,7 +3933,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="312480" y="5256720"/>
-        <a:ext cx="3771720" cy="1936080"/>
+        <a:ext cx="3723480" cy="1935720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3462,9 +3957,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>357480</xdr:colOff>
+      <xdr:colOff>357120</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3472,8 +3967,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5618880" y="2773440"/>
-        <a:ext cx="6337800" cy="2360880"/>
+        <a:off x="5523480" y="2773440"/>
+        <a:ext cx="6244560" cy="2360520"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5367600" y="36000"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3499,18 +4029,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4244,7 +4774,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5906,20 +6436,20 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6162,19 +6692,19 @@
       <c r="A8" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="4" t="n">
         <v>0.038881629021</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" s="10" t="n">
         <v>0.0492661222723</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="10" t="n">
         <v>0.0492661222723</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="10" t="n">
         <v>0.0535437035709</v>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="F8" s="10" t="n">
         <v>0.0535437035709</v>
       </c>
       <c r="G8" s="0" t="n">
@@ -6199,7 +6729,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -6209,15 +6739,15 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="8" t="n">
         <v>10</v>
       </c>
@@ -6233,253 +6763,253 @@
       <c r="F11" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="19" t="n">
+      <c r="B12" s="17" t="n">
         <v>0.0331180270387</v>
       </c>
-      <c r="C12" s="19" t="n">
+      <c r="C12" s="17" t="n">
         <v>0.0331180270387</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="10" t="n">
         <v>0.0329708345285</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="10" t="n">
         <v>0.0329708345285</v>
       </c>
-      <c r="F12" s="14" t="n">
+      <c r="F12" s="10" t="n">
         <v>0.0329708345285</v>
       </c>
-      <c r="G12" s="20" t="n">
+      <c r="G12" s="18" t="n">
         <f aca="false">ROUND(B12,3)</f>
         <v>0.033</v>
       </c>
-      <c r="H12" s="20" t="n">
+      <c r="H12" s="18" t="n">
         <f aca="false">ROUND(C12,3)</f>
         <v>0.033</v>
       </c>
-      <c r="I12" s="20" t="n">
+      <c r="I12" s="18" t="n">
         <f aca="false">ROUND(D12,3)</f>
         <v>0.033</v>
       </c>
-      <c r="J12" s="20" t="n">
+      <c r="J12" s="18" t="n">
         <f aca="false">ROUND(E12,3)</f>
         <v>0.033</v>
       </c>
-      <c r="K12" s="20" t="n">
+      <c r="K12" s="18" t="n">
         <f aca="false">ROUND(F12,3)</f>
         <v>0.033</v>
       </c>
-      <c r="M12" s="21"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="19" t="n">
+      <c r="B13" s="17" t="n">
         <v>0.0331180270387</v>
       </c>
-      <c r="C13" s="19" t="n">
+      <c r="C13" s="17" t="n">
         <v>0.0331180270387</v>
       </c>
-      <c r="D13" s="19" t="n">
+      <c r="D13" s="17" t="n">
         <v>0.0331180270387</v>
       </c>
-      <c r="E13" s="19" t="n">
+      <c r="E13" s="17" t="n">
         <v>0.0331180270387</v>
       </c>
-      <c r="F13" s="19" t="n">
+      <c r="F13" s="17" t="n">
         <v>0.0331180270387</v>
       </c>
-      <c r="G13" s="20" t="n">
+      <c r="G13" s="18" t="n">
         <f aca="false">ROUND(B13,3)</f>
         <v>0.033</v>
       </c>
-      <c r="H13" s="20" t="n">
+      <c r="H13" s="18" t="n">
         <f aca="false">ROUND(C13,3)</f>
         <v>0.033</v>
       </c>
-      <c r="I13" s="20" t="n">
+      <c r="I13" s="18" t="n">
         <f aca="false">ROUND(D13,3)</f>
         <v>0.033</v>
       </c>
-      <c r="J13" s="20" t="n">
+      <c r="J13" s="18" t="n">
         <f aca="false">ROUND(E13,3)</f>
         <v>0.033</v>
       </c>
-      <c r="K13" s="20" t="n">
+      <c r="K13" s="18" t="n">
         <f aca="false">ROUND(F13,3)</f>
         <v>0.033</v>
       </c>
-      <c r="M13" s="21"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="19" t="n">
+      <c r="B14" s="17" t="n">
         <v>0.0331180270387</v>
       </c>
-      <c r="C14" s="19" t="n">
+      <c r="C14" s="17" t="n">
         <v>0.0331180270387</v>
       </c>
-      <c r="D14" s="19" t="n">
+      <c r="D14" s="17" t="n">
         <v>0.0331180270387</v>
       </c>
-      <c r="E14" s="19" t="n">
+      <c r="E14" s="17" t="n">
         <v>0.0331180270387</v>
       </c>
-      <c r="F14" s="19" t="n">
+      <c r="F14" s="17" t="n">
         <v>0.0331180270387</v>
       </c>
-      <c r="G14" s="20" t="n">
+      <c r="G14" s="18" t="n">
         <f aca="false">ROUND(B14,3)</f>
         <v>0.033</v>
       </c>
-      <c r="H14" s="20" t="n">
+      <c r="H14" s="18" t="n">
         <f aca="false">ROUND(C14,3)</f>
         <v>0.033</v>
       </c>
-      <c r="I14" s="20" t="n">
+      <c r="I14" s="18" t="n">
         <f aca="false">ROUND(D14,3)</f>
         <v>0.033</v>
       </c>
-      <c r="J14" s="20" t="n">
+      <c r="J14" s="18" t="n">
         <f aca="false">ROUND(E14,3)</f>
         <v>0.033</v>
       </c>
-      <c r="K14" s="20" t="n">
+      <c r="K14" s="18" t="n">
         <f aca="false">ROUND(F14,3)</f>
         <v>0.033</v>
       </c>
-      <c r="M14" s="21"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="14" t="n">
+      <c r="B15" s="10" t="n">
         <v>0.0321183433461</v>
       </c>
-      <c r="C15" s="14" t="n">
+      <c r="C15" s="10" t="n">
         <v>0.0301608516803</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="10" t="n">
         <v>0.0301608516803</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="10" t="n">
         <v>0.0324356667591</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="10" t="n">
         <v>0.0324356667591</v>
       </c>
-      <c r="G15" s="20" t="n">
+      <c r="G15" s="18" t="n">
         <f aca="false">ROUND(B15,3)</f>
         <v>0.032</v>
       </c>
-      <c r="H15" s="20" t="n">
+      <c r="H15" s="18" t="n">
         <f aca="false">ROUND(C15,3)</f>
         <v>0.03</v>
       </c>
-      <c r="I15" s="20" t="n">
+      <c r="I15" s="18" t="n">
         <f aca="false">ROUND(D15,3)</f>
         <v>0.03</v>
       </c>
-      <c r="J15" s="20" t="n">
+      <c r="J15" s="18" t="n">
         <f aca="false">ROUND(E15,3)</f>
         <v>0.032</v>
       </c>
-      <c r="K15" s="20" t="n">
+      <c r="K15" s="18" t="n">
         <f aca="false">ROUND(F15,3)</f>
         <v>0.032</v>
       </c>
-      <c r="M15" s="21"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="14" t="n">
+      <c r="B16" s="10" t="n">
         <v>0.0278937964129</v>
       </c>
-      <c r="C16" s="14" t="n">
+      <c r="C16" s="10" t="n">
         <v>0.0288452105661</v>
       </c>
-      <c r="D16" s="14" t="n">
+      <c r="D16" s="10" t="n">
         <v>0.0299850698611</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="10" t="n">
         <v>0.0299850698611</v>
       </c>
-      <c r="F16" s="14" t="n">
+      <c r="F16" s="10" t="n">
         <v>0.0299850698611</v>
       </c>
-      <c r="G16" s="20" t="n">
+      <c r="G16" s="18" t="n">
         <f aca="false">ROUND(B16,3)</f>
         <v>0.028</v>
       </c>
-      <c r="H16" s="20" t="n">
+      <c r="H16" s="18" t="n">
         <f aca="false">ROUND(C16,3)</f>
         <v>0.029</v>
       </c>
-      <c r="I16" s="20" t="n">
+      <c r="I16" s="18" t="n">
         <f aca="false">ROUND(D16,3)</f>
         <v>0.03</v>
       </c>
-      <c r="J16" s="20" t="n">
+      <c r="J16" s="18" t="n">
         <f aca="false">ROUND(E16,3)</f>
         <v>0.03</v>
       </c>
-      <c r="K16" s="20" t="n">
+      <c r="K16" s="18" t="n">
         <f aca="false">ROUND(F16,3)</f>
         <v>0.03</v>
       </c>
-      <c r="M16" s="21"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="14" t="n">
+      <c r="B17" s="10" t="n">
         <v>0.00302691295799</v>
       </c>
-      <c r="C17" s="14" t="n">
+      <c r="C17" s="10" t="n">
         <v>0.00316390471066</v>
       </c>
-      <c r="D17" s="14" t="n">
+      <c r="D17" s="10" t="n">
         <v>0.00316390471066</v>
       </c>
-      <c r="E17" s="14" t="n">
+      <c r="E17" s="10" t="n">
         <v>0.00337946343978</v>
       </c>
-      <c r="F17" s="14" t="n">
+      <c r="F17" s="10" t="n">
         <v>0.00337946343978</v>
       </c>
-      <c r="G17" s="20" t="n">
+      <c r="G17" s="18" t="n">
         <f aca="false">ROUND(B17,3)</f>
         <v>0.003</v>
       </c>
-      <c r="H17" s="20" t="n">
+      <c r="H17" s="18" t="n">
         <f aca="false">ROUND(C17,3)</f>
         <v>0.003</v>
       </c>
-      <c r="I17" s="20" t="n">
+      <c r="I17" s="18" t="n">
         <f aca="false">ROUND(D17,3)</f>
         <v>0.003</v>
       </c>
-      <c r="J17" s="20" t="n">
+      <c r="J17" s="18" t="n">
         <f aca="false">ROUND(E17,3)</f>
         <v>0.003</v>
       </c>
-      <c r="K17" s="20" t="n">
+      <c r="K17" s="18" t="n">
         <f aca="false">ROUND(F17,3)</f>
         <v>0.003</v>
       </c>
@@ -6515,3636 +7045,3650 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="7.56122448979592"/>
-    <col collapsed="false" hidden="true" max="4" min="4" style="22" width="0"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="7.96428571428571"/>
-    <col collapsed="false" hidden="true" max="8" min="8" style="22" width="0"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="22" width="7.83163265306122"/>
-    <col collapsed="false" hidden="true" max="12" min="12" style="22" width="0"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="22" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="7.69387755102041"/>
-    <col collapsed="false" hidden="true" max="16" min="16" style="22" width="0"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="22" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="22" width="7.69387755102041"/>
-    <col collapsed="false" hidden="true" max="20" min="20" style="22" width="0"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="22" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="22" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="22" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="20" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="7.4234693877551"/>
+    <col collapsed="false" hidden="true" max="4" min="4" style="20" width="0"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="20" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="20" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="20" width="7.83163265306122"/>
+    <col collapsed="false" hidden="true" max="8" min="8" style="20" width="0"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="20" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="20" width="7.69387755102041"/>
+    <col collapsed="false" hidden="true" max="12" min="12" style="20" width="0"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="20" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="20" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="20" width="7.56122448979592"/>
+    <col collapsed="false" hidden="true" max="16" min="16" style="20" width="0"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="20" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="20" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="20" width="7.56122448979592"/>
+    <col collapsed="false" hidden="true" max="20" min="20" style="20" width="0"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="20" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="20" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="20" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="0"/>
       <c r="H1" s="0"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
       <c r="O1" s="0"/>
       <c r="P1" s="0"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
       <c r="S1" s="0"/>
       <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="0"/>
       <c r="P2" s="0"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
       <c r="S2" s="0"/>
       <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
       <c r="S3" s="0"/>
       <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
       <c r="O4" s="0"/>
       <c r="P4" s="0"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
       <c r="S4" s="0"/>
       <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="0"/>
       <c r="D5" s="0"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="24"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="0"/>
       <c r="P5" s="0"/>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="24"/>
+      <c r="R5" s="22"/>
       <c r="S5" s="0"/>
       <c r="T5" s="0"/>
-      <c r="U5" s="31" t="s">
+      <c r="U5" s="29" t="s">
         <v>163</v>
       </c>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>173</v>
       </c>
       <c r="D6" s="0"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="31" t="s">
         <v>173</v>
       </c>
       <c r="H6" s="0"/>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="32" t="s">
         <v>173</v>
       </c>
       <c r="L6" s="0"/>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="O6" s="35" t="s">
+      <c r="O6" s="33" t="s">
         <v>173</v>
       </c>
       <c r="P6" s="0"/>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="R6" s="30" t="s">
+      <c r="R6" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="S6" s="36" t="s">
+      <c r="S6" s="34" t="s">
         <v>173</v>
       </c>
       <c r="T6" s="0"/>
-      <c r="U6" s="31" t="s">
+      <c r="U6" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="V6" s="31" t="s">
+      <c r="V6" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="W6" s="37" t="s">
+      <c r="W6" s="35" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="n">
+      <c r="A7" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="22" t="n">
+      <c r="C7" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="22" t="n">
+      <c r="D7" s="20" t="n">
         <v>0.270458</v>
       </c>
-      <c r="E7" s="40" t="n">
+      <c r="E7" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="22" t="n">
+      <c r="G7" s="20" t="n">
         <v>20</v>
       </c>
-      <c r="H7" s="22" t="n">
+      <c r="H7" s="20" t="n">
         <v>1.25369</v>
       </c>
-      <c r="I7" s="40" t="n">
+      <c r="I7" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="K7" s="22" t="n">
+      <c r="K7" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="L7" s="22" t="n">
+      <c r="L7" s="20" t="n">
         <v>1.27746</v>
       </c>
-      <c r="M7" s="40" t="n">
+      <c r="M7" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="O7" s="22" t="n">
+      <c r="O7" s="20" t="n">
         <v>65</v>
       </c>
-      <c r="P7" s="22" t="n">
+      <c r="P7" s="20" t="n">
         <v>1.59044</v>
       </c>
-      <c r="Q7" s="40" t="n">
+      <c r="Q7" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="S7" s="22" t="n">
+      <c r="S7" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="T7" s="22" t="n">
+      <c r="T7" s="20" t="n">
         <v>0.276905</v>
       </c>
-      <c r="U7" s="38" t="n">
+      <c r="U7" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="V7" s="41" t="s">
+      <c r="V7" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="W7" s="42" t="n">
+      <c r="W7" s="40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="n">
+      <c r="A8" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="22" t="n">
+      <c r="C8" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="22" t="n">
+      <c r="D8" s="20" t="n">
         <v>1.24687</v>
       </c>
-      <c r="E8" s="40" t="n">
+      <c r="E8" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="22" t="n">
+      <c r="G8" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="22" t="n">
+      <c r="H8" s="20" t="n">
         <v>1.36542</v>
       </c>
-      <c r="I8" s="40" t="n">
+      <c r="I8" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="K8" s="22" t="n">
+      <c r="K8" s="20" t="n">
         <v>191</v>
       </c>
-      <c r="L8" s="22" t="n">
+      <c r="L8" s="20" t="n">
         <v>1.40286</v>
       </c>
-      <c r="M8" s="40" t="n">
+      <c r="M8" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="O8" s="22" t="n">
+      <c r="O8" s="20" t="n">
         <v>136</v>
       </c>
-      <c r="P8" s="22" t="n">
+      <c r="P8" s="20" t="n">
         <v>1.88742</v>
       </c>
-      <c r="Q8" s="40" t="n">
+      <c r="Q8" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="39" t="s">
+      <c r="R8" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="S8" s="22" t="n">
+      <c r="S8" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="T8" s="22" t="n">
+      <c r="T8" s="20" t="n">
         <v>1.56669</v>
       </c>
-      <c r="U8" s="38" t="n">
+      <c r="U8" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="V8" s="41" t="s">
+      <c r="V8" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="W8" s="42" t="n">
+      <c r="W8" s="40" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38" t="n">
+      <c r="A9" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="22" t="n">
+      <c r="C9" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="D9" s="22" t="n">
+      <c r="D9" s="20" t="n">
         <v>1.86816</v>
       </c>
-      <c r="E9" s="40" t="n">
+      <c r="E9" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="G9" s="22" t="n">
+      <c r="G9" s="20" t="n">
         <v>100</v>
       </c>
-      <c r="H9" s="22" t="n">
+      <c r="H9" s="20" t="n">
         <v>1.70502</v>
       </c>
-      <c r="I9" s="40" t="n">
+      <c r="I9" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="K9" s="22" t="n">
+      <c r="K9" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="L9" s="22" t="n">
+      <c r="L9" s="20" t="n">
         <v>1.10789</v>
       </c>
-      <c r="M9" s="40" t="n">
+      <c r="M9" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="O9" s="22" t="n">
+      <c r="O9" s="20" t="n">
         <v>102</v>
       </c>
-      <c r="P9" s="22" t="n">
+      <c r="P9" s="20" t="n">
         <v>0.971468</v>
       </c>
-      <c r="Q9" s="40" t="n">
+      <c r="Q9" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="R9" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="S9" s="22" t="n">
+      <c r="S9" s="20" t="n">
         <v>60</v>
       </c>
-      <c r="T9" s="22" t="n">
+      <c r="T9" s="20" t="n">
         <v>1.48818</v>
       </c>
-      <c r="U9" s="38" t="n">
+      <c r="U9" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="V9" s="41" t="s">
+      <c r="V9" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="W9" s="42" t="n">
+      <c r="W9" s="40" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38" t="n">
+      <c r="A10" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="22" t="n">
+      <c r="C10" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="D10" s="22" t="n">
+      <c r="D10" s="20" t="n">
         <v>1.45079</v>
       </c>
-      <c r="E10" s="40" t="n">
+      <c r="E10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="G10" s="22" t="n">
+      <c r="G10" s="20" t="n">
         <v>38</v>
       </c>
-      <c r="H10" s="22" t="n">
+      <c r="H10" s="20" t="n">
         <v>1.57299</v>
       </c>
-      <c r="I10" s="40" t="n">
+      <c r="I10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="22" t="n">
+      <c r="K10" s="20" t="n">
         <v>126</v>
       </c>
-      <c r="L10" s="22" t="n">
+      <c r="L10" s="20" t="n">
         <v>1.70972</v>
       </c>
-      <c r="M10" s="40" t="n">
+      <c r="M10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="O10" s="22" t="n">
+      <c r="O10" s="20" t="n">
         <v>83</v>
       </c>
-      <c r="P10" s="22" t="n">
+      <c r="P10" s="20" t="n">
         <v>1.77459</v>
       </c>
-      <c r="Q10" s="40" t="n">
+      <c r="Q10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="R10" s="39" t="s">
+      <c r="R10" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="S10" s="22" t="n">
+      <c r="S10" s="20" t="n">
         <v>63</v>
       </c>
-      <c r="T10" s="22" t="n">
+      <c r="T10" s="20" t="n">
         <v>1.04619</v>
       </c>
-      <c r="U10" s="38" t="n">
+      <c r="U10" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="V10" s="41" t="s">
+      <c r="V10" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="W10" s="42" t="n">
+      <c r="W10" s="40" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="n">
+      <c r="A11" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="22" t="n">
+      <c r="C11" s="20" t="n">
         <v>67</v>
       </c>
-      <c r="D11" s="22" t="n">
+      <c r="D11" s="20" t="n">
         <v>1.06273</v>
       </c>
-      <c r="E11" s="40" t="n">
+      <c r="E11" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="22" t="n">
+      <c r="G11" s="20" t="n">
         <v>67</v>
       </c>
-      <c r="H11" s="22" t="n">
+      <c r="H11" s="20" t="n">
         <v>1.50809</v>
       </c>
-      <c r="I11" s="40" t="n">
+      <c r="I11" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="K11" s="22" t="n">
+      <c r="K11" s="20" t="n">
         <v>102</v>
       </c>
-      <c r="L11" s="22" t="n">
+      <c r="L11" s="20" t="n">
         <v>1.24742</v>
       </c>
-      <c r="M11" s="40" t="n">
+      <c r="M11" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="O11" s="22" t="n">
+      <c r="O11" s="20" t="n">
         <v>99</v>
       </c>
-      <c r="P11" s="22" t="n">
+      <c r="P11" s="20" t="n">
         <v>1.86308</v>
       </c>
-      <c r="Q11" s="40" t="n">
+      <c r="Q11" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="R11" s="39" t="s">
+      <c r="R11" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="S11" s="22" t="n">
+      <c r="S11" s="20" t="n">
         <v>36</v>
       </c>
-      <c r="T11" s="22" t="n">
+      <c r="T11" s="20" t="n">
         <v>0.906463</v>
       </c>
-      <c r="U11" s="38" t="n">
+      <c r="U11" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="V11" s="41" t="s">
+      <c r="V11" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="W11" s="42" t="n">
+      <c r="W11" s="40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38" t="n">
+      <c r="A12" s="36" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C12" s="22" t="n">
+      <c r="C12" s="20" t="n">
         <v>85</v>
       </c>
-      <c r="D12" s="22" t="n">
+      <c r="D12" s="20" t="n">
         <v>1.4831</v>
       </c>
-      <c r="E12" s="40" t="n">
+      <c r="E12" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="G12" s="22" t="n">
+      <c r="G12" s="20" t="n">
         <v>78</v>
       </c>
-      <c r="H12" s="22" t="n">
+      <c r="H12" s="20" t="n">
         <v>1.83322</v>
       </c>
-      <c r="I12" s="40" t="n">
+      <c r="I12" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="K12" s="22" t="n">
+      <c r="K12" s="20" t="n">
         <v>35</v>
       </c>
-      <c r="L12" s="22" t="n">
+      <c r="L12" s="20" t="n">
         <v>1.13217</v>
       </c>
-      <c r="M12" s="40" t="n">
+      <c r="M12" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="O12" s="22" t="n">
+      <c r="O12" s="20" t="n">
         <v>46</v>
       </c>
-      <c r="P12" s="22" t="n">
+      <c r="P12" s="20" t="n">
         <v>1.79666</v>
       </c>
-      <c r="Q12" s="40" t="n">
+      <c r="Q12" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="R12" s="39" t="s">
+      <c r="R12" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="S12" s="22" t="n">
+      <c r="S12" s="20" t="n">
         <v>84</v>
       </c>
-      <c r="T12" s="22" t="n">
+      <c r="T12" s="20" t="n">
         <v>1.42726</v>
       </c>
-      <c r="U12" s="38" t="n">
+      <c r="U12" s="36" t="n">
         <v>5</v>
       </c>
-      <c r="V12" s="41" t="s">
+      <c r="V12" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="W12" s="42" t="n">
+      <c r="W12" s="40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38" t="n">
+      <c r="A13" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="C13" s="22" t="n">
+      <c r="C13" s="20" t="n">
         <v>45</v>
       </c>
-      <c r="D13" s="22" t="n">
+      <c r="D13" s="20" t="n">
         <v>1.57943</v>
       </c>
-      <c r="E13" s="40" t="n">
+      <c r="E13" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="G13" s="22" t="n">
+      <c r="G13" s="20" t="n">
         <v>73</v>
       </c>
-      <c r="H13" s="22" t="n">
+      <c r="H13" s="20" t="n">
         <v>0.937777</v>
       </c>
-      <c r="I13" s="40" t="n">
+      <c r="I13" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="K13" s="22" t="n">
+      <c r="K13" s="20" t="n">
         <v>97</v>
       </c>
-      <c r="L13" s="22" t="n">
+      <c r="L13" s="20" t="n">
         <v>1.60012</v>
       </c>
-      <c r="M13" s="40" t="n">
+      <c r="M13" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="O13" s="22" t="n">
+      <c r="O13" s="20" t="n">
         <v>95</v>
       </c>
-      <c r="P13" s="22" t="n">
+      <c r="P13" s="20" t="n">
         <v>1.69931</v>
       </c>
-      <c r="Q13" s="40" t="n">
+      <c r="Q13" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="R13" s="39" t="s">
+      <c r="R13" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="S13" s="22" t="n">
+      <c r="S13" s="20" t="n">
         <v>116</v>
       </c>
-      <c r="T13" s="22" t="n">
+      <c r="T13" s="20" t="n">
         <v>1.22552</v>
       </c>
-      <c r="U13" s="38" t="n">
+      <c r="U13" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="V13" s="41" t="s">
+      <c r="V13" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="W13" s="42" t="n">
+      <c r="W13" s="40" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="38" t="n">
+      <c r="A14" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="22" t="n">
+      <c r="C14" s="20" t="n">
         <v>94</v>
       </c>
-      <c r="D14" s="22" t="n">
+      <c r="D14" s="20" t="n">
         <v>1.63655</v>
       </c>
-      <c r="E14" s="40" t="n">
+      <c r="E14" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="G14" s="22" t="n">
+      <c r="G14" s="20" t="n">
         <v>137</v>
       </c>
-      <c r="H14" s="22" t="n">
+      <c r="H14" s="20" t="n">
         <v>1.56581</v>
       </c>
-      <c r="I14" s="40" t="n">
+      <c r="I14" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="K14" s="22" t="n">
+      <c r="K14" s="20" t="n">
         <v>117</v>
       </c>
-      <c r="L14" s="22" t="n">
+      <c r="L14" s="20" t="n">
         <v>1.47297</v>
       </c>
-      <c r="M14" s="40" t="n">
+      <c r="M14" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="O14" s="22" t="n">
+      <c r="O14" s="20" t="n">
         <v>100</v>
       </c>
-      <c r="P14" s="22" t="n">
+      <c r="P14" s="20" t="n">
         <v>1.79939</v>
       </c>
-      <c r="Q14" s="40" t="n">
+      <c r="Q14" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="R14" s="39" t="s">
+      <c r="R14" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="S14" s="22" t="n">
+      <c r="S14" s="20" t="n">
         <v>57</v>
       </c>
-      <c r="T14" s="22" t="n">
+      <c r="T14" s="20" t="n">
         <v>1.55605</v>
       </c>
-      <c r="U14" s="38" t="n">
+      <c r="U14" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="V14" s="41" t="s">
+      <c r="V14" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="W14" s="42" t="n">
+      <c r="W14" s="40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="38" t="n">
+      <c r="A15" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="22" t="n">
+      <c r="C15" s="20" t="n">
         <v>128</v>
       </c>
-      <c r="D15" s="22" t="n">
+      <c r="D15" s="20" t="n">
         <v>1.43766</v>
       </c>
-      <c r="E15" s="40" t="n">
+      <c r="E15" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="G15" s="22" t="n">
+      <c r="G15" s="20" t="n">
         <v>29</v>
       </c>
-      <c r="H15" s="22" t="n">
+      <c r="H15" s="20" t="n">
         <v>1.3891</v>
       </c>
-      <c r="I15" s="40" t="n">
+      <c r="I15" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="K15" s="22" t="n">
+      <c r="K15" s="20" t="n">
         <v>127</v>
       </c>
-      <c r="L15" s="22" t="n">
+      <c r="L15" s="20" t="n">
         <v>1.70048</v>
       </c>
-      <c r="M15" s="40" t="n">
+      <c r="M15" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="O15" s="22" t="n">
+      <c r="O15" s="20" t="n">
         <v>102</v>
       </c>
-      <c r="P15" s="22" t="n">
+      <c r="P15" s="20" t="n">
         <v>1.69505</v>
       </c>
-      <c r="Q15" s="40" t="n">
+      <c r="Q15" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="R15" s="39" t="s">
+      <c r="R15" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="S15" s="22" t="n">
+      <c r="S15" s="20" t="n">
         <v>105</v>
       </c>
-      <c r="T15" s="22" t="n">
+      <c r="T15" s="20" t="n">
         <v>1.41907</v>
       </c>
-      <c r="U15" s="38" t="n">
+      <c r="U15" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="V15" s="41" t="s">
+      <c r="V15" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="W15" s="42" t="n">
+      <c r="W15" s="40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38" t="n">
+      <c r="A16" s="36" t="n">
         <v>9</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="22" t="n">
+      <c r="C16" s="20" t="n">
         <v>126</v>
       </c>
-      <c r="D16" s="22" t="n">
+      <c r="D16" s="20" t="n">
         <v>0.966884</v>
       </c>
-      <c r="E16" s="40" t="n">
+      <c r="E16" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="G16" s="22" t="n">
+      <c r="G16" s="20" t="n">
         <v>205</v>
       </c>
-      <c r="H16" s="22" t="n">
+      <c r="H16" s="20" t="n">
         <v>0.934245</v>
       </c>
-      <c r="I16" s="40" t="n">
+      <c r="I16" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="K16" s="22" t="n">
+      <c r="K16" s="20" t="n">
         <v>74</v>
       </c>
-      <c r="L16" s="22" t="n">
+      <c r="L16" s="20" t="n">
         <v>1.57927</v>
       </c>
-      <c r="M16" s="40" t="n">
+      <c r="M16" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="O16" s="22" t="n">
+      <c r="O16" s="20" t="n">
         <v>68</v>
       </c>
-      <c r="P16" s="22" t="n">
+      <c r="P16" s="20" t="n">
         <v>1.5694</v>
       </c>
-      <c r="Q16" s="40" t="n">
+      <c r="Q16" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="R16" s="39" t="s">
+      <c r="R16" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="S16" s="22" t="n">
+      <c r="S16" s="20" t="n">
         <v>198</v>
       </c>
-      <c r="T16" s="22" t="n">
+      <c r="T16" s="20" t="n">
         <v>1.30043</v>
       </c>
-      <c r="U16" s="38" t="n">
+      <c r="U16" s="36" t="n">
         <v>9</v>
       </c>
-      <c r="V16" s="41" t="s">
+      <c r="V16" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="W16" s="42" t="n">
+      <c r="W16" s="40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="38" t="n">
+      <c r="A17" s="36" t="n">
         <v>10</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="22" t="n">
+      <c r="C17" s="20" t="n">
         <v>78</v>
       </c>
-      <c r="D17" s="22" t="n">
+      <c r="D17" s="20" t="n">
         <v>1.16115</v>
       </c>
-      <c r="E17" s="40" t="n">
+      <c r="E17" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="G17" s="22" t="n">
+      <c r="G17" s="20" t="n">
         <v>78</v>
       </c>
-      <c r="H17" s="22" t="n">
+      <c r="H17" s="20" t="n">
         <v>1.53052</v>
       </c>
-      <c r="I17" s="40" t="n">
+      <c r="I17" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="K17" s="22" t="n">
+      <c r="K17" s="20" t="n">
         <v>48</v>
       </c>
-      <c r="L17" s="22" t="n">
+      <c r="L17" s="20" t="n">
         <v>1.22485</v>
       </c>
-      <c r="M17" s="40" t="n">
+      <c r="M17" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="O17" s="22" t="n">
+      <c r="O17" s="20" t="n">
         <v>30</v>
       </c>
-      <c r="P17" s="22" t="n">
+      <c r="P17" s="20" t="n">
         <v>1.08456</v>
       </c>
-      <c r="Q17" s="40" t="n">
+      <c r="Q17" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="R17" s="39" t="s">
+      <c r="R17" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="S17" s="22" t="n">
+      <c r="S17" s="20" t="n">
         <v>91</v>
       </c>
-      <c r="T17" s="22" t="n">
+      <c r="T17" s="20" t="n">
         <v>1.13135</v>
       </c>
-      <c r="U17" s="38" t="n">
+      <c r="U17" s="36" t="n">
         <v>10</v>
       </c>
-      <c r="V17" s="41" t="s">
+      <c r="V17" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="W17" s="42" t="n">
+      <c r="W17" s="40" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="38" t="n">
+      <c r="A18" s="36" t="n">
         <v>11</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="22" t="n">
+      <c r="C18" s="20" t="n">
         <v>54</v>
       </c>
-      <c r="D18" s="22" t="n">
+      <c r="D18" s="20" t="n">
         <v>1.5521</v>
       </c>
-      <c r="E18" s="40" t="n">
+      <c r="E18" s="38" t="n">
         <v>11</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="G18" s="22" t="n">
+      <c r="G18" s="20" t="n">
         <v>70</v>
       </c>
-      <c r="H18" s="22" t="n">
+      <c r="H18" s="20" t="n">
         <v>1.28946</v>
       </c>
-      <c r="I18" s="40" t="n">
+      <c r="I18" s="38" t="n">
         <v>11</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="K18" s="22" t="n">
+      <c r="K18" s="20" t="n">
         <v>149</v>
       </c>
-      <c r="L18" s="22" t="n">
+      <c r="L18" s="20" t="n">
         <v>1.28555</v>
       </c>
-      <c r="M18" s="40" t="n">
+      <c r="M18" s="38" t="n">
         <v>11</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="N18" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="O18" s="22" t="n">
+      <c r="O18" s="20" t="n">
         <v>91</v>
       </c>
-      <c r="P18" s="22" t="n">
+      <c r="P18" s="20" t="n">
         <v>1.76459</v>
       </c>
-      <c r="Q18" s="40" t="n">
+      <c r="Q18" s="38" t="n">
         <v>11</v>
       </c>
-      <c r="R18" s="39" t="s">
+      <c r="R18" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="S18" s="22" t="n">
+      <c r="S18" s="20" t="n">
         <v>91</v>
       </c>
-      <c r="T18" s="22" t="n">
+      <c r="T18" s="20" t="n">
         <v>1.48655</v>
       </c>
-      <c r="U18" s="38" t="n">
+      <c r="U18" s="36" t="n">
         <v>11</v>
       </c>
-      <c r="V18" s="41" t="s">
+      <c r="V18" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="W18" s="42" t="n">
+      <c r="W18" s="40" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38" t="n">
+      <c r="A19" s="36" t="n">
         <v>12</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="22" t="n">
+      <c r="C19" s="20" t="n">
         <v>66</v>
       </c>
-      <c r="D19" s="22" t="n">
+      <c r="D19" s="20" t="n">
         <v>1.23285</v>
       </c>
-      <c r="E19" s="40" t="n">
+      <c r="E19" s="38" t="n">
         <v>12</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="G19" s="22" t="n">
+      <c r="G19" s="20" t="n">
         <v>173</v>
       </c>
-      <c r="H19" s="22" t="n">
+      <c r="H19" s="20" t="n">
         <v>1.74939</v>
       </c>
-      <c r="I19" s="40" t="n">
+      <c r="I19" s="38" t="n">
         <v>12</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="K19" s="22" t="n">
+      <c r="K19" s="20" t="n">
         <v>133</v>
       </c>
-      <c r="L19" s="22" t="n">
+      <c r="L19" s="20" t="n">
         <v>0.940498</v>
       </c>
-      <c r="M19" s="40" t="n">
+      <c r="M19" s="38" t="n">
         <v>12</v>
       </c>
-      <c r="N19" s="39" t="s">
+      <c r="N19" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="O19" s="22" t="n">
+      <c r="O19" s="20" t="n">
         <v>188</v>
       </c>
-      <c r="P19" s="22" t="n">
+      <c r="P19" s="20" t="n">
         <v>1.39419</v>
       </c>
-      <c r="Q19" s="40" t="n">
+      <c r="Q19" s="38" t="n">
         <v>12</v>
       </c>
-      <c r="R19" s="39" t="s">
+      <c r="R19" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="S19" s="22" t="n">
+      <c r="S19" s="20" t="n">
         <v>113</v>
       </c>
-      <c r="T19" s="22" t="n">
+      <c r="T19" s="20" t="n">
         <v>1.60293</v>
       </c>
-      <c r="U19" s="38" t="n">
+      <c r="U19" s="36" t="n">
         <v>12</v>
       </c>
-      <c r="V19" s="41" t="s">
+      <c r="V19" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="W19" s="42" t="n">
+      <c r="W19" s="40" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38" t="n">
+      <c r="A20" s="36" t="n">
         <v>13</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="22" t="n">
+      <c r="C20" s="20" t="n">
         <v>44</v>
       </c>
-      <c r="D20" s="22" t="n">
+      <c r="D20" s="20" t="n">
         <v>1.45982</v>
       </c>
-      <c r="E20" s="40" t="n">
+      <c r="E20" s="38" t="n">
         <v>13</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="G20" s="22" t="n">
+      <c r="G20" s="20" t="n">
         <v>117</v>
       </c>
-      <c r="H20" s="22" t="n">
+      <c r="H20" s="20" t="n">
         <v>1.33728</v>
       </c>
-      <c r="I20" s="40" t="n">
+      <c r="I20" s="38" t="n">
         <v>13</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="J20" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="K20" s="22" t="n">
+      <c r="K20" s="20" t="n">
         <v>143</v>
       </c>
-      <c r="L20" s="22" t="n">
+      <c r="L20" s="20" t="n">
         <v>1.04713</v>
       </c>
-      <c r="M20" s="40" t="n">
+      <c r="M20" s="38" t="n">
         <v>13</v>
       </c>
-      <c r="N20" s="39" t="s">
+      <c r="N20" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="O20" s="22" t="n">
+      <c r="O20" s="20" t="n">
         <v>86</v>
       </c>
-      <c r="P20" s="22" t="n">
+      <c r="P20" s="20" t="n">
         <v>1.0348</v>
       </c>
-      <c r="Q20" s="40" t="n">
+      <c r="Q20" s="38" t="n">
         <v>13</v>
       </c>
-      <c r="R20" s="39" t="s">
+      <c r="R20" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="S20" s="22" t="n">
+      <c r="S20" s="20" t="n">
         <v>101</v>
       </c>
-      <c r="T20" s="22" t="n">
+      <c r="T20" s="20" t="n">
         <v>1.8397</v>
       </c>
-      <c r="U20" s="38" t="n">
+      <c r="U20" s="36" t="n">
         <v>13</v>
       </c>
-      <c r="V20" s="41" t="s">
+      <c r="V20" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="W20" s="42" t="n">
+      <c r="W20" s="40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38" t="n">
+      <c r="A21" s="36" t="n">
         <v>14</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="22" t="n">
+      <c r="C21" s="20" t="n">
         <v>82</v>
       </c>
-      <c r="D21" s="22" t="n">
+      <c r="D21" s="20" t="n">
         <v>1.23735</v>
       </c>
-      <c r="E21" s="40" t="n">
+      <c r="E21" s="38" t="n">
         <v>14</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="G21" s="22" t="n">
+      <c r="G21" s="20" t="n">
         <v>202</v>
       </c>
-      <c r="H21" s="22" t="n">
+      <c r="H21" s="20" t="n">
         <v>1.57886</v>
       </c>
-      <c r="I21" s="40" t="n">
+      <c r="I21" s="38" t="n">
         <v>14</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J21" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="K21" s="22" t="n">
+      <c r="K21" s="20" t="n">
         <v>148</v>
       </c>
-      <c r="L21" s="22" t="n">
+      <c r="L21" s="20" t="n">
         <v>1.0174</v>
       </c>
-      <c r="M21" s="40" t="n">
+      <c r="M21" s="38" t="n">
         <v>14</v>
       </c>
-      <c r="N21" s="39" t="s">
+      <c r="N21" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="O21" s="22" t="n">
+      <c r="O21" s="20" t="n">
         <v>219</v>
       </c>
-      <c r="P21" s="22" t="n">
+      <c r="P21" s="20" t="n">
         <v>1.31624</v>
       </c>
-      <c r="Q21" s="40" t="n">
+      <c r="Q21" s="38" t="n">
         <v>14</v>
       </c>
-      <c r="R21" s="39" t="s">
+      <c r="R21" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="S21" s="22" t="n">
+      <c r="S21" s="20" t="n">
         <v>126</v>
       </c>
-      <c r="T21" s="22" t="n">
+      <c r="T21" s="20" t="n">
         <v>1.32411</v>
       </c>
-      <c r="U21" s="38" t="n">
+      <c r="U21" s="36" t="n">
         <v>14</v>
       </c>
-      <c r="V21" s="41" t="s">
+      <c r="V21" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="W21" s="42" t="n">
+      <c r="W21" s="40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="38" t="n">
+      <c r="A22" s="36" t="n">
         <v>15</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="22" t="n">
+      <c r="C22" s="20" t="n">
         <v>30</v>
       </c>
-      <c r="D22" s="22" t="n">
+      <c r="D22" s="20" t="n">
         <v>1.14293</v>
       </c>
-      <c r="E22" s="40" t="n">
+      <c r="E22" s="38" t="n">
         <v>15</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="G22" s="22" t="n">
+      <c r="G22" s="20" t="n">
         <v>58</v>
       </c>
-      <c r="H22" s="22" t="n">
+      <c r="H22" s="20" t="n">
         <v>1.2809</v>
       </c>
-      <c r="I22" s="40" t="n">
+      <c r="I22" s="38" t="n">
         <v>15</v>
       </c>
-      <c r="J22" s="39" t="s">
+      <c r="J22" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="K22" s="22" t="n">
+      <c r="K22" s="20" t="n">
         <v>86</v>
       </c>
-      <c r="L22" s="22" t="n">
+      <c r="L22" s="20" t="n">
         <v>1.58783</v>
       </c>
-      <c r="M22" s="40" t="n">
+      <c r="M22" s="38" t="n">
         <v>15</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="O22" s="22" t="n">
+      <c r="O22" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="P22" s="22" t="n">
+      <c r="P22" s="20" t="n">
         <v>1.53488</v>
       </c>
-      <c r="Q22" s="40" t="n">
+      <c r="Q22" s="38" t="n">
         <v>15</v>
       </c>
-      <c r="R22" s="39" t="s">
+      <c r="R22" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="S22" s="22" t="n">
+      <c r="S22" s="20" t="n">
         <v>55</v>
       </c>
-      <c r="T22" s="22" t="n">
+      <c r="T22" s="20" t="n">
         <v>1.16806</v>
       </c>
-      <c r="U22" s="38" t="n">
+      <c r="U22" s="36" t="n">
         <v>15</v>
       </c>
-      <c r="V22" s="41" t="s">
+      <c r="V22" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="W22" s="42" t="n">
+      <c r="W22" s="40" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="38" t="n">
+      <c r="A23" s="36" t="n">
         <v>16</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="22" t="n">
+      <c r="C23" s="20" t="n">
         <v>145</v>
       </c>
-      <c r="D23" s="22" t="n">
+      <c r="D23" s="20" t="n">
         <v>1.31587</v>
       </c>
-      <c r="E23" s="40" t="n">
+      <c r="E23" s="38" t="n">
         <v>16</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="G23" s="22" t="n">
+      <c r="G23" s="20" t="n">
         <v>100</v>
       </c>
-      <c r="H23" s="22" t="n">
+      <c r="H23" s="20" t="n">
         <v>1.45259</v>
       </c>
-      <c r="I23" s="40" t="n">
+      <c r="I23" s="38" t="n">
         <v>16</v>
       </c>
-      <c r="J23" s="39" t="s">
+      <c r="J23" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="K23" s="22" t="n">
+      <c r="K23" s="20" t="n">
         <v>100</v>
       </c>
-      <c r="L23" s="22" t="n">
+      <c r="L23" s="20" t="n">
         <v>1.20542</v>
       </c>
-      <c r="M23" s="40" t="n">
+      <c r="M23" s="38" t="n">
         <v>16</v>
       </c>
-      <c r="N23" s="39" t="s">
+      <c r="N23" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="O23" s="22" t="n">
+      <c r="O23" s="20" t="n">
         <v>213</v>
       </c>
-      <c r="P23" s="22" t="n">
+      <c r="P23" s="20" t="n">
         <v>1.26557</v>
       </c>
-      <c r="Q23" s="40" t="n">
+      <c r="Q23" s="38" t="n">
         <v>16</v>
       </c>
-      <c r="R23" s="39" t="s">
+      <c r="R23" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="S23" s="22" t="n">
+      <c r="S23" s="20" t="n">
         <v>72</v>
       </c>
-      <c r="T23" s="22" t="n">
+      <c r="T23" s="20" t="n">
         <v>1.22772</v>
       </c>
-      <c r="U23" s="38" t="n">
+      <c r="U23" s="36" t="n">
         <v>16</v>
       </c>
-      <c r="V23" s="41" t="s">
+      <c r="V23" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="W23" s="42" t="n">
+      <c r="W23" s="40" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="38" t="n">
+      <c r="A24" s="36" t="n">
         <v>17</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="22" t="n">
+      <c r="C24" s="20" t="n">
         <v>62</v>
       </c>
-      <c r="D24" s="22" t="n">
+      <c r="D24" s="20" t="n">
         <v>1.77744</v>
       </c>
-      <c r="E24" s="40" t="n">
+      <c r="E24" s="38" t="n">
         <v>17</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="G24" s="22" t="n">
+      <c r="G24" s="20" t="n">
         <v>55</v>
       </c>
-      <c r="H24" s="22" t="n">
+      <c r="H24" s="20" t="n">
         <v>1.87872</v>
       </c>
-      <c r="I24" s="40" t="n">
+      <c r="I24" s="38" t="n">
         <v>17</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="K24" s="22" t="n">
+      <c r="K24" s="20" t="n">
         <v>61</v>
       </c>
-      <c r="L24" s="22" t="n">
+      <c r="L24" s="20" t="n">
         <v>1.16004</v>
       </c>
-      <c r="M24" s="40" t="n">
+      <c r="M24" s="38" t="n">
         <v>17</v>
       </c>
-      <c r="N24" s="39" t="s">
+      <c r="N24" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="O24" s="22" t="n">
+      <c r="O24" s="20" t="n">
         <v>272</v>
       </c>
-      <c r="P24" s="22" t="n">
+      <c r="P24" s="20" t="n">
         <v>1.15868</v>
       </c>
-      <c r="Q24" s="40" t="n">
+      <c r="Q24" s="38" t="n">
         <v>17</v>
       </c>
-      <c r="R24" s="39" t="s">
+      <c r="R24" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="S24" s="22" t="n">
+      <c r="S24" s="20" t="n">
         <v>69</v>
       </c>
-      <c r="T24" s="22" t="n">
+      <c r="T24" s="20" t="n">
         <v>1.51959</v>
       </c>
-      <c r="U24" s="38" t="n">
+      <c r="U24" s="36" t="n">
         <v>17</v>
       </c>
-      <c r="V24" s="41" t="s">
+      <c r="V24" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="W24" s="42" t="n">
+      <c r="W24" s="40" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38" t="n">
+      <c r="A25" s="36" t="n">
         <v>18</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="22" t="n">
+      <c r="C25" s="20" t="n">
         <v>123</v>
       </c>
-      <c r="D25" s="22" t="n">
+      <c r="D25" s="20" t="n">
         <v>0.994241</v>
       </c>
-      <c r="E25" s="40" t="n">
+      <c r="E25" s="38" t="n">
         <v>18</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="G25" s="22" t="n">
+      <c r="G25" s="20" t="n">
         <v>97</v>
       </c>
-      <c r="H25" s="22" t="n">
+      <c r="H25" s="20" t="n">
         <v>1.29475</v>
       </c>
-      <c r="I25" s="40" t="n">
+      <c r="I25" s="38" t="n">
         <v>18</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="K25" s="22" t="n">
+      <c r="K25" s="20" t="n">
         <v>195</v>
       </c>
-      <c r="L25" s="22" t="n">
+      <c r="L25" s="20" t="n">
         <v>1.26977</v>
       </c>
-      <c r="M25" s="40" t="n">
+      <c r="M25" s="38" t="n">
         <v>18</v>
       </c>
-      <c r="N25" s="39" t="s">
+      <c r="N25" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="O25" s="22" t="n">
+      <c r="O25" s="20" t="n">
         <v>134</v>
       </c>
-      <c r="P25" s="22" t="n">
+      <c r="P25" s="20" t="n">
         <v>1.59562</v>
       </c>
-      <c r="Q25" s="40" t="n">
+      <c r="Q25" s="38" t="n">
         <v>18</v>
       </c>
-      <c r="R25" s="39" t="s">
+      <c r="R25" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="S25" s="22" t="n">
+      <c r="S25" s="20" t="n">
         <v>31</v>
       </c>
-      <c r="T25" s="22" t="n">
+      <c r="T25" s="20" t="n">
         <v>1.12051</v>
       </c>
-      <c r="U25" s="38" t="n">
+      <c r="U25" s="36" t="n">
         <v>18</v>
       </c>
-      <c r="V25" s="41" t="s">
+      <c r="V25" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="W25" s="42" t="n">
+      <c r="W25" s="40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38" t="n">
+      <c r="A26" s="36" t="n">
         <v>19</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="22" t="n">
+      <c r="C26" s="20" t="n">
         <v>65</v>
       </c>
-      <c r="D26" s="22" t="n">
+      <c r="D26" s="20" t="n">
         <v>1.04352</v>
       </c>
-      <c r="E26" s="40" t="n">
+      <c r="E26" s="38" t="n">
         <v>19</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="G26" s="22" t="n">
+      <c r="G26" s="20" t="n">
         <v>164</v>
       </c>
-      <c r="H26" s="22" t="n">
+      <c r="H26" s="20" t="n">
         <v>1.51605</v>
       </c>
-      <c r="I26" s="40" t="n">
+      <c r="I26" s="38" t="n">
         <v>19</v>
       </c>
-      <c r="J26" s="39" t="s">
+      <c r="J26" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="K26" s="22" t="n">
+      <c r="K26" s="20" t="n">
         <v>194</v>
       </c>
-      <c r="L26" s="22" t="n">
+      <c r="L26" s="20" t="n">
         <v>1.64114</v>
       </c>
       <c r="N26" s="0"/>
-      <c r="O26" s="43" t="n">
+      <c r="O26" s="41" t="n">
         <f aca="false">AVERAGE(O7:O25)</f>
         <v>119.421052631579</v>
       </c>
-      <c r="Q26" s="40" t="n">
+      <c r="Q26" s="38" t="n">
         <v>19</v>
       </c>
-      <c r="R26" s="39" t="s">
+      <c r="R26" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="S26" s="22" t="n">
+      <c r="S26" s="20" t="n">
         <v>153</v>
       </c>
-      <c r="T26" s="22" t="n">
+      <c r="T26" s="20" t="n">
         <v>1.67195</v>
       </c>
-      <c r="U26" s="38" t="n">
+      <c r="U26" s="36" t="n">
         <v>19</v>
       </c>
-      <c r="V26" s="41" t="s">
+      <c r="V26" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="W26" s="42" t="n">
+      <c r="W26" s="40" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="38" t="n">
+      <c r="A27" s="36" t="n">
         <v>20</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="22" t="n">
+      <c r="C27" s="20" t="n">
         <v>57</v>
       </c>
-      <c r="D27" s="22" t="n">
+      <c r="D27" s="20" t="n">
         <v>1.00622</v>
       </c>
-      <c r="E27" s="40" t="n">
+      <c r="E27" s="38" t="n">
         <v>20</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="G27" s="22" t="n">
+      <c r="G27" s="20" t="n">
         <v>187</v>
       </c>
-      <c r="H27" s="22" t="n">
+      <c r="H27" s="20" t="n">
         <v>0.938106</v>
       </c>
-      <c r="I27" s="40" t="n">
+      <c r="I27" s="38" t="n">
         <v>20</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="J27" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="K27" s="22" t="n">
+      <c r="K27" s="20" t="n">
         <v>165</v>
       </c>
-      <c r="L27" s="22" t="n">
+      <c r="L27" s="20" t="n">
         <v>1.13932</v>
       </c>
       <c r="N27" s="0"/>
-      <c r="Q27" s="40" t="n">
+      <c r="Q27" s="38" t="n">
         <v>20</v>
       </c>
-      <c r="R27" s="39" t="s">
+      <c r="R27" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="S27" s="22" t="n">
+      <c r="S27" s="20" t="n">
         <v>54</v>
       </c>
-      <c r="T27" s="22" t="n">
+      <c r="T27" s="20" t="n">
         <v>1.05845</v>
       </c>
-      <c r="U27" s="38" t="n">
+      <c r="U27" s="36" t="n">
         <v>20</v>
       </c>
-      <c r="V27" s="41" t="s">
+      <c r="V27" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="W27" s="42" t="n">
+      <c r="W27" s="40" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="38" t="n">
+      <c r="A28" s="36" t="n">
         <v>21</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="22" t="n">
+      <c r="C28" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="D28" s="22" t="n">
+      <c r="D28" s="20" t="n">
         <v>1.89097</v>
       </c>
-      <c r="E28" s="40" t="n">
+      <c r="E28" s="38" t="n">
         <v>21</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="G28" s="22" t="n">
+      <c r="G28" s="20" t="n">
         <v>167</v>
       </c>
-      <c r="H28" s="22" t="n">
+      <c r="H28" s="20" t="n">
         <v>1.45215</v>
       </c>
       <c r="J28" s="0"/>
-      <c r="K28" s="43" t="n">
+      <c r="K28" s="41" t="n">
         <f aca="false">AVERAGE(K7:K27)</f>
         <v>110.142857142857</v>
       </c>
       <c r="N28" s="0"/>
-      <c r="Q28" s="40" t="n">
+      <c r="Q28" s="38" t="n">
         <v>21</v>
       </c>
-      <c r="R28" s="39" t="s">
+      <c r="R28" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="S28" s="22" t="n">
+      <c r="S28" s="20" t="n">
         <v>75</v>
       </c>
-      <c r="T28" s="22" t="n">
+      <c r="T28" s="20" t="n">
         <v>1.46931</v>
       </c>
-      <c r="U28" s="38" t="n">
+      <c r="U28" s="36" t="n">
         <v>21</v>
       </c>
-      <c r="V28" s="41" t="s">
+      <c r="V28" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="W28" s="42" t="n">
+      <c r="W28" s="40" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="38" t="n">
+      <c r="A29" s="36" t="n">
         <v>22</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="22" t="n">
+      <c r="C29" s="20" t="n">
         <v>48</v>
       </c>
-      <c r="D29" s="22" t="n">
+      <c r="D29" s="20" t="n">
         <v>1.35927</v>
       </c>
-      <c r="E29" s="40" t="n">
+      <c r="E29" s="38" t="n">
         <v>22</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="G29" s="22" t="n">
+      <c r="G29" s="20" t="n">
         <v>133</v>
       </c>
-      <c r="H29" s="22" t="n">
+      <c r="H29" s="20" t="n">
         <v>0.985925</v>
       </c>
       <c r="J29" s="0"/>
       <c r="N29" s="0"/>
-      <c r="Q29" s="40" t="n">
+      <c r="Q29" s="38" t="n">
         <v>22</v>
       </c>
-      <c r="R29" s="39" t="s">
+      <c r="R29" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="S29" s="22" t="n">
+      <c r="S29" s="20" t="n">
         <v>119</v>
       </c>
-      <c r="T29" s="22" t="n">
+      <c r="T29" s="20" t="n">
         <v>1.17197</v>
       </c>
-      <c r="U29" s="38" t="n">
+      <c r="U29" s="36" t="n">
         <v>22</v>
       </c>
-      <c r="V29" s="41" t="s">
+      <c r="V29" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="W29" s="42" t="n">
+      <c r="W29" s="40" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="38" t="n">
+      <c r="A30" s="36" t="n">
         <v>23</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="22" t="n">
+      <c r="C30" s="20" t="n">
         <v>36</v>
       </c>
-      <c r="D30" s="22" t="n">
+      <c r="D30" s="20" t="n">
         <v>1.08812</v>
       </c>
       <c r="F30" s="0"/>
-      <c r="G30" s="43" t="n">
+      <c r="G30" s="41" t="n">
         <f aca="false">AVERAGE(G7:G29)</f>
         <v>102.260869565217</v>
       </c>
       <c r="J30" s="0"/>
       <c r="N30" s="0"/>
-      <c r="Q30" s="40" t="n">
+      <c r="Q30" s="38" t="n">
         <v>23</v>
       </c>
-      <c r="R30" s="39" t="s">
+      <c r="R30" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="S30" s="22" t="n">
+      <c r="S30" s="20" t="n">
         <v>308</v>
       </c>
-      <c r="T30" s="22" t="n">
+      <c r="T30" s="20" t="n">
         <v>0.943035</v>
       </c>
-      <c r="U30" s="38" t="n">
+      <c r="U30" s="36" t="n">
         <v>23</v>
       </c>
-      <c r="V30" s="41" t="s">
+      <c r="V30" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="W30" s="42" t="n">
+      <c r="W30" s="40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="38" t="n">
+      <c r="A31" s="36" t="n">
         <v>24</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="C31" s="22" t="n">
+      <c r="C31" s="20" t="n">
         <v>194</v>
       </c>
-      <c r="D31" s="22" t="n">
+      <c r="D31" s="20" t="n">
         <v>1.63572</v>
       </c>
-      <c r="F31" s="22" t="n">
+      <c r="F31" s="20" t="n">
         <f aca="false">COUNTIF(F7:F29,"?")/COUNTA(F7:F29)</f>
         <v>0.0869565217391304</v>
       </c>
-      <c r="J31" s="22" t="n">
+      <c r="J31" s="20" t="n">
         <f aca="false">COUNTIF(J7:J27,"?")/COUNTA(J7:J27)</f>
         <v>0.19047619047619</v>
       </c>
-      <c r="N31" s="22" t="n">
+      <c r="N31" s="20" t="n">
         <f aca="false">COUNTIF(N7:N25,"?")/COUNTA(N7:N25)</f>
         <v>0.263157894736842</v>
       </c>
-      <c r="Q31" s="40" t="n">
+      <c r="Q31" s="38" t="n">
         <v>24</v>
       </c>
-      <c r="R31" s="39" t="s">
+      <c r="R31" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="S31" s="22" t="n">
+      <c r="S31" s="20" t="n">
         <v>77</v>
       </c>
-      <c r="T31" s="22" t="n">
+      <c r="T31" s="20" t="n">
         <v>1.40944</v>
       </c>
-      <c r="U31" s="38" t="n">
+      <c r="U31" s="36" t="n">
         <v>24</v>
       </c>
-      <c r="V31" s="41" t="s">
+      <c r="V31" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="W31" s="42" t="n">
+      <c r="W31" s="40" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="38" t="n">
+      <c r="A32" s="36" t="n">
         <v>25</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C32" s="22" t="n">
+      <c r="C32" s="20" t="n">
         <v>178</v>
       </c>
-      <c r="D32" s="22" t="n">
+      <c r="D32" s="20" t="n">
         <v>1.13628</v>
       </c>
-      <c r="F32" s="44" t="n">
+      <c r="F32" s="42" t="n">
         <f aca="false">(COUNTIF(F7:F29,"&lt;&gt;?")/COUNTA(F7:F29))*100</f>
         <v>91.304347826087</v>
       </c>
-      <c r="J32" s="44" t="n">
+      <c r="J32" s="42" t="n">
         <f aca="false">(COUNTIF(J7:J27,"&lt;&gt;?")/COUNTA(J7:J27))*100</f>
         <v>80.952380952381</v>
       </c>
-      <c r="N32" s="44" t="n">
+      <c r="N32" s="42" t="n">
         <f aca="false">(COUNTIF(N7:N25,"&lt;&gt;?")/COUNTA(N7:N25))*100</f>
         <v>73.6842105263158</v>
       </c>
       <c r="R32" s="0"/>
-      <c r="S32" s="43" t="n">
+      <c r="S32" s="41" t="n">
         <f aca="false">AVERAGE(S7:S31)</f>
         <v>90.92</v>
       </c>
-      <c r="U32" s="38" t="n">
+      <c r="U32" s="36" t="n">
         <v>25</v>
       </c>
-      <c r="V32" s="41" t="s">
+      <c r="V32" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="W32" s="42" t="n">
+      <c r="W32" s="40" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="38" t="n">
+      <c r="A33" s="36" t="n">
         <v>26</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="22" t="n">
+      <c r="C33" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="D33" s="22" t="n">
+      <c r="D33" s="20" t="n">
         <v>1.56778</v>
       </c>
-      <c r="R33" s="22" t="n">
+      <c r="R33" s="20" t="n">
         <f aca="false">COUNTIF(R7:R31,"?")/COUNTA(R7:R31)</f>
         <v>0.2</v>
       </c>
-      <c r="U33" s="38" t="n">
+      <c r="U33" s="36" t="n">
         <v>26</v>
       </c>
-      <c r="V33" s="41" t="s">
+      <c r="V33" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="W33" s="22" t="n">
+      <c r="W33" s="20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38" t="n">
+      <c r="A34" s="36" t="n">
         <v>27</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C34" s="22" t="n">
+      <c r="C34" s="20" t="n">
         <v>99</v>
       </c>
-      <c r="D34" s="22" t="n">
+      <c r="D34" s="20" t="n">
         <v>1.45323</v>
       </c>
-      <c r="R34" s="44" t="n">
+      <c r="R34" s="42" t="n">
         <f aca="false">(COUNTIF(R7:R31,"&lt;&gt;?")/COUNTA(R7:R31))*100</f>
         <v>80</v>
       </c>
-      <c r="U34" s="38" t="n">
+      <c r="U34" s="36" t="n">
         <v>27</v>
       </c>
-      <c r="V34" s="41" t="s">
+      <c r="V34" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="W34" s="22" t="n">
+      <c r="W34" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
-      <c r="C35" s="43" t="n">
+      <c r="C35" s="41" t="n">
         <f aca="false">AVERAGE(C7:C34)</f>
         <v>79.6428571428571</v>
       </c>
       <c r="D35" s="0"/>
-      <c r="U35" s="38" t="n">
+      <c r="U35" s="36" t="n">
         <v>28</v>
       </c>
-      <c r="V35" s="41" t="s">
+      <c r="V35" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="W35" s="22" t="n">
+      <c r="W35" s="20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="22" t="n">
+      <c r="B36" s="20" t="n">
         <f aca="false">COUNTIF(B7:B34,"?")/COUNTA(B7:B34)</f>
         <v>0.214285714285714</v>
       </c>
       <c r="D36" s="0"/>
-      <c r="U36" s="38" t="n">
+      <c r="U36" s="36" t="n">
         <v>29</v>
       </c>
-      <c r="V36" s="41" t="s">
+      <c r="V36" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="W36" s="22" t="n">
+      <c r="W36" s="20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="44" t="n">
+      <c r="B37" s="42" t="n">
         <f aca="false">(COUNTIF(B7:B34,"&lt;&gt;?")/COUNTA(B7:B34))*100</f>
         <v>78.5714285714286</v>
       </c>
-      <c r="D37" s="22" t="n">
+      <c r="D37" s="20" t="n">
         <f aca="false">COUNT(A7:A34,E7:E29,I7:I27,M7:M25,Q7:Q31)</f>
         <v>116</v>
       </c>
-      <c r="U37" s="38" t="n">
+      <c r="U37" s="36" t="n">
         <v>30</v>
       </c>
-      <c r="V37" s="41" t="s">
+      <c r="V37" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="W37" s="22" t="n">
+      <c r="W37" s="20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U38" s="38" t="n">
+      <c r="U38" s="36" t="n">
         <v>31</v>
       </c>
-      <c r="V38" s="41" t="s">
+      <c r="V38" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="W38" s="22" t="n">
+      <c r="W38" s="20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U39" s="38" t="n">
+      <c r="U39" s="36" t="n">
         <v>32</v>
       </c>
-      <c r="V39" s="41" t="s">
+      <c r="V39" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="W39" s="22" t="n">
+      <c r="W39" s="20" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U40" s="38" t="n">
+      <c r="U40" s="36" t="n">
         <v>33</v>
       </c>
-      <c r="V40" s="41" t="s">
+      <c r="V40" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="W40" s="22" t="n">
+      <c r="W40" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U41" s="38" t="n">
+      <c r="U41" s="36" t="n">
         <v>34</v>
       </c>
-      <c r="V41" s="41" t="s">
+      <c r="V41" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="W41" s="22" t="n">
+      <c r="W41" s="20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U42" s="38" t="n">
+      <c r="U42" s="36" t="n">
         <v>35</v>
       </c>
-      <c r="V42" s="41" t="s">
+      <c r="V42" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="W42" s="22" t="n">
+      <c r="W42" s="20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U43" s="38" t="n">
+      <c r="U43" s="36" t="n">
         <v>36</v>
       </c>
-      <c r="V43" s="41"/>
-      <c r="W43" s="22" t="n">
+      <c r="V43" s="39"/>
+      <c r="W43" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U44" s="38" t="n">
+      <c r="U44" s="36" t="n">
         <v>37</v>
       </c>
-      <c r="V44" s="41"/>
-      <c r="W44" s="22" t="n">
+      <c r="V44" s="39"/>
+      <c r="W44" s="20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U45" s="38" t="n">
+      <c r="U45" s="36" t="n">
         <v>38</v>
       </c>
-      <c r="V45" s="41"/>
-      <c r="W45" s="22" t="n">
+      <c r="V45" s="39"/>
+      <c r="W45" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U46" s="38" t="n">
+      <c r="U46" s="36" t="n">
         <v>39</v>
       </c>
-      <c r="V46" s="41"/>
-      <c r="W46" s="22" t="n">
+      <c r="V46" s="39"/>
+      <c r="W46" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U47" s="38" t="n">
+      <c r="U47" s="36" t="n">
         <v>40</v>
       </c>
-      <c r="V47" s="41"/>
-      <c r="W47" s="22" t="n">
+      <c r="V47" s="39"/>
+      <c r="W47" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U48" s="38" t="n">
+      <c r="U48" s="36" t="n">
         <v>41</v>
       </c>
-      <c r="V48" s="41"/>
-      <c r="W48" s="22" t="n">
+      <c r="V48" s="39"/>
+      <c r="W48" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U49" s="38" t="n">
+      <c r="U49" s="36" t="n">
         <v>42</v>
       </c>
-      <c r="V49" s="41"/>
-      <c r="W49" s="22" t="n">
+      <c r="V49" s="39"/>
+      <c r="W49" s="20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U50" s="38" t="n">
+      <c r="U50" s="36" t="n">
         <v>43</v>
       </c>
-      <c r="V50" s="41"/>
-      <c r="W50" s="22" t="n">
+      <c r="V50" s="39"/>
+      <c r="W50" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U51" s="38" t="n">
+      <c r="U51" s="36" t="n">
         <v>44</v>
       </c>
-      <c r="V51" s="41"/>
-      <c r="W51" s="22" t="n">
+      <c r="V51" s="39"/>
+      <c r="W51" s="20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U52" s="38" t="n">
+      <c r="U52" s="36" t="n">
         <v>45</v>
       </c>
-      <c r="V52" s="41"/>
-      <c r="W52" s="22" t="n">
+      <c r="V52" s="39"/>
+      <c r="W52" s="20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U53" s="38" t="n">
+      <c r="U53" s="36" t="n">
         <v>46</v>
       </c>
-      <c r="V53" s="41"/>
-      <c r="W53" s="22" t="n">
+      <c r="V53" s="39"/>
+      <c r="W53" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U54" s="38" t="n">
+      <c r="U54" s="36" t="n">
         <v>47</v>
       </c>
-      <c r="V54" s="41"/>
-      <c r="W54" s="22" t="n">
+      <c r="V54" s="39"/>
+      <c r="W54" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U55" s="38" t="n">
+      <c r="U55" s="36" t="n">
         <v>48</v>
       </c>
-      <c r="V55" s="41"/>
-      <c r="W55" s="22" t="n">
+      <c r="V55" s="39"/>
+      <c r="W55" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U56" s="38" t="n">
+      <c r="U56" s="36" t="n">
         <v>49</v>
       </c>
-      <c r="V56" s="41"/>
-      <c r="W56" s="22" t="n">
+      <c r="V56" s="39"/>
+      <c r="W56" s="20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U57" s="38" t="n">
+      <c r="U57" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="V57" s="41"/>
-      <c r="W57" s="22" t="n">
+      <c r="V57" s="39"/>
+      <c r="W57" s="20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U58" s="38" t="n">
+      <c r="U58" s="36" t="n">
         <v>51</v>
       </c>
-      <c r="V58" s="41"/>
-      <c r="W58" s="22" t="n">
+      <c r="V58" s="39"/>
+      <c r="W58" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U59" s="38" t="n">
+      <c r="U59" s="36" t="n">
         <v>52</v>
       </c>
-      <c r="V59" s="41"/>
-      <c r="W59" s="22" t="n">
+      <c r="V59" s="39"/>
+      <c r="W59" s="20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U60" s="38" t="n">
+      <c r="U60" s="36" t="n">
         <v>53</v>
       </c>
-      <c r="V60" s="41"/>
-      <c r="W60" s="22" t="n">
+      <c r="V60" s="39"/>
+      <c r="W60" s="20" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U61" s="38" t="n">
+      <c r="U61" s="36" t="n">
         <v>54</v>
       </c>
-      <c r="V61" s="41"/>
-      <c r="W61" s="22" t="n">
+      <c r="V61" s="39"/>
+      <c r="W61" s="20" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U62" s="38" t="n">
+      <c r="U62" s="36" t="n">
         <v>55</v>
       </c>
-      <c r="V62" s="41"/>
-      <c r="W62" s="22" t="n">
+      <c r="V62" s="39"/>
+      <c r="W62" s="20" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U63" s="38" t="n">
+      <c r="U63" s="36" t="n">
         <v>56</v>
       </c>
-      <c r="V63" s="41"/>
-      <c r="W63" s="22" t="n">
+      <c r="V63" s="39"/>
+      <c r="W63" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U64" s="38" t="n">
+      <c r="U64" s="36" t="n">
         <v>57</v>
       </c>
-      <c r="V64" s="41"/>
-      <c r="W64" s="22" t="n">
+      <c r="V64" s="39"/>
+      <c r="W64" s="20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U65" s="38" t="n">
+      <c r="U65" s="36" t="n">
         <v>58</v>
       </c>
-      <c r="V65" s="41"/>
-      <c r="W65" s="22" t="n">
+      <c r="V65" s="39"/>
+      <c r="W65" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U66" s="38" t="n">
+      <c r="U66" s="36" t="n">
         <v>59</v>
       </c>
-      <c r="V66" s="41"/>
-      <c r="W66" s="22" t="n">
+      <c r="V66" s="39"/>
+      <c r="W66" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U67" s="38" t="n">
+      <c r="U67" s="36" t="n">
         <v>60</v>
       </c>
-      <c r="V67" s="41"/>
-      <c r="W67" s="22" t="n">
+      <c r="V67" s="39"/>
+      <c r="W67" s="20" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U68" s="38" t="n">
+      <c r="U68" s="36" t="n">
         <v>61</v>
       </c>
-      <c r="V68" s="41"/>
-      <c r="W68" s="22" t="n">
+      <c r="V68" s="39"/>
+      <c r="W68" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U69" s="38" t="n">
+      <c r="U69" s="36" t="n">
         <v>62</v>
       </c>
-      <c r="V69" s="41"/>
-      <c r="W69" s="22" t="n">
+      <c r="V69" s="39"/>
+      <c r="W69" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U70" s="38" t="n">
+      <c r="U70" s="36" t="n">
         <v>63</v>
       </c>
-      <c r="V70" s="41"/>
-      <c r="W70" s="22" t="n">
+      <c r="V70" s="39"/>
+      <c r="W70" s="20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U71" s="38" t="n">
+      <c r="U71" s="36" t="n">
         <v>64</v>
       </c>
-      <c r="V71" s="41"/>
-      <c r="W71" s="22" t="n">
+      <c r="V71" s="39"/>
+      <c r="W71" s="20" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U72" s="38" t="n">
+      <c r="U72" s="36" t="n">
         <v>65</v>
       </c>
-      <c r="V72" s="41"/>
-      <c r="W72" s="22" t="n">
+      <c r="V72" s="39"/>
+      <c r="W72" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U73" s="38" t="n">
+      <c r="U73" s="36" t="n">
         <v>66</v>
       </c>
-      <c r="V73" s="41"/>
-      <c r="W73" s="22" t="n">
+      <c r="V73" s="39"/>
+      <c r="W73" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U74" s="38" t="n">
+      <c r="U74" s="36" t="n">
         <v>67</v>
       </c>
-      <c r="V74" s="41"/>
-      <c r="W74" s="22" t="n">
+      <c r="V74" s="39"/>
+      <c r="W74" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U75" s="38" t="n">
+      <c r="U75" s="36" t="n">
         <v>68</v>
       </c>
-      <c r="V75" s="41"/>
-      <c r="W75" s="22" t="n">
+      <c r="V75" s="39"/>
+      <c r="W75" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U76" s="38" t="n">
+      <c r="U76" s="36" t="n">
         <v>69</v>
       </c>
-      <c r="V76" s="41"/>
-      <c r="W76" s="22" t="n">
+      <c r="V76" s="39"/>
+      <c r="W76" s="20" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U77" s="38" t="n">
+      <c r="U77" s="36" t="n">
         <v>70</v>
       </c>
-      <c r="V77" s="41"/>
-      <c r="W77" s="22" t="n">
+      <c r="V77" s="39"/>
+      <c r="W77" s="20" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U78" s="38" t="n">
+      <c r="U78" s="36" t="n">
         <v>71</v>
       </c>
-      <c r="V78" s="41"/>
-      <c r="W78" s="22" t="n">
+      <c r="V78" s="39"/>
+      <c r="W78" s="20" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U79" s="38" t="n">
+      <c r="U79" s="36" t="n">
         <v>72</v>
       </c>
-      <c r="V79" s="41"/>
-      <c r="W79" s="22" t="n">
+      <c r="V79" s="39"/>
+      <c r="W79" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U80" s="38" t="n">
+      <c r="U80" s="36" t="n">
         <v>73</v>
       </c>
-      <c r="V80" s="41"/>
-      <c r="W80" s="22" t="n">
+      <c r="V80" s="39"/>
+      <c r="W80" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U81" s="38" t="n">
+      <c r="U81" s="36" t="n">
         <v>74</v>
       </c>
-      <c r="V81" s="41"/>
-      <c r="W81" s="22" t="n">
+      <c r="V81" s="39"/>
+      <c r="W81" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U82" s="38" t="n">
+      <c r="U82" s="36" t="n">
         <v>75</v>
       </c>
-      <c r="V82" s="41"/>
-      <c r="W82" s="22" t="n">
+      <c r="V82" s="39"/>
+      <c r="W82" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U83" s="38" t="n">
+      <c r="U83" s="36" t="n">
         <v>76</v>
       </c>
-      <c r="V83" s="41"/>
-      <c r="W83" s="22" t="n">
+      <c r="V83" s="39"/>
+      <c r="W83" s="20" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U84" s="38" t="n">
+      <c r="U84" s="36" t="n">
         <v>77</v>
       </c>
-      <c r="V84" s="41"/>
-      <c r="W84" s="22" t="n">
+      <c r="V84" s="39"/>
+      <c r="W84" s="20" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U85" s="38" t="n">
+      <c r="U85" s="36" t="n">
         <v>78</v>
       </c>
-      <c r="V85" s="41"/>
-      <c r="W85" s="22" t="n">
+      <c r="V85" s="39"/>
+      <c r="W85" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U86" s="38" t="n">
+      <c r="U86" s="36" t="n">
         <v>79</v>
       </c>
-      <c r="V86" s="41"/>
-      <c r="W86" s="22" t="n">
+      <c r="V86" s="39"/>
+      <c r="W86" s="20" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U87" s="38" t="n">
+      <c r="U87" s="36" t="n">
         <v>80</v>
       </c>
-      <c r="V87" s="41"/>
-      <c r="W87" s="22" t="n">
+      <c r="V87" s="39"/>
+      <c r="W87" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U88" s="38" t="n">
+      <c r="U88" s="36" t="n">
         <v>81</v>
       </c>
-      <c r="V88" s="41"/>
-      <c r="W88" s="22" t="n">
+      <c r="V88" s="39"/>
+      <c r="W88" s="20" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U89" s="38" t="n">
+      <c r="U89" s="36" t="n">
         <v>82</v>
       </c>
-      <c r="V89" s="41"/>
-      <c r="W89" s="22" t="n">
+      <c r="V89" s="39"/>
+      <c r="W89" s="20" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U90" s="38" t="n">
+      <c r="U90" s="36" t="n">
         <v>83</v>
       </c>
-      <c r="V90" s="41"/>
-      <c r="W90" s="22" t="n">
+      <c r="V90" s="39"/>
+      <c r="W90" s="20" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U91" s="38" t="n">
+      <c r="U91" s="36" t="n">
         <v>84</v>
       </c>
-      <c r="V91" s="41"/>
-      <c r="W91" s="22" t="n">
+      <c r="V91" s="39"/>
+      <c r="W91" s="20" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U92" s="38" t="n">
+      <c r="U92" s="36" t="n">
         <v>85</v>
       </c>
-      <c r="V92" s="41"/>
-      <c r="W92" s="22" t="n">
+      <c r="V92" s="39"/>
+      <c r="W92" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U93" s="38" t="n">
+      <c r="U93" s="36" t="n">
         <v>86</v>
       </c>
-      <c r="V93" s="41"/>
-      <c r="W93" s="22" t="n">
+      <c r="V93" s="39"/>
+      <c r="W93" s="20" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U94" s="38" t="n">
+      <c r="U94" s="36" t="n">
         <v>87</v>
       </c>
-      <c r="V94" s="41"/>
-      <c r="W94" s="22" t="n">
+      <c r="V94" s="39"/>
+      <c r="W94" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U95" s="38" t="n">
+      <c r="U95" s="36" t="n">
         <v>88</v>
       </c>
-      <c r="V95" s="41"/>
-      <c r="W95" s="22" t="n">
+      <c r="V95" s="39"/>
+      <c r="W95" s="20" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U96" s="38" t="n">
+      <c r="U96" s="36" t="n">
         <v>89</v>
       </c>
-      <c r="V96" s="41"/>
-      <c r="W96" s="22" t="n">
+      <c r="V96" s="39"/>
+      <c r="W96" s="20" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U97" s="38" t="n">
+      <c r="U97" s="36" t="n">
         <v>90</v>
       </c>
-      <c r="V97" s="41"/>
-      <c r="W97" s="22" t="n">
+      <c r="V97" s="39"/>
+      <c r="W97" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U98" s="38" t="n">
+      <c r="U98" s="36" t="n">
         <v>91</v>
       </c>
-      <c r="V98" s="41"/>
-      <c r="W98" s="22" t="n">
+      <c r="V98" s="39"/>
+      <c r="W98" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U99" s="38" t="n">
+      <c r="U99" s="36" t="n">
         <v>92</v>
       </c>
-      <c r="V99" s="41"/>
-      <c r="W99" s="22" t="n">
+      <c r="V99" s="39"/>
+      <c r="W99" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U100" s="38" t="n">
+      <c r="U100" s="36" t="n">
         <v>93</v>
       </c>
-      <c r="V100" s="41"/>
-      <c r="W100" s="22" t="n">
+      <c r="V100" s="39"/>
+      <c r="W100" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U101" s="38" t="n">
+      <c r="U101" s="36" t="n">
         <v>94</v>
       </c>
-      <c r="V101" s="41"/>
-      <c r="W101" s="22" t="n">
+      <c r="V101" s="39"/>
+      <c r="W101" s="20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U102" s="38" t="n">
+      <c r="U102" s="36" t="n">
         <v>95</v>
       </c>
-      <c r="V102" s="41"/>
-      <c r="W102" s="22" t="n">
+      <c r="V102" s="39"/>
+      <c r="W102" s="20" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U103" s="38" t="n">
+      <c r="U103" s="36" t="n">
         <v>96</v>
       </c>
-      <c r="V103" s="41"/>
-      <c r="W103" s="22" t="n">
+      <c r="V103" s="39"/>
+      <c r="W103" s="20" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U104" s="38" t="n">
+      <c r="U104" s="36" t="n">
         <v>97</v>
       </c>
-      <c r="V104" s="41"/>
-      <c r="W104" s="22" t="n">
+      <c r="V104" s="39"/>
+      <c r="W104" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U105" s="38" t="n">
+      <c r="U105" s="36" t="n">
         <v>98</v>
       </c>
-      <c r="V105" s="41"/>
-      <c r="W105" s="22" t="n">
+      <c r="V105" s="39"/>
+      <c r="W105" s="20" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U106" s="38" t="n">
+      <c r="U106" s="36" t="n">
         <v>99</v>
       </c>
-      <c r="V106" s="41"/>
-      <c r="W106" s="22" t="n">
+      <c r="V106" s="39"/>
+      <c r="W106" s="20" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U107" s="38" t="n">
+      <c r="U107" s="36" t="n">
         <v>100</v>
       </c>
-      <c r="V107" s="41"/>
-      <c r="W107" s="22" t="n">
+      <c r="V107" s="39"/>
+      <c r="W107" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U108" s="38" t="n">
+      <c r="U108" s="36" t="n">
         <v>101</v>
       </c>
-      <c r="V108" s="41"/>
-      <c r="W108" s="22" t="n">
+      <c r="V108" s="39"/>
+      <c r="W108" s="20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U109" s="38" t="n">
+      <c r="U109" s="36" t="n">
         <v>102</v>
       </c>
-      <c r="V109" s="41"/>
-      <c r="W109" s="22" t="n">
+      <c r="V109" s="39"/>
+      <c r="W109" s="20" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U110" s="38" t="n">
+      <c r="U110" s="36" t="n">
         <v>103</v>
       </c>
-      <c r="V110" s="41"/>
-      <c r="W110" s="22" t="n">
+      <c r="V110" s="39"/>
+      <c r="W110" s="20" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U111" s="38" t="n">
+      <c r="U111" s="36" t="n">
         <v>104</v>
       </c>
-      <c r="V111" s="41"/>
-      <c r="W111" s="22" t="n">
+      <c r="V111" s="39"/>
+      <c r="W111" s="20" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U112" s="38" t="n">
+      <c r="U112" s="36" t="n">
         <v>105</v>
       </c>
-      <c r="V112" s="41"/>
-      <c r="W112" s="22" t="n">
+      <c r="V112" s="39"/>
+      <c r="W112" s="20" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U113" s="38" t="n">
+      <c r="U113" s="36" t="n">
         <v>106</v>
       </c>
-      <c r="V113" s="41"/>
-      <c r="W113" s="22" t="n">
+      <c r="V113" s="39"/>
+      <c r="W113" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U114" s="38" t="n">
+      <c r="U114" s="36" t="n">
         <v>107</v>
       </c>
-      <c r="V114" s="41"/>
-      <c r="W114" s="22" t="n">
+      <c r="V114" s="39"/>
+      <c r="W114" s="20" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U115" s="38" t="n">
+      <c r="U115" s="36" t="n">
         <v>108</v>
       </c>
-      <c r="V115" s="41"/>
-      <c r="W115" s="22" t="n">
+      <c r="V115" s="39"/>
+      <c r="W115" s="20" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U116" s="38" t="n">
+      <c r="U116" s="36" t="n">
         <v>109</v>
       </c>
-      <c r="V116" s="41"/>
-      <c r="W116" s="22" t="n">
+      <c r="V116" s="39"/>
+      <c r="W116" s="20" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U117" s="38" t="n">
+      <c r="U117" s="36" t="n">
         <v>110</v>
       </c>
-      <c r="V117" s="41"/>
-      <c r="W117" s="22" t="n">
+      <c r="V117" s="39"/>
+      <c r="W117" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U118" s="38" t="n">
+      <c r="U118" s="36" t="n">
         <v>111</v>
       </c>
-      <c r="V118" s="41"/>
-      <c r="W118" s="22" t="n">
+      <c r="V118" s="39"/>
+      <c r="W118" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U119" s="38" t="n">
+      <c r="U119" s="36" t="n">
         <v>112</v>
       </c>
-      <c r="V119" s="41"/>
-      <c r="W119" s="22" t="n">
+      <c r="V119" s="39"/>
+      <c r="W119" s="20" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U120" s="38" t="n">
+      <c r="U120" s="36" t="n">
         <v>113</v>
       </c>
-      <c r="V120" s="41"/>
-      <c r="W120" s="22" t="n">
+      <c r="V120" s="39"/>
+      <c r="W120" s="20" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U121" s="38" t="n">
+      <c r="U121" s="36" t="n">
         <v>114</v>
       </c>
-      <c r="V121" s="41"/>
-      <c r="W121" s="22" t="n">
+      <c r="V121" s="39"/>
+      <c r="W121" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U122" s="38" t="n">
+      <c r="U122" s="36" t="n">
         <v>115</v>
       </c>
-      <c r="V122" s="41"/>
-      <c r="W122" s="22" t="n">
+      <c r="V122" s="39"/>
+      <c r="W122" s="20" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U123" s="38" t="n">
+      <c r="U123" s="36" t="n">
         <v>116</v>
       </c>
-      <c r="V123" s="41"/>
-      <c r="W123" s="22" t="n">
+      <c r="V123" s="39"/>
+      <c r="W123" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U124" s="38" t="n">
+      <c r="U124" s="36" t="n">
         <v>117</v>
       </c>
-      <c r="V124" s="41"/>
-      <c r="W124" s="22" t="n">
+      <c r="V124" s="39"/>
+      <c r="W124" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U125" s="38" t="n">
+      <c r="U125" s="36" t="n">
         <v>118</v>
       </c>
-      <c r="V125" s="41"/>
-      <c r="W125" s="22" t="n">
+      <c r="V125" s="39"/>
+      <c r="W125" s="20" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U126" s="38" t="n">
+      <c r="U126" s="36" t="n">
         <v>119</v>
       </c>
-      <c r="V126" s="41"/>
-      <c r="W126" s="22" t="n">
+      <c r="V126" s="39"/>
+      <c r="W126" s="20" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U127" s="38" t="n">
+      <c r="U127" s="36" t="n">
         <v>120</v>
       </c>
-      <c r="V127" s="41"/>
-      <c r="W127" s="22" t="n">
+      <c r="V127" s="39"/>
+      <c r="W127" s="20" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U128" s="38" t="n">
+      <c r="U128" s="36" t="n">
         <v>121</v>
       </c>
-      <c r="V128" s="41"/>
-      <c r="W128" s="22" t="n">
+      <c r="V128" s="39"/>
+      <c r="W128" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U129" s="38" t="n">
+      <c r="U129" s="36" t="n">
         <v>122</v>
       </c>
-      <c r="V129" s="41"/>
-      <c r="W129" s="22" t="n">
+      <c r="V129" s="39"/>
+      <c r="W129" s="20" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U130" s="38" t="n">
+      <c r="U130" s="36" t="n">
         <v>123</v>
       </c>
-      <c r="V130" s="41"/>
-      <c r="W130" s="22" t="n">
+      <c r="V130" s="39"/>
+      <c r="W130" s="20" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U131" s="38" t="n">
+      <c r="U131" s="36" t="n">
         <v>124</v>
       </c>
-      <c r="V131" s="41"/>
-      <c r="W131" s="22" t="n">
+      <c r="V131" s="39"/>
+      <c r="W131" s="20" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U132" s="38" t="n">
+      <c r="U132" s="36" t="n">
         <v>125</v>
       </c>
-      <c r="V132" s="41"/>
-      <c r="W132" s="22" t="n">
+      <c r="V132" s="39"/>
+      <c r="W132" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U133" s="38" t="n">
+      <c r="U133" s="36" t="n">
         <v>126</v>
       </c>
-      <c r="V133" s="41"/>
-      <c r="W133" s="22" t="n">
+      <c r="V133" s="39"/>
+      <c r="W133" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U134" s="38" t="n">
+      <c r="U134" s="36" t="n">
         <v>127</v>
       </c>
-      <c r="V134" s="41"/>
-      <c r="W134" s="22" t="n">
+      <c r="V134" s="39"/>
+      <c r="W134" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U135" s="38" t="n">
+      <c r="U135" s="36" t="n">
         <v>128</v>
       </c>
-      <c r="V135" s="41"/>
-      <c r="W135" s="22" t="n">
+      <c r="V135" s="39"/>
+      <c r="W135" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U136" s="38" t="n">
+      <c r="U136" s="36" t="n">
         <v>129</v>
       </c>
-      <c r="V136" s="41"/>
-      <c r="W136" s="22" t="n">
+      <c r="V136" s="39"/>
+      <c r="W136" s="20" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U137" s="38" t="n">
+      <c r="U137" s="36" t="n">
         <v>130</v>
       </c>
-      <c r="V137" s="41"/>
-      <c r="W137" s="22" t="n">
+      <c r="V137" s="39"/>
+      <c r="W137" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U138" s="38" t="n">
+      <c r="U138" s="36" t="n">
         <v>131</v>
       </c>
-      <c r="V138" s="41"/>
-      <c r="W138" s="22" t="n">
+      <c r="V138" s="39"/>
+      <c r="W138" s="20" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U139" s="38" t="n">
+      <c r="U139" s="36" t="n">
         <v>132</v>
       </c>
-      <c r="V139" s="41"/>
-      <c r="W139" s="22" t="n">
+      <c r="V139" s="39"/>
+      <c r="W139" s="20" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U140" s="38" t="n">
+      <c r="U140" s="36" t="n">
         <v>133</v>
       </c>
-      <c r="V140" s="41"/>
-      <c r="W140" s="22" t="n">
+      <c r="V140" s="39"/>
+      <c r="W140" s="20" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U141" s="38" t="n">
+      <c r="U141" s="36" t="n">
         <v>134</v>
       </c>
-      <c r="V141" s="41"/>
-      <c r="W141" s="22" t="n">
+      <c r="V141" s="39"/>
+      <c r="W141" s="20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U142" s="38" t="n">
+      <c r="U142" s="36" t="n">
         <v>135</v>
       </c>
-      <c r="V142" s="41"/>
-      <c r="W142" s="22" t="n">
+      <c r="V142" s="39"/>
+      <c r="W142" s="20" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U143" s="38" t="n">
+      <c r="U143" s="36" t="n">
         <v>136</v>
       </c>
-      <c r="V143" s="41"/>
-      <c r="W143" s="22" t="n">
+      <c r="V143" s="39"/>
+      <c r="W143" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U144" s="38" t="n">
+      <c r="U144" s="36" t="n">
         <v>137</v>
       </c>
-      <c r="V144" s="41"/>
-      <c r="W144" s="22" t="n">
+      <c r="V144" s="39"/>
+      <c r="W144" s="20" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U145" s="38" t="n">
+      <c r="U145" s="36" t="n">
         <v>138</v>
       </c>
-      <c r="V145" s="41"/>
-      <c r="W145" s="22" t="n">
+      <c r="V145" s="39"/>
+      <c r="W145" s="20" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U146" s="38" t="n">
+      <c r="U146" s="36" t="n">
         <v>139</v>
       </c>
-      <c r="V146" s="41"/>
-      <c r="W146" s="22" t="n">
+      <c r="V146" s="39"/>
+      <c r="W146" s="20" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U147" s="38" t="n">
+      <c r="U147" s="36" t="n">
         <v>140</v>
       </c>
-      <c r="V147" s="41"/>
-      <c r="W147" s="22" t="n">
+      <c r="V147" s="39"/>
+      <c r="W147" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U148" s="38" t="n">
+      <c r="U148" s="36" t="n">
         <v>141</v>
       </c>
-      <c r="V148" s="41"/>
-      <c r="W148" s="22" t="n">
+      <c r="V148" s="39"/>
+      <c r="W148" s="20" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U149" s="38" t="n">
+      <c r="U149" s="36" t="n">
         <v>142</v>
       </c>
-      <c r="V149" s="41"/>
-      <c r="W149" s="22" t="n">
+      <c r="V149" s="39"/>
+      <c r="W149" s="20" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U150" s="38" t="n">
+      <c r="U150" s="36" t="n">
         <v>143</v>
       </c>
-      <c r="V150" s="41"/>
-      <c r="W150" s="22" t="n">
+      <c r="V150" s="39"/>
+      <c r="W150" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U151" s="38" t="n">
+      <c r="U151" s="36" t="n">
         <v>144</v>
       </c>
-      <c r="V151" s="41"/>
-      <c r="W151" s="22" t="n">
+      <c r="V151" s="39"/>
+      <c r="W151" s="20" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U152" s="38" t="n">
+      <c r="U152" s="36" t="n">
         <v>145</v>
       </c>
-      <c r="V152" s="41"/>
-      <c r="W152" s="22" t="n">
+      <c r="V152" s="39"/>
+      <c r="W152" s="20" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U153" s="38" t="n">
+      <c r="U153" s="36" t="n">
         <v>146</v>
       </c>
-      <c r="V153" s="41"/>
-      <c r="W153" s="22" t="n">
+      <c r="V153" s="39"/>
+      <c r="W153" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U154" s="38" t="n">
+      <c r="U154" s="36" t="n">
         <v>147</v>
       </c>
-      <c r="V154" s="41"/>
-      <c r="W154" s="22" t="n">
+      <c r="V154" s="39"/>
+      <c r="W154" s="20" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U155" s="38" t="n">
+      <c r="U155" s="36" t="n">
         <v>148</v>
       </c>
-      <c r="V155" s="41"/>
-      <c r="W155" s="22" t="n">
+      <c r="V155" s="39"/>
+      <c r="W155" s="20" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U156" s="38" t="n">
+      <c r="U156" s="36" t="n">
         <v>149</v>
       </c>
-      <c r="V156" s="41"/>
-      <c r="W156" s="22" t="n">
+      <c r="V156" s="39"/>
+      <c r="W156" s="20" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U157" s="38" t="n">
+      <c r="U157" s="36" t="n">
         <v>150</v>
       </c>
-      <c r="V157" s="41"/>
-      <c r="W157" s="22" t="n">
+      <c r="V157" s="39"/>
+      <c r="W157" s="20" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U158" s="38" t="n">
+      <c r="U158" s="36" t="n">
         <v>151</v>
       </c>
-      <c r="V158" s="41"/>
-      <c r="W158" s="22" t="n">
+      <c r="V158" s="39"/>
+      <c r="W158" s="20" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U159" s="38" t="n">
+      <c r="U159" s="36" t="n">
         <v>152</v>
       </c>
-      <c r="V159" s="41"/>
-      <c r="W159" s="22" t="n">
+      <c r="V159" s="39"/>
+      <c r="W159" s="20" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U160" s="38" t="n">
+      <c r="U160" s="36" t="n">
         <v>153</v>
       </c>
-      <c r="V160" s="41"/>
-      <c r="W160" s="22" t="n">
+      <c r="V160" s="39"/>
+      <c r="W160" s="20" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U161" s="38" t="n">
+      <c r="U161" s="36" t="n">
         <v>154</v>
       </c>
-      <c r="V161" s="41"/>
-      <c r="W161" s="22" t="n">
+      <c r="V161" s="39"/>
+      <c r="W161" s="20" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U162" s="38" t="n">
+      <c r="U162" s="36" t="n">
         <v>155</v>
       </c>
-      <c r="V162" s="41"/>
-      <c r="W162" s="22" t="n">
+      <c r="V162" s="39"/>
+      <c r="W162" s="20" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U163" s="38" t="n">
+      <c r="U163" s="36" t="n">
         <v>156</v>
       </c>
-      <c r="V163" s="41"/>
-      <c r="W163" s="22" t="n">
+      <c r="V163" s="39"/>
+      <c r="W163" s="20" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U164" s="38" t="n">
+      <c r="U164" s="36" t="n">
         <v>157</v>
       </c>
-      <c r="V164" s="41"/>
-      <c r="W164" s="22" t="n">
+      <c r="V164" s="39"/>
+      <c r="W164" s="20" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U165" s="38" t="n">
+      <c r="U165" s="36" t="n">
         <v>158</v>
       </c>
-      <c r="V165" s="41"/>
-      <c r="W165" s="22" t="n">
+      <c r="V165" s="39"/>
+      <c r="W165" s="20" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U166" s="38" t="n">
+      <c r="U166" s="36" t="n">
         <v>159</v>
       </c>
-      <c r="V166" s="41"/>
-      <c r="W166" s="22" t="n">
+      <c r="V166" s="39"/>
+      <c r="W166" s="20" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U167" s="38" t="n">
+      <c r="U167" s="36" t="n">
         <v>160</v>
       </c>
-      <c r="V167" s="41"/>
-      <c r="W167" s="22" t="n">
+      <c r="V167" s="39"/>
+      <c r="W167" s="20" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U168" s="38" t="n">
+      <c r="U168" s="36" t="n">
         <v>161</v>
       </c>
-      <c r="V168" s="41"/>
-      <c r="W168" s="22" t="n">
+      <c r="V168" s="39"/>
+      <c r="W168" s="20" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U169" s="38" t="n">
+      <c r="U169" s="36" t="n">
         <v>162</v>
       </c>
-      <c r="V169" s="41"/>
-      <c r="W169" s="22" t="n">
+      <c r="V169" s="39"/>
+      <c r="W169" s="20" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U170" s="38" t="n">
+      <c r="U170" s="36" t="n">
         <v>163</v>
       </c>
-      <c r="V170" s="41"/>
-      <c r="W170" s="22" t="n">
+      <c r="V170" s="39"/>
+      <c r="W170" s="20" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U171" s="38" t="n">
+      <c r="U171" s="36" t="n">
         <v>164</v>
       </c>
-      <c r="V171" s="41"/>
-      <c r="W171" s="22" t="n">
+      <c r="V171" s="39"/>
+      <c r="W171" s="20" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U172" s="38" t="n">
+      <c r="U172" s="36" t="n">
         <v>165</v>
       </c>
-      <c r="V172" s="41"/>
-      <c r="W172" s="22" t="n">
+      <c r="V172" s="39"/>
+      <c r="W172" s="20" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U173" s="38" t="n">
+      <c r="U173" s="36" t="n">
         <v>166</v>
       </c>
-      <c r="V173" s="41"/>
-      <c r="W173" s="22" t="n">
+      <c r="V173" s="39"/>
+      <c r="W173" s="20" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U174" s="38" t="n">
+      <c r="U174" s="36" t="n">
         <v>167</v>
       </c>
-      <c r="V174" s="41"/>
-      <c r="W174" s="22" t="n">
+      <c r="V174" s="39"/>
+      <c r="W174" s="20" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U175" s="38" t="n">
+      <c r="U175" s="36" t="n">
         <v>168</v>
       </c>
-      <c r="V175" s="41"/>
-      <c r="W175" s="22" t="n">
+      <c r="V175" s="39"/>
+      <c r="W175" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U176" s="38" t="n">
+      <c r="U176" s="36" t="n">
         <v>169</v>
       </c>
-      <c r="V176" s="41"/>
-      <c r="W176" s="22" t="n">
+      <c r="V176" s="39"/>
+      <c r="W176" s="20" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U177" s="38" t="n">
+      <c r="U177" s="36" t="n">
         <v>170</v>
       </c>
-      <c r="V177" s="41"/>
-      <c r="W177" s="22" t="n">
+      <c r="V177" s="39"/>
+      <c r="W177" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U178" s="38" t="n">
+      <c r="U178" s="36" t="n">
         <v>171</v>
       </c>
-      <c r="V178" s="41"/>
-      <c r="W178" s="22" t="n">
+      <c r="V178" s="39"/>
+      <c r="W178" s="20" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U179" s="38" t="n">
+      <c r="U179" s="36" t="n">
         <v>172</v>
       </c>
-      <c r="V179" s="41"/>
-      <c r="W179" s="22" t="n">
+      <c r="V179" s="39"/>
+      <c r="W179" s="20" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U180" s="38" t="n">
+      <c r="U180" s="36" t="n">
         <v>173</v>
       </c>
-      <c r="V180" s="41"/>
-      <c r="W180" s="22" t="n">
+      <c r="V180" s="39"/>
+      <c r="W180" s="20" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U181" s="38" t="n">
+      <c r="U181" s="36" t="n">
         <v>174</v>
       </c>
-      <c r="V181" s="41"/>
-      <c r="W181" s="22" t="n">
+      <c r="V181" s="39"/>
+      <c r="W181" s="20" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U182" s="38" t="n">
+      <c r="U182" s="36" t="n">
         <v>175</v>
       </c>
-      <c r="V182" s="41"/>
-      <c r="W182" s="22" t="n">
+      <c r="V182" s="39"/>
+      <c r="W182" s="20" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U183" s="38" t="n">
+      <c r="U183" s="36" t="n">
         <v>176</v>
       </c>
-      <c r="V183" s="41"/>
-      <c r="W183" s="22" t="n">
+      <c r="V183" s="39"/>
+      <c r="W183" s="20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U184" s="38" t="n">
+      <c r="U184" s="36" t="n">
         <v>177</v>
       </c>
-      <c r="V184" s="41"/>
-      <c r="W184" s="22" t="n">
+      <c r="V184" s="39"/>
+      <c r="W184" s="20" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U185" s="38" t="n">
+      <c r="U185" s="36" t="n">
         <v>178</v>
       </c>
-      <c r="V185" s="41"/>
-      <c r="W185" s="22" t="n">
+      <c r="V185" s="39"/>
+      <c r="W185" s="20" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U186" s="38" t="n">
+      <c r="U186" s="36" t="n">
         <v>179</v>
       </c>
-      <c r="V186" s="41"/>
-      <c r="W186" s="22" t="n">
+      <c r="V186" s="39"/>
+      <c r="W186" s="20" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U187" s="38" t="n">
+      <c r="U187" s="36" t="n">
         <v>180</v>
       </c>
-      <c r="V187" s="41"/>
-      <c r="W187" s="22" t="n">
+      <c r="V187" s="39"/>
+      <c r="W187" s="20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U188" s="38" t="n">
+      <c r="U188" s="36" t="n">
         <v>181</v>
       </c>
-      <c r="V188" s="41"/>
-      <c r="W188" s="22" t="n">
+      <c r="V188" s="39"/>
+      <c r="W188" s="20" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U189" s="38" t="n">
+      <c r="U189" s="36" t="n">
         <v>182</v>
       </c>
-      <c r="V189" s="41"/>
-      <c r="W189" s="22" t="n">
+      <c r="V189" s="39"/>
+      <c r="W189" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U190" s="38" t="n">
+      <c r="U190" s="36" t="n">
         <v>183</v>
       </c>
-      <c r="V190" s="41"/>
-      <c r="W190" s="22" t="n">
+      <c r="V190" s="39"/>
+      <c r="W190" s="20" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U191" s="38" t="n">
+      <c r="U191" s="36" t="n">
         <v>184</v>
       </c>
-      <c r="V191" s="41"/>
-      <c r="W191" s="22" t="n">
+      <c r="V191" s="39"/>
+      <c r="W191" s="20" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U192" s="38" t="n">
+      <c r="U192" s="36" t="n">
         <v>185</v>
       </c>
-      <c r="V192" s="41"/>
-      <c r="W192" s="22" t="n">
+      <c r="V192" s="39"/>
+      <c r="W192" s="20" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U193" s="38" t="n">
+      <c r="U193" s="36" t="n">
         <v>186</v>
       </c>
-      <c r="V193" s="41"/>
-      <c r="W193" s="22" t="n">
+      <c r="V193" s="39"/>
+      <c r="W193" s="20" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U194" s="38" t="n">
+      <c r="U194" s="36" t="n">
         <v>187</v>
       </c>
-      <c r="V194" s="41"/>
-      <c r="W194" s="22" t="n">
+      <c r="V194" s="39"/>
+      <c r="W194" s="20" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U195" s="38" t="n">
+      <c r="U195" s="36" t="n">
         <v>188</v>
       </c>
-      <c r="V195" s="41"/>
-      <c r="W195" s="22" t="n">
+      <c r="V195" s="39"/>
+      <c r="W195" s="20" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U196" s="38" t="n">
+      <c r="U196" s="36" t="n">
         <v>189</v>
       </c>
-      <c r="V196" s="41"/>
-      <c r="W196" s="22" t="n">
+      <c r="V196" s="39"/>
+      <c r="W196" s="20" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U197" s="38" t="n">
+      <c r="U197" s="36" t="n">
         <v>190</v>
       </c>
-      <c r="V197" s="41"/>
-      <c r="W197" s="22" t="n">
+      <c r="V197" s="39"/>
+      <c r="W197" s="20" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U198" s="38" t="n">
+      <c r="U198" s="36" t="n">
         <v>191</v>
       </c>
-      <c r="V198" s="41"/>
-      <c r="W198" s="22" t="n">
+      <c r="V198" s="39"/>
+      <c r="W198" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U199" s="38" t="n">
+      <c r="U199" s="36" t="n">
         <v>192</v>
       </c>
-      <c r="V199" s="41"/>
-      <c r="W199" s="22" t="n">
+      <c r="V199" s="39"/>
+      <c r="W199" s="20" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U200" s="38" t="n">
+      <c r="U200" s="36" t="n">
         <v>193</v>
       </c>
-      <c r="V200" s="41"/>
-      <c r="W200" s="22" t="n">
+      <c r="V200" s="39"/>
+      <c r="W200" s="20" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U201" s="38" t="n">
+      <c r="U201" s="36" t="n">
         <v>194</v>
       </c>
-      <c r="V201" s="41"/>
-      <c r="W201" s="22" t="n">
+      <c r="V201" s="39"/>
+      <c r="W201" s="20" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U202" s="38" t="n">
+      <c r="U202" s="36" t="n">
         <v>195</v>
       </c>
-      <c r="V202" s="41"/>
-      <c r="W202" s="22" t="n">
+      <c r="V202" s="39"/>
+      <c r="W202" s="20" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U203" s="38" t="n">
+      <c r="U203" s="36" t="n">
         <v>196</v>
       </c>
-      <c r="V203" s="41"/>
-      <c r="W203" s="22" t="n">
+      <c r="V203" s="39"/>
+      <c r="W203" s="20" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U204" s="38" t="n">
+      <c r="U204" s="36" t="n">
         <v>197</v>
       </c>
-      <c r="V204" s="41"/>
-      <c r="W204" s="22" t="n">
+      <c r="V204" s="39"/>
+      <c r="W204" s="20" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U205" s="38" t="n">
+      <c r="U205" s="36" t="n">
         <v>198</v>
       </c>
-      <c r="V205" s="41"/>
-      <c r="W205" s="22" t="n">
+      <c r="V205" s="39"/>
+      <c r="W205" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U206" s="38" t="n">
+      <c r="U206" s="36" t="n">
         <v>199</v>
       </c>
-      <c r="V206" s="41"/>
-      <c r="W206" s="22" t="n">
+      <c r="V206" s="39"/>
+      <c r="W206" s="20" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U207" s="38" t="n">
+      <c r="U207" s="36" t="n">
         <v>200</v>
       </c>
-      <c r="V207" s="41"/>
-      <c r="W207" s="22" t="n">
+      <c r="V207" s="39"/>
+      <c r="W207" s="20" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U208" s="38" t="n">
+      <c r="U208" s="36" t="n">
         <v>201</v>
       </c>
-      <c r="V208" s="41"/>
-      <c r="W208" s="22" t="n">
+      <c r="V208" s="39"/>
+      <c r="W208" s="20" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U209" s="38" t="n">
+      <c r="U209" s="36" t="n">
         <v>202</v>
       </c>
-      <c r="V209" s="41"/>
-      <c r="W209" s="22" t="n">
+      <c r="V209" s="39"/>
+      <c r="W209" s="20" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U210" s="38" t="n">
+      <c r="U210" s="36" t="n">
         <v>203</v>
       </c>
-      <c r="V210" s="41"/>
-      <c r="W210" s="22" t="n">
+      <c r="V210" s="39"/>
+      <c r="W210" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U211" s="38" t="n">
+      <c r="U211" s="36" t="n">
         <v>204</v>
       </c>
-      <c r="V211" s="41"/>
-      <c r="W211" s="22" t="n">
+      <c r="V211" s="39"/>
+      <c r="W211" s="20" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U212" s="38" t="n">
+      <c r="U212" s="36" t="n">
         <v>205</v>
       </c>
-      <c r="V212" s="41"/>
-      <c r="W212" s="22" t="n">
+      <c r="V212" s="39"/>
+      <c r="W212" s="20" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U213" s="38" t="n">
+      <c r="U213" s="36" t="n">
         <v>206</v>
       </c>
-      <c r="V213" s="41"/>
-      <c r="W213" s="22" t="n">
+      <c r="V213" s="39"/>
+      <c r="W213" s="20" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U214" s="38" t="n">
+      <c r="U214" s="36" t="n">
         <v>207</v>
       </c>
-      <c r="V214" s="41"/>
-      <c r="W214" s="22" t="n">
+      <c r="V214" s="39"/>
+      <c r="W214" s="20" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W215" s="43" t="n">
+      <c r="W215" s="41" t="n">
         <f aca="false">AVERAGE(W7:W214)</f>
         <v>10.9278846153846</v>
       </c>
@@ -10172,40 +10716,40 @@
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.3928571428571"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="44" t="s">
         <v>239</v>
       </c>
     </row>
@@ -10216,92 +10760,92 @@
       <c r="B2" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="M2" s="51" t="n">
+      <c r="M2" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="52" t="n">
+      <c r="N2" s="50" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="M3" s="51" t="n">
+      <c r="M3" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="N3" s="52" t="n">
+      <c r="N3" s="50" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="51" t="s">
         <v>253</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="M4" s="51" t="n">
+      <c r="M4" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="N4" s="52" t="n">
+      <c r="N4" s="50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10309,16 +10853,16 @@
       <c r="A5" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="M5" s="51" t="n">
+      <c r="M5" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="N5" s="52" t="n">
+      <c r="N5" s="50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10326,16 +10870,16 @@
       <c r="A6" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="M6" s="51" t="n">
+      <c r="M6" s="49" t="n">
         <v>5</v>
       </c>
-      <c r="N6" s="52" t="n">
+      <c r="N6" s="50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10346,95 +10890,95 @@
       <c r="B7" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="M7" s="51" t="n">
+      <c r="M7" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="N7" s="52" t="n">
+      <c r="N7" s="50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="K8" s="54" t="s">
+      <c r="K8" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="L8" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="M8" s="51" t="n">
+      <c r="M8" s="49" t="n">
         <v>5</v>
       </c>
-      <c r="N8" s="52" t="n">
+      <c r="N8" s="50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>271</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="L9" s="50" t="s">
+      <c r="L9" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="M9" s="51" t="n">
+      <c r="M9" s="49" t="n">
         <v>5</v>
       </c>
-      <c r="N9" s="52" t="n">
+      <c r="N9" s="50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10442,16 +10986,16 @@
       <c r="A10" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="L10" s="50" t="s">
+      <c r="L10" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="M10" s="51" t="n">
+      <c r="M10" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="52" t="n">
+      <c r="N10" s="50" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10462,92 +11006,92 @@
       <c r="B11" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="K11" s="54" t="s">
+      <c r="K11" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="L11" s="50" t="s">
+      <c r="L11" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="M11" s="51" t="n">
+      <c r="M11" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="52" t="n">
+      <c r="N11" s="50" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="K12" s="54" t="s">
+      <c r="K12" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="L12" s="50" t="s">
+      <c r="L12" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="M12" s="51" t="n">
+      <c r="M12" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="N12" s="52" t="n">
+      <c r="N12" s="50" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="51" t="s">
         <v>284</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="K13" s="54" t="s">
+      <c r="K13" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="L13" s="50" t="s">
+      <c r="L13" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="M13" s="51" t="n">
+      <c r="M13" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="N13" s="52" t="n">
+      <c r="N13" s="50" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10555,16 +11099,16 @@
       <c r="A14" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="54" t="s">
+      <c r="K14" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="L14" s="50" t="s">
+      <c r="L14" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="M14" s="51" t="n">
+      <c r="M14" s="49" t="n">
         <v>5</v>
       </c>
-      <c r="N14" s="52" t="n">
+      <c r="N14" s="50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10575,65 +11119,65 @@
       <c r="B15" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="L15" s="58" t="s">
+      <c r="L15" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="M15" s="59" t="n">
+      <c r="M15" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="N15" s="60" t="n">
+      <c r="N15" s="58" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="46" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="46" t="s">
         <v>295</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="54" t="s">
         <v>296</v>
       </c>
     </row>
@@ -10649,53 +11193,53 @@
       <c r="B19" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="46" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="51" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="51" t="s">
         <v>300</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="46" t="s">
         <v>247</v>
       </c>
     </row>
@@ -10711,56 +11255,56 @@
       <c r="B23" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="G23" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="46" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="46" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="46" t="s">
         <v>304</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="H25" s="48" t="s">
+      <c r="H25" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="I25" s="46" t="s">
         <v>247</v>
       </c>
     </row>
@@ -10776,56 +11320,56 @@
       <c r="B27" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="H27" s="54" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="51" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="51" t="s">
         <v>308</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="46" t="s">
         <v>256</v>
       </c>
     </row>
@@ -10839,4 +11383,153 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>0.797043774872</v>
+      </c>
+      <c r="C2" s="11" t="n">
+        <v>0.31879938605</v>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>0.455435091566</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>0.831097845115</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>0.743376685934</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>0.347324593484</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>0.473444031139</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>0.827932330827</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>0.730017961383</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>0.36462012896</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>0.486332872153</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>0.828715710723</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>0.767756091927</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>0.372750210261</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>0.501849475353</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>0.835436408978</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>0.764207711166</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>0.384524810765</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>0.511619232347</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>0.83674563591</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>0.853133769878</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>0.0511354079058</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>0.0964875158697</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>0.787032418953</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/qualitative_analysis.xlsx
+++ b/qualitative_analysis.xlsx
@@ -1586,7 +1586,912 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.126073672681155"/>
+          <c:y val="0.0765477279658433"/>
+          <c:w val="0.657058857439327"/>
+          <c:h val="0.429551692589204"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>same_stem_analysis!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Same Community</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>same_stem_analysis!$L$2:$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>assemblies, assembly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clipping, clips</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>drive, driver, drivers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ftp, ftps</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>http, https</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>iteration, iterator</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pipe, piping</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>rdf, rdfs</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>recording, records</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>scalability, scaling</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>scheduler, scheduling</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>select, selection</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>transparency, transparent</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>tunnel, tunneling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>same_stem_analysis!$M$2:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>same_stem_analysis!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Different Community</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>same_stem_analysis!$L$2:$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>assemblies, assembly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clipping, clips</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>drive, driver, drivers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ftp, ftps</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>http, https</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>iteration, iterator</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pipe, piping</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>rdf, rdfs</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>recording, records</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>scalability, scaling</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>scheduler, scheduling</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>select, selection</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>transparency, transparent</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>tunnel, tunneling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>same_stem_analysis!$N$2:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="58952487"/>
+        <c:axId val="34199176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="58952487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34199176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="34199176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58952487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.803348554033486"/>
+          <c:y val="0.303612254229538"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F-measure'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F-measure'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>E_cotags</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E_tag</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E_ex</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E_llda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E_wiki</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Co_occ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-measure'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.797043774872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.743376685934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.730017961383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.767756091927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.764207711166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.853133769878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F-measure'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F-measure'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>E_cotags</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E_tag</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E_ex</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E_llda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E_wiki</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Co_occ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-measure'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.31879938605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.347324593484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36462012896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.372750210261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.384524810765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0511354079058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F-measure'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F-measure'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>E_cotags</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E_tag</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E_ex</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E_llda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E_wiki</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Co_occ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-measure'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.455435091566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.473444031139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.486332872153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.501849475353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.511619232347</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0964875158697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F-measure'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F-measure'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>E_cotags</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E_tag</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E_ex</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E_llda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E_wiki</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Co_occ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-measure'!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.831097845115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.827932330827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.828715710723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.835436408978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83674563591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.787032418953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="13078889"/>
+        <c:axId val="56616037"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="13078889"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56616037"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56616037"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13078889"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2078,11 +2983,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="12434222"/>
-        <c:axId val="24288715"/>
+        <c:axId val="98469663"/>
+        <c:axId val="62543446"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="12434222"/>
+        <c:axId val="98469663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,14 +3060,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24288715"/>
+        <c:crossAx val="62543446"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24288715"/>
+        <c:axId val="62543446"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2244,7 +3149,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12434222"/>
+        <c:crossAx val="98469663"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2281,7 +3186,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2773,11 +3678,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="43979323"/>
-        <c:axId val="78940567"/>
+        <c:axId val="40587782"/>
+        <c:axId val="9220186"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43979323"/>
+        <c:axId val="40587782"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2850,14 +3755,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78940567"/>
+        <c:crossAx val="9220186"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78940567"/>
+        <c:axId val="9220186"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2939,912 +3844,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43979323"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.126073672681155"/>
-          <c:y val="0.0765477279658433"/>
-          <c:w val="0.657058857439327"/>
-          <c:h val="0.429551692589204"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>same_stem_analysis!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Same Community</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>same_stem_analysis!$L$2:$L$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>assemblies, assembly</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>clipping, clips</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>drive, driver, drivers</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ftp, ftps</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>http, https</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>iteration, iterator</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>pipe, piping</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>rdf, rdfs</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>recording, records</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>scalability, scaling</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>scheduler, scheduling</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>select, selection</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>transparency, transparent</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>tunnel, tunneling</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>same_stem_analysis!$M$2:$M$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>same_stem_analysis!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Different Community</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>same_stem_analysis!$L$2:$L$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>assemblies, assembly</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>clipping, clips</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>drive, driver, drivers</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ftp, ftps</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>http, https</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>iteration, iterator</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>pipe, piping</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>rdf, rdfs</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>recording, records</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>scalability, scaling</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>scheduler, scheduling</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>select, selection</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>transparency, transparent</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>tunnel, tunneling</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>same_stem_analysis!$N$2:$N$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="31258735"/>
-        <c:axId val="89898866"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="31258735"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="89898866"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="89898866"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="31258735"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.803348554033486"/>
-          <c:y val="0.303612254229538"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F-measure'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'F-measure'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>E_cotags</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E_tag</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>E_ex</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>E_llda</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>E_wiki</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Co_occ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'F-measure'!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.797043774872</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.743376685934</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.730017961383</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.767756091927</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.764207711166</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.853133769878</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F-measure'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Recall</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'F-measure'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>E_cotags</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E_tag</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>E_ex</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>E_llda</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>E_wiki</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Co_occ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'F-measure'!$C$2:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.31879938605</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.347324593484</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.36462012896</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.372750210261</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.384524810765</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0511354079058</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F-measure'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F-measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'F-measure'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>E_cotags</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E_tag</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>E_ex</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>E_llda</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>E_wiki</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Co_occ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'F-measure'!$D$2:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.455435091566</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.473444031139</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.486332872153</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.501849475353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.511619232347</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0964875158697</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F-measure'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'F-measure'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>E_cotags</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E_tag</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>E_ex</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>E_llda</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>E_wiki</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Co_occ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'F-measure'!$E$2:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.831097845115</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.827932330827</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.828715710723</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.835436408978</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.83674563591</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.787032418953</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="89672265"/>
-        <c:axId val="65551972"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="89672265"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="65551972"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="65551972"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="89672265"/>
+        <c:crossAx val="40587782"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3951,15 +3951,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>256320</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:colOff>47880</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>357120</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:colOff>148680</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3967,7 +3967,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5523480" y="2773440"/>
+        <a:off x="5315040" y="2658240"/>
         <a:ext cx="6244560" cy="2360520"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3985,16 +3985,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>106200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>325800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4002,8 +4002,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5367600" y="36000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="959040" y="1604520"/>
+        <a:ext cx="4698000" cy="1321560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11393,7 +11393,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/qualitative_analysis.xlsx
+++ b/qualitative_analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="2" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
@@ -1586,912 +1586,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.126073672681155"/>
-          <c:y val="0.0765477279658433"/>
-          <c:w val="0.657058857439327"/>
-          <c:h val="0.429551692589204"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>same_stem_analysis!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Same Community</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>same_stem_analysis!$L$2:$L$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>assemblies, assembly</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>clipping, clips</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>drive, driver, drivers</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ftp, ftps</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>http, https</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>iteration, iterator</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>pipe, piping</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>rdf, rdfs</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>recording, records</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>scalability, scaling</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>scheduler, scheduling</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>select, selection</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>transparency, transparent</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>tunnel, tunneling</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>same_stem_analysis!$M$2:$M$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>same_stem_analysis!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Different Community</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>same_stem_analysis!$L$2:$L$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>assemblies, assembly</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>clipping, clips</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>drive, driver, drivers</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ftp, ftps</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>http, https</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>iteration, iterator</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>pipe, piping</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>rdf, rdfs</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>recording, records</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>scalability, scaling</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>scheduler, scheduling</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>select, selection</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>transparency, transparent</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>tunnel, tunneling</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>same_stem_analysis!$N$2:$N$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="58952487"/>
-        <c:axId val="34199176"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="58952487"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="34199176"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="34199176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="58952487"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.803348554033486"/>
-          <c:y val="0.303612254229538"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F-measure'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'F-measure'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>E_cotags</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E_tag</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>E_ex</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>E_llda</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>E_wiki</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Co_occ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'F-measure'!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.797043774872</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.743376685934</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.730017961383</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.767756091927</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.764207711166</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.853133769878</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F-measure'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Recall</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'F-measure'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>E_cotags</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E_tag</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>E_ex</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>E_llda</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>E_wiki</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Co_occ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'F-measure'!$C$2:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.31879938605</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.347324593484</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.36462012896</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.372750210261</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.384524810765</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0511354079058</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F-measure'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F-measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'F-measure'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>E_cotags</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E_tag</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>E_ex</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>E_llda</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>E_wiki</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Co_occ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'F-measure'!$D$2:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.455435091566</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.473444031139</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.486332872153</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.501849475353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.511619232347</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0964875158697</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F-measure'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'F-measure'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>E_cotags</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E_tag</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>E_ex</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>E_llda</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>E_wiki</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Co_occ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'F-measure'!$E$2:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.831097845115</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.827932330827</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.828715710723</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.835436408978</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.83674563591</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.787032418953</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="13078889"/>
-        <c:axId val="56616037"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="13078889"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="56616037"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="56616037"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="13078889"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2983,11 +2078,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="98469663"/>
-        <c:axId val="62543446"/>
+        <c:axId val="43066402"/>
+        <c:axId val="88207656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98469663"/>
+        <c:axId val="43066402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3060,14 +2155,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62543446"/>
+        <c:crossAx val="88207656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62543446"/>
+        <c:axId val="88207656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +2244,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98469663"/>
+        <c:crossAx val="43066402"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3186,7 +2281,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3678,11 +2773,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="40587782"/>
-        <c:axId val="9220186"/>
+        <c:axId val="18430121"/>
+        <c:axId val="34173478"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40587782"/>
+        <c:axId val="18430121"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3755,14 +2850,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9220186"/>
+        <c:crossAx val="34173478"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9220186"/>
+        <c:axId val="34173478"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3844,7 +2939,916 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40587782"/>
+        <c:crossAx val="18430121"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.126062738199941"/>
+          <c:y val="0.0765594021656245"/>
+          <c:w val="0.656992084432718"/>
+          <c:h val="0.429464694219918"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>same_stem_analysis!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Same Community</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>same_stem_analysis!$L$2:$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>assemblies, assembly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clipping, clips</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>drive, driver, drivers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ftp, ftps</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>http, https</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>iteration, iterator</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pipe, piping</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>rdf, rdfs</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>recording, records</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>scalability, scaling</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>scheduler, scheduling</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>select, selection</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>transparency, transparent</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>tunnel, tunneling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>same_stem_analysis!$M$2:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>same_stem_analysis!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Different Community</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>same_stem_analysis!$L$2:$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>assemblies, assembly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clipping, clips</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>drive, driver, drivers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ftp, ftps</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>http, https</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>iteration, iterator</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pipe, piping</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>rdf, rdfs</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>recording, records</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>scalability, scaling</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>scheduler, scheduling</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>select, selection</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>transparency, transparent</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>tunnel, tunneling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>same_stem_analysis!$N$2:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="35093115"/>
+        <c:axId val="15367039"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="35093115"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15367039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="15367039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="35093115"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.803348554033486"/>
+          <c:y val="0.303612254229538"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F-measure'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F-measure'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>E_cotags</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E_tag</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E_ex</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E_llda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E_wiki</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Co_occ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-measure'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.797043774872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.743376685934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.730017961383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.767756091927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.764207711166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.853133769878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F-measure'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F-measure'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>E_cotags</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E_tag</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E_ex</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E_llda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E_wiki</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Co_occ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-measure'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.31879938605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.347324593484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36462012896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.372750210261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.384524810765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0511354079058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F-measure'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F-measure'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>E_cotags</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E_tag</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E_ex</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E_llda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E_wiki</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Co_occ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-measure'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.455435091566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.473444031139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.486332872153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.501849475353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.511619232347</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0964875158697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F-measure'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F-measure'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>E_cotags</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E_tag</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E_ex</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E_llda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E_wiki</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Co_occ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F-measure'!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.831097845115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.827932330827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.828715710723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.835436408978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83674563591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.787032418953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="33570151"/>
+        <c:axId val="32420597"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="33570151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32420597"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="32420597"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33570151"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3892,9 +3896,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>464040</xdr:colOff>
+      <xdr:colOff>463680</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3903,7 +3907,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="312840" y="3073320"/>
-        <a:ext cx="3703680" cy="1924560"/>
+        <a:ext cx="3655800" cy="1924200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3922,9 +3926,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>483480</xdr:colOff>
+      <xdr:colOff>483120</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3933,7 +3937,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="312480" y="5256720"/>
-        <a:ext cx="3723480" cy="1935720"/>
+        <a:ext cx="3675600" cy="1935360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3957,9 +3961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>148680</xdr:colOff>
+      <xdr:colOff>148320</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3967,8 +3971,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5315040" y="2658240"/>
-        <a:ext cx="6244560" cy="2360520"/>
+        <a:off x="5219640" y="2658240"/>
+        <a:ext cx="6139440" cy="2360160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3992,9 +3996,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>325800</xdr:colOff>
+      <xdr:colOff>325440</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4002,8 +4006,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="959040" y="1604520"/>
-        <a:ext cx="4698000" cy="1321560"/>
+        <a:off x="946440" y="1604520"/>
+        <a:ext cx="4636800" cy="1321200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4029,18 +4033,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4774,7 +4778,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6436,20 +6440,20 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7015,6 +7019,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" password="ed89" objects="true" scenarios="true" selectLockedCells="true" selectUnlockedCells="true"/>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
@@ -7039,35 +7044,35 @@
   </sheetPr>
   <dimension ref="A1:W215"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Y5" activeCellId="0" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="20" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="20" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="7.29081632653061"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="20" width="0"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="20" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="20" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="20" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="20" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="20" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="20" width="7.69387755102041"/>
     <col collapsed="false" hidden="true" max="8" min="8" style="20" width="0"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="20" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="20" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="20" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="20" width="7.56122448979592"/>
     <col collapsed="false" hidden="true" max="12" min="12" style="20" width="0"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="20" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="20" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="20" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="20" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="20" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="20" width="7.4234693877551"/>
     <col collapsed="false" hidden="true" max="16" min="16" style="20" width="0"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="20" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="20" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="20" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="20" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="20" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="20" width="7.4234693877551"/>
     <col collapsed="false" hidden="true" max="20" min="20" style="20" width="0"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="20" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="20" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="20" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="20" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="20" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="20" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10694,6 +10699,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" password="ed89" objects="true" scenarios="true" selectLockedCells="true" selectUnlockedCells="true"/>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -10722,18 +10728,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11374,6 +11380,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" password="ed89" objects="true" scenarios="true" selectLockedCells="true" selectUnlockedCells="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11392,18 +11399,18 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11523,6 +11530,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" password="ed89" objects="true" scenarios="true" selectLockedCells="true" selectUnlockedCells="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
